--- a/SecondKeyboard/iCue/profile creating tool.xlsx
+++ b/SecondKeyboard/iCue/profile creating tool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Woong\Documents\GitHub\Scripts\SecondKeyboard\iCue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2231241-D9B2-4054-9F3E-744E123C41B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEECF55-85E0-44FF-8A7F-54CE9B7E6447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2B087225-0969-45CE-ABD6-9F0C4354DA0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{2B087225-0969-45CE-ABD6-9F0C4354DA0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="W40" t="str">
         <f t="shared" ref="W40:W101" ca="1" si="78">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))</f>
-        <v>bbb3db81-109d-3952-034d-6bfc0b1790f8</v>
+        <v>09d5dab5-4681-69df-5d65-8ff5e7b64c85</v>
       </c>
       <c r="AE40" t="s">
         <v>57</v>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="W41" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>c2a64000-13ea-35a5-616f-df990bd0a1e8</v>
+        <v>e0870fe2-a546-6ad7-225c-cb33e7e444b1</v>
       </c>
       <c r="AE41" t="s">
         <v>58</v>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="W42" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>b07a03ae-8b22-7e4e-6b76-d123a9f0292f</v>
+        <v>02edba17-1073-78c8-79e7-c96173309fdc</v>
       </c>
       <c r="AE42" t="s">
         <v>59</v>
@@ -4772,7 +4772,7 @@
       </c>
       <c r="W43" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>a0be0b64-5739-492e-44e9-fef3734946ea</v>
+        <v>17290348-2ece-4bd3-3bc3-135702eb7682</v>
       </c>
       <c r="AE43" t="s">
         <v>60</v>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="W44" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>4e30f3e1-5c16-0ed5-66e5-87c518f584eb</v>
+        <v>c95365a1-4541-9ef4-5437-b6b768496caa</v>
       </c>
       <c r="AE44" t="s">
         <v>61</v>
@@ -4922,7 +4922,7 @@
       </c>
       <c r="W45" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>f67dfe70-291d-7db9-1ecf-c17349fd6aec</v>
+        <v>92bc0804-7e5d-474b-06fd-6af5b965a442</v>
       </c>
       <c r="AE45" t="s">
         <v>62</v>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="W46" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>20848f5a-189a-0658-104a-ef48c77e2258</v>
+        <v>8797b516-83a6-2dec-11f7-eb9b1bff78c2</v>
       </c>
       <c r="AE46" t="s">
         <v>63</v>
@@ -5072,7 +5072,7 @@
       </c>
       <c r="W47" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>b5c9262b-a69f-9286-61d5-d6fdda0a0790</v>
+        <v>8f54bbce-3eef-30b9-8cd4-f989dc2921c8</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
@@ -5141,7 +5141,7 @@
       </c>
       <c r="W48" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>5cd98702-a3fd-0928-4b64-ec6658d83ee1</v>
+        <v>f0b4cb45-44ec-7b8f-0d34-7b6d3be0130a</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="W49" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>5daa49be-81e5-9e0d-6c32-8ed047363173</v>
+        <v>f3e6cdef-a135-1bc5-369e-6d53712751c1</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
@@ -5279,7 +5279,7 @@
       </c>
       <c r="W50" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>d12fd410-0eee-6695-3079-e8ec46e773aa</v>
+        <v>ea441322-248d-47bc-1c67-b30e31c19dfc</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
@@ -5348,7 +5348,7 @@
       </c>
       <c r="W51" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>86173534-740a-3b72-59d1-e24a0f9c0743</v>
+        <v>b2318fe9-7678-18e2-70da-6aedc187281a</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
@@ -5417,7 +5417,7 @@
       </c>
       <c r="W52" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>7d29be2e-a2de-031e-7a75-74703afd2bd5</v>
+        <v>13934c7c-4e4f-a400-5681-c96676de2af3</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
@@ -5486,7 +5486,7 @@
       </c>
       <c r="W53" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>50761e7c-2496-5688-97f8-b54e3ac18ec2</v>
+        <v>70115a38-9dd9-44e4-0d16-e304c8e0182f</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
@@ -5555,7 +5555,7 @@
       </c>
       <c r="W54" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>e1ff3b32-03ce-57bc-20f5-2e401e706d4f</v>
+        <v>ce1414ed-6e84-96ad-645a-b27957f64b48</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
@@ -5624,7 +5624,7 @@
       </c>
       <c r="W55" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>bb8cf18c-909f-99bc-115b-38c07a1138f4</v>
+        <v>de458e87-1563-0cfa-5c89-42f6cb160c10</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
@@ -5693,7 +5693,7 @@
       </c>
       <c r="W56" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>4358b968-05bf-4bd8-6516-2cddeb16144d</v>
+        <v>d771a76a-8e31-2f82-97e7-f0a1be28571a</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
@@ -5762,7 +5762,7 @@
       </c>
       <c r="W57" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>9115d096-4fe8-6a85-349e-5a80b2966b98</v>
+        <v>3dea747b-4c51-0753-4c6b-afefc3c81892</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="W58" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>eac08358-17e3-6f8b-74ee-f99f2a722be1</v>
+        <v>2f804201-3275-34c7-9f92-c32cec341db4</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="W59" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>7fdbdb08-615f-6f2f-1a3c-71eb710ea114</v>
+        <v>747c4efa-5ebd-13c0-1be1-5fa17c912b4e</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
@@ -5969,7 +5969,7 @@
       </c>
       <c r="W60" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>9cfbce2a-161d-93a1-9ff6-730718a76f37</v>
+        <v>cc2d8a2d-516d-9323-24e4-bdeb11bd4caa</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -6038,7 +6038,7 @@
       </c>
       <c r="W61" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>21fc7aff-7394-2610-618a-d17937936180</v>
+        <v>1ed0994c-1263-5ed7-3a9c-1ae204c22eb5</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
@@ -6107,7 +6107,7 @@
       </c>
       <c r="W62" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>737d8e3f-1b9e-77eb-66ce-cf0ed5aa5e5e</v>
+        <v>b7a03531-3075-0b53-4c0c-7d7e350f96c6</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="W63" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>b7cf9e81-2755-3937-1d1a-c6afa39a4b25</v>
+        <v>37edc73c-3fc9-8902-6b60-8c06c5e04b99</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="W64" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>3a08758a-5909-0c80-2707-d17082845a90</v>
+        <v>bd1c95a5-5b2d-8bcc-6239-c4629154771f</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
@@ -6314,7 +6314,7 @@
       </c>
       <c r="W65" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>f1b8301d-38db-81e8-a3fa-c1e060ca6df5</v>
+        <v>62e1da11-a504-9f74-95c6-6def49444f79</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="W66" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>aacfbccb-91d4-569c-a63c-d83828aca563</v>
+        <v>f22146da-2b38-1249-37fc-42f07b203a41</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
@@ -6452,7 +6452,7 @@
       </c>
       <c r="W67" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>d521ea4f-3732-4c88-3489-1ad3d39a74b8</v>
+        <v>0b5efdb3-2b87-8fe2-4679-ef16d4e5a643</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
@@ -6521,7 +6521,7 @@
       </c>
       <c r="W68" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>bd5bb51f-4021-4402-2fb2-274da6b734f4</v>
+        <v>8c9fc893-7de1-1977-7356-2341f5584bfa</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
@@ -6590,7 +6590,7 @@
       </c>
       <c r="W69" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>84113ff0-0c46-5131-32fe-575109f031a9</v>
+        <v>5be078c8-5808-a2f9-4642-12d3c7ea7c44</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
@@ -6659,7 +6659,7 @@
       </c>
       <c r="W70" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>0f112733-a591-6550-97d2-057a53bf102d</v>
+        <v>48261dbe-7eac-2214-9481-55db082e8fc1</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
@@ -6728,7 +6728,7 @@
       </c>
       <c r="W71" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>824f0f6c-9d42-12f9-3da3-ec54fbb47bfa</v>
+        <v>ea0e6706-15e1-660c-5385-347884306f45</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
@@ -6797,7 +6797,7 @@
       </c>
       <c r="W72" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>88b855b4-5bf3-6876-1030-04ccb8095686</v>
+        <v>7aa61f62-9829-5421-75dd-7ae44d269832</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
@@ -6866,7 +6866,7 @@
       </c>
       <c r="W73" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>452f2698-0a3b-153d-78e7-e6e767d51027</v>
+        <v>24d0885c-a494-6aea-a11b-e9877c52031b</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="W74" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>ad32e709-9736-4dc2-0b7a-1b4e3cae88cc</v>
+        <v>486569d3-0fef-333e-282c-f54c874a491c</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="W75" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>bf36323d-0bbd-47d2-4be2-9519357465f7</v>
+        <v>08772f42-59f6-3e19-33f0-f76d443a2845</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="W76" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>2a2b1ad3-89eb-5a20-883a-c1c0d890576a</v>
+        <v>1260363b-5802-9bde-814d-92eab442485e</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="W77" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>665e60ab-32f9-8842-0373-503fa1410674</v>
+        <v>900db94a-7d9e-198a-5b8d-155eb7c60682</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
@@ -7211,7 +7211,7 @@
       </c>
       <c r="W78" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>b6e94d6a-6df6-8983-36b8-dca23e5d05f7</v>
+        <v>9a2974d4-5691-98d6-241a-a51ee57d3642</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="W79" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>5dde2dc4-3736-01c3-6918-74fb5a630f72</v>
+        <v>781bb8ca-737c-2144-8b0a-8244031d7644</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
@@ -7349,7 +7349,7 @@
       </c>
       <c r="W80" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>6607d889-685a-55fa-9458-e05783ea5e3d</v>
+        <v>ebea0569-4c4d-82a3-6eee-78f4b52b6e28</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
@@ -7418,7 +7418,7 @@
       </c>
       <c r="W81" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>d66eedc0-4262-4676-86e6-436db1a037cb</v>
+        <v>7ee68868-3fd8-a595-83ef-ac503bd09a7e</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="W82" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>b2271c07-70d5-8ac3-8c40-51ded9cf80c7</v>
+        <v>d47635f5-05ff-40ee-17da-23df7d1b5a7d</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="W83" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>32fe9edb-30a8-6732-1e36-6d422e6d4b93</v>
+        <v>0189cc99-2983-68e9-2cf7-bc4f5cef1c09</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
@@ -7625,7 +7625,7 @@
       </c>
       <c r="W84" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>fad7dd8d-4ac7-955b-092d-076f6048121e</v>
+        <v>bbebf6db-56b1-33d7-a46b-bbddb98716da</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
@@ -7694,7 +7694,7 @@
       </c>
       <c r="W85" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>6d87c317-0b39-2b4a-0acc-70602b3b8377</v>
+        <v>72755af4-8916-87d9-825c-0d01839b5245</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
@@ -7763,7 +7763,7 @@
       </c>
       <c r="W86" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>9cd86583-0a1a-4c9a-714c-ac9f86fb9a69</v>
+        <v>a029b04b-739a-2ec9-4a2c-fecfd5e9796d</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
@@ -7832,7 +7832,7 @@
       </c>
       <c r="W87" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>0f4ad226-075e-4c21-6580-5526fa50a21e</v>
+        <v>7b4b34e9-19d8-4d6d-3076-37ce695862e5</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
@@ -7901,7 +7901,7 @@
       </c>
       <c r="W88" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>19e0d1bf-555f-646e-3ec1-332c5b0e3071</v>
+        <v>87df4581-0f0e-59f7-6755-d7f353c6750a</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
@@ -7970,7 +7970,7 @@
       </c>
       <c r="W89" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>34deb0a4-7baa-2d51-01d4-7a579fb26e26</v>
+        <v>f98a7593-5033-586f-3926-da068cc82e72</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
@@ -8039,7 +8039,7 @@
       </c>
       <c r="W90" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>e9afa1b5-6cb3-72c4-4318-e36676e37d2c</v>
+        <v>fa43e1d8-2f8d-8e22-90f9-8e56f7cd8229</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
@@ -8108,7 +8108,7 @@
       </c>
       <c r="W91" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>82298b9d-8ab2-8565-0798-05d0c93589dd</v>
+        <v>94b2cfd8-01b9-792d-1032-6993843644f3</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="W92" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>0c0ab726-539d-2c1e-2935-3d4a92a6104c</v>
+        <v>22e55c1c-09fd-9cc1-32e2-8a62bf3687d8</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
@@ -8246,7 +8246,7 @@
       </c>
       <c r="W93" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>48c774bb-85e9-98db-57e3-aea61b5946bc</v>
+        <v>851f238d-4715-10a0-4bb2-66c2af315d44</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
@@ -8315,7 +8315,7 @@
       </c>
       <c r="W94" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>d9f3a4b3-4d99-5ac4-08ee-62da1554986f</v>
+        <v>896e09ee-178c-5592-5525-61d94b51a6c9</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="W95" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>e2482ade-4002-2dac-655a-e11a67f75ec4</v>
+        <v>20fef932-2154-0109-4631-72362f70985c</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
@@ -8453,7 +8453,7 @@
       </c>
       <c r="W96" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>bfbfb7f6-7094-6565-3d4d-29f2137b52c8</v>
+        <v>3befb55b-a006-0d42-654d-4f42ef536d11</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.25">
@@ -8522,7 +8522,7 @@
       </c>
       <c r="W97" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>c61ce04e-0002-2e8e-76f4-a2ca41502933</v>
+        <v>7c591513-82a0-542b-8729-6ceb5a54592b</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.25">
@@ -8590,7 +8590,7 @@
       </c>
       <c r="W98" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>7a4f974d-6382-6f47-45fc-e69e104d5c1a</v>
+        <v>4c64fdfe-27b4-1b79-6232-2a82b0f33b24</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
@@ -8658,7 +8658,7 @@
       </c>
       <c r="W99" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>7fea3a0f-4dfb-72c0-1ca6-d30962b853f0</v>
+        <v>19d2a487-3e3d-99ef-0e43-ca2a093a40fa</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.25">
@@ -8726,7 +8726,7 @@
       </c>
       <c r="W100" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>aee7041b-53a5-7c1b-2748-6ac0b9646ecd</v>
+        <v>ff30d137-83b8-753a-660d-bad60ea9a014</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
@@ -8794,7 +8794,7 @@
       </c>
       <c r="W101" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>70d04783-79b8-0ea6-332c-cdc404239309</v>
+        <v>8e002996-0b74-2e25-0e8d-a25176dd3935</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.25">
@@ -9583,8 +9583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E279DDDB-1CE1-4893-A52C-DF2DBA95B302}">
   <dimension ref="A1:V113"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16704,7 +16704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B6D25B-216E-49A2-A8AF-3825FD2025B9}">
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>

--- a/SecondKeyboard/iCue/profile creating tool.xlsx
+++ b/SecondKeyboard/iCue/profile creating tool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Woong\Documents\GitHub\Scripts\SecondKeyboard\iCue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEECF55-85E0-44FF-8A7F-54CE9B7E6447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B897164-2B2E-4B91-9580-EE581B993997}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{2B087225-0969-45CE-ABD6-9F0C4354DA0B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2B087225-0969-45CE-ABD6-9F0C4354DA0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="365">
   <si>
     <t>&lt;value</t>
   </si>
@@ -1910,24 +1910,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF660FC2-EEA2-4848-8FC4-144E4F2F697C}">
-  <dimension ref="A1:AG113"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78:C113"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A146" sqref="A130:AI146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="4"/>
-    <col min="20" max="20" width="9.140625" style="3"/>
-    <col min="21" max="21" width="9.140625" style="4"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="24.5546875" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" customWidth="1"/>
+    <col min="19" max="19" width="9.109375" style="4"/>
+    <col min="20" max="20" width="9.109375" style="3"/>
+    <col min="21" max="21" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>&lt;value2&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483663&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro1&lt;/name&gt; &lt;id&gt;{414cf73f-2b35-4180-bc9d-9c250d0fb535}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;F13&lt;/value0&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value2&gt;</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="str">
         <f>A2</f>
         <v>&lt;value</v>
@@ -2066,7 +2066,7 @@
         <v>&lt;value3&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483664&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro2&lt;/name&gt; &lt;id&gt;{32d6b8d2-6c92-0214-3be7-6637c378521c}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;F13&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value3&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="str">
         <f t="shared" ref="A4:A9" si="2">A3</f>
         <v>&lt;value</v>
@@ -2128,7 +2128,7 @@
         <v>&lt;value4&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483665&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro3&lt;/name&gt; &lt;id&gt;{8429e02c-2af0-718a-0b67-0e6a51236d1f}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftAlt&lt;/value0&gt; &lt;value1&gt;F13&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value4&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="str">
         <f t="shared" si="2"/>
         <v>&lt;value</v>
@@ -2190,7 +2190,7 @@
         <v>&lt;value5&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483666&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro4&lt;/name&gt; &lt;id&gt;{74eb7793-1083-4fb6-50d6-8bb657a61168}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;F13&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value5&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="str">
         <f t="shared" si="2"/>
         <v>&lt;value</v>
@@ -2252,7 +2252,7 @@
         <v>&lt;value6&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483667&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro5&lt;/name&gt; &lt;id&gt;{ecc7938f-59da-89a3-6bbf-3644105830f5}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;F13&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value6&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="str">
         <f t="shared" si="2"/>
         <v>&lt;value</v>
@@ -2314,7 +2314,7 @@
         <v>&lt;value7&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483668&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro6&lt;/name&gt; &lt;id&gt;{d46732d4-1d4b-049e-1881-8b9125b63a88}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;F13&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value7&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="str">
         <f t="shared" si="2"/>
         <v>&lt;value</v>
@@ -2376,7 +2376,7 @@
         <v>&lt;value8&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483669&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro7&lt;/name&gt; &lt;id&gt;{1e4c071e-a13e-93cd-4c88-a1c80a7c8dde}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;F13&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value8&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="str">
         <f t="shared" si="2"/>
         <v>&lt;value</v>
@@ -2438,7 +2438,7 @@
         <v>&lt;value9&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483670&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro8&lt;/name&gt; &lt;id&gt;{295c8f14-a777-9611-1623-c37c2bdf6ff0}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;LeftAlt&lt;/value2&gt; &lt;value3&gt;F13&lt;/value3&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value9&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="str">
         <f t="shared" ref="A10:A17" si="9">A9</f>
         <v>&lt;value</v>
@@ -2503,7 +2503,7 @@
         <v>&lt;value10&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483671&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro9&lt;/name&gt; &lt;id&gt;{7e353507-60bd-2043-04c3-e8b6480265bb}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;F14&lt;/value0&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value10&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="str">
         <f t="shared" si="9"/>
         <v>&lt;value</v>
@@ -2568,7 +2568,7 @@
         <v>&lt;value11&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483672&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro10&lt;/name&gt; &lt;id&gt;{2805a72c-76a4-64e5-38fa-27ed51de1c42}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;F14&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value11&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
         <f t="shared" si="9"/>
         <v>&lt;value</v>
@@ -2633,7 +2633,7 @@
         <v>&lt;value12&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483673&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro11&lt;/name&gt; &lt;id&gt;{e011abfe-5e7e-54a2-9ee2-f826f2775f55}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftAlt&lt;/value0&gt; &lt;value1&gt;F14&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value12&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="str">
         <f t="shared" si="9"/>
         <v>&lt;value</v>
@@ -2698,7 +2698,7 @@
         <v>&lt;value13&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483674&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro12&lt;/name&gt; &lt;id&gt;{bac2cf0f-598f-1ac8-7e19-d517ca032d41}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;F14&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value13&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="str">
         <f t="shared" si="9"/>
         <v>&lt;value</v>
@@ -2763,7 +2763,7 @@
         <v>&lt;value14&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483675&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro13&lt;/name&gt; &lt;id&gt;{ece64916-3996-9483-4524-777ec9629dc3}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;F14&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value14&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str">
         <f t="shared" si="9"/>
         <v>&lt;value</v>
@@ -2828,7 +2828,7 @@
         <v>&lt;value15&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483676&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro14&lt;/name&gt; &lt;id&gt;{ed1abd5a-a753-0d2b-89a8-a24fc9511d78}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;F14&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value15&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="str">
         <f t="shared" si="9"/>
         <v>&lt;value</v>
@@ -2893,7 +2893,7 @@
         <v>&lt;value16&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483677&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro15&lt;/name&gt; &lt;id&gt;{c64b6fb2-3305-66fd-3b5f-a8e3a9d217c5}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;F14&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value16&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="str">
         <f t="shared" si="9"/>
         <v>&lt;value</v>
@@ -2958,7 +2958,7 @@
         <v>&lt;value17&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483678&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro16&lt;/name&gt; &lt;id&gt;{f5751d48-78b1-8b05-9a20-ec741b8ea3f8}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;LeftAlt&lt;/value2&gt; &lt;value3&gt;F14&lt;/value3&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value17&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="str">
         <f t="shared" ref="A18:A81" si="24">A17</f>
         <v>&lt;value</v>
@@ -3023,7 +3023,7 @@
         <v>&lt;value18&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483679&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro17&lt;/name&gt; &lt;id&gt;{3c15809f-9310-5934-3305-f56ad8877d01}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;F15&lt;/value0&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value18&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -3091,7 +3091,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -3156,7 +3156,7 @@
         <v>&lt;value20&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483681&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro19&lt;/name&gt; &lt;id&gt;{d7ca59ea-7b46-827e-2622-20cae0370699}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftAlt&lt;/value0&gt; &lt;value1&gt;F15&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value20&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -3221,7 +3221,7 @@
         <v>&lt;value21&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483682&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro20&lt;/name&gt; &lt;id&gt;{f5281981-7eee-7dd9-788a-76014b183eb4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;F15&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value21&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -3286,7 +3286,7 @@
         <v>&lt;value22&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483683&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro21&lt;/name&gt; &lt;id&gt;{5467515c-6842-1fd7-588e-c1f5cd01454f}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;F15&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value22&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -3354,7 +3354,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -3422,7 +3422,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -3490,7 +3490,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -3558,7 +3558,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -3623,7 +3623,7 @@
         <v>&lt;value27&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483688&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro26&lt;/name&gt; &lt;id&gt;{4b0f6be7-33f0-2053-3601-c78159794ebe}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;F16&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value27&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -3697,7 +3697,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -3771,7 +3771,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -3845,7 +3845,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -3919,7 +3919,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -3993,7 +3993,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -4067,7 +4067,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -4141,7 +4141,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -4215,7 +4215,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -4280,7 +4280,7 @@
         <v>&lt;value36&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483697&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro35&lt;/name&gt; &lt;id&gt;{472568e4-49ac-9cf3-951a-06bd68419d31}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftAlt&lt;/value0&gt; &lt;value1&gt;F17&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value36&gt;</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -4345,7 +4345,7 @@
         <v>&lt;value37&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483698&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro36&lt;/name&gt; &lt;id&gt;{fc308fc4-653f-776c-877a-e4ddf54501e7}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;F17&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value37&gt;</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -4410,7 +4410,7 @@
         <v>&lt;value38&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483699&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro37&lt;/name&gt; &lt;id&gt;{4565bad7-839a-2d75-3ab1-1927d14050da}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;F17&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value38&gt;</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -4481,7 +4481,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="W40" t="str">
         <f t="shared" ref="W40:W101" ca="1" si="78">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))</f>
-        <v>09d5dab5-4681-69df-5d65-8ff5e7b64c85</v>
+        <v>a7b8e3e5-3f9e-0538-2597-828fe53b204f</v>
       </c>
       <c r="AE40" t="s">
         <v>57</v>
@@ -4556,7 +4556,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="W41" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>e0870fe2-a546-6ad7-225c-cb33e7e444b1</v>
+        <v>10a600ce-32b0-9d06-4973-b9103abc13af</v>
       </c>
       <c r="AE41" t="s">
         <v>58</v>
@@ -4631,7 +4631,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="W42" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>02edba17-1073-78c8-79e7-c96173309fdc</v>
+        <v>7e9d49ab-7cd8-6474-7a2d-6190ecee7e2e</v>
       </c>
       <c r="AE42" t="s">
         <v>59</v>
@@ -4706,7 +4706,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -4772,7 +4772,7 @@
       </c>
       <c r="W43" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>17290348-2ece-4bd3-3bc3-135702eb7682</v>
+        <v>7f17eceb-20aa-8362-8856-b377062c53e4</v>
       </c>
       <c r="AE43" t="s">
         <v>60</v>
@@ -4781,7 +4781,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="W44" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>c95365a1-4541-9ef4-5437-b6b768496caa</v>
+        <v>258c22e8-3913-5d08-943b-1770973a5775</v>
       </c>
       <c r="AE44" t="s">
         <v>61</v>
@@ -4856,7 +4856,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -4922,7 +4922,7 @@
       </c>
       <c r="W45" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>92bc0804-7e5d-474b-06fd-6af5b965a442</v>
+        <v>8d4ee2bb-97fe-45c0-76d4-243bf4d957a7</v>
       </c>
       <c r="AE45" t="s">
         <v>62</v>
@@ -4931,7 +4931,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="W46" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>8797b516-83a6-2dec-11f7-eb9b1bff78c2</v>
+        <v>7c38bd34-8573-79f5-1db4-f43cb9f19f77</v>
       </c>
       <c r="AE46" t="s">
         <v>63</v>
@@ -5006,7 +5006,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -5072,10 +5072,10 @@
       </c>
       <c r="W47" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>8f54bbce-3eef-30b9-8cd4-f989dc2921c8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+        <v>f01b4c7f-0614-66b7-811d-47c7259d11ff</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -5141,10 +5141,10 @@
       </c>
       <c r="W48" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>f0b4cb45-44ec-7b8f-0d34-7b6d3be0130a</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0a5ba86a-5338-82d8-6a84-2d72b94428d9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -5210,10 +5210,10 @@
       </c>
       <c r="W49" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>f3e6cdef-a135-1bc5-369e-6d53712751c1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+        <v>d355a106-876a-4ccd-7cae-176ffcf00023</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -5279,10 +5279,10 @@
       </c>
       <c r="W50" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>ea441322-248d-47bc-1c67-b30e31c19dfc</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+        <v>2c241888-74bc-2b75-7ff2-e809eb4f950d</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -5348,10 +5348,10 @@
       </c>
       <c r="W51" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>b2318fe9-7678-18e2-70da-6aedc187281a</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+        <v>632fce18-43a7-0ac4-4390-88a2f821a739</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -5417,10 +5417,10 @@
       </c>
       <c r="W52" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>13934c7c-4e4f-a400-5681-c96676de2af3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+        <v>41becca8-4b3b-0054-9082-3d1bf33d4b70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -5486,10 +5486,10 @@
       </c>
       <c r="W53" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>70115a38-9dd9-44e4-0d16-e304c8e0182f</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+        <v>dacb553b-3c48-084f-16cf-f2d500ff7e72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -5555,10 +5555,10 @@
       </c>
       <c r="W54" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>ce1414ed-6e84-96ad-645a-b27957f64b48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+        <v>6d24742b-3598-3857-1035-a6711beb8dfc</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -5624,10 +5624,10 @@
       </c>
       <c r="W55" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>de458e87-1563-0cfa-5c89-42f6cb160c10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+        <v>ea917f1c-2ee8-853c-7b42-47cf53a68a28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -5693,10 +5693,10 @@
       </c>
       <c r="W56" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>d771a76a-8e31-2f82-97e7-f0a1be28571a</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+        <v>28bbfca3-91c1-1c89-936e-c9e0fa951b27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -5762,10 +5762,10 @@
       </c>
       <c r="W57" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>3dea747b-4c51-0753-4c6b-afefc3c81892</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+        <v>43b49881-29c1-20ea-4bfa-6134cbdf8e22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -5831,10 +5831,10 @@
       </c>
       <c r="W58" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>2f804201-3275-34c7-9f92-c32cec341db4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+        <v>7e51fa0d-2dcf-9881-8598-a3be88d0122c</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -5900,10 +5900,10 @@
       </c>
       <c r="W59" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>747c4efa-5ebd-13c0-1be1-5fa17c912b4e</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+        <v>4ef658b2-8db1-1e0a-4e3e-f46436f38591</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -5969,10 +5969,10 @@
       </c>
       <c r="W60" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>cc2d8a2d-516d-9323-24e4-bdeb11bd4caa</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+        <v>01510098-3c88-756f-9dbb-ce0e96bb35b9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -6038,10 +6038,10 @@
       </c>
       <c r="W61" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>1ed0994c-1263-5ed7-3a9c-1ae204c22eb5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+        <v>30438d4a-3e1b-073b-3530-7e4dc70f457d</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -6107,10 +6107,10 @@
       </c>
       <c r="W62" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>b7a03531-3075-0b53-4c0c-7d7e350f96c6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+        <v>b53ad63b-8603-8c8b-57cc-366993c44024</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -6176,10 +6176,10 @@
       </c>
       <c r="W63" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>37edc73c-3fc9-8902-6b60-8c06c5e04b99</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+        <v>860d436b-71fb-0c48-53d5-ef56b2fc4db3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -6245,10 +6245,10 @@
       </c>
       <c r="W64" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>bd1c95a5-5b2d-8bcc-6239-c4629154771f</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+        <v>2bbcb8ff-27b5-0ff9-a0fe-17b8d7dfa794</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -6314,10 +6314,10 @@
       </c>
       <c r="W65" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>62e1da11-a504-9f74-95c6-6def49444f79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+        <v>25893c67-071b-7bd5-0ad2-8adcbcf3484d</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -6383,10 +6383,10 @@
       </c>
       <c r="W66" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>f22146da-2b38-1249-37fc-42f07b203a41</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0b812160-59b6-0bf1-5a1c-f03b428f44b6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -6452,10 +6452,10 @@
       </c>
       <c r="W67" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>0b5efdb3-2b87-8fe2-4679-ef16d4e5a643</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+        <v>faaff690-2e6d-a012-7f3d-0e24289a7c85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -6521,10 +6521,10 @@
       </c>
       <c r="W68" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>8c9fc893-7de1-1977-7356-2341f5584bfa</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1ed2b351-a318-81f6-3daa-207aac4b2e2a</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -6590,10 +6590,10 @@
       </c>
       <c r="W69" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>5be078c8-5808-a2f9-4642-12d3c7ea7c44</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+        <v>5a4cd48e-3917-54c6-903a-e332dbf89275</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -6659,10 +6659,10 @@
       </c>
       <c r="W70" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>48261dbe-7eac-2214-9481-55db082e8fc1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+        <v>5d88daf7-66be-368e-a3cf-9aa699d90a90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -6728,10 +6728,10 @@
       </c>
       <c r="W71" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>ea0e6706-15e1-660c-5385-347884306f45</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+        <v>2cb5e4e9-4ddb-2218-7cbd-565d6af87fc4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -6797,10 +6797,10 @@
       </c>
       <c r="W72" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>7aa61f62-9829-5421-75dd-7ae44d269832</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+        <v>ffbe16d9-38b4-0ab7-44a7-81dc46760824</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -6866,10 +6866,10 @@
       </c>
       <c r="W73" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>24d0885c-a494-6aea-a11b-e9877c52031b</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+        <v>f7d7e676-2bc3-8103-8219-331a82178480</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -6935,10 +6935,10 @@
       </c>
       <c r="W74" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>486569d3-0fef-333e-282c-f54c874a491c</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+        <v>e6a3da44-1c82-2dcf-8b02-9f4deac10d43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -6995,7 +6995,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <f t="shared" ref="Q75:Q113" si="150">Q67+1</f>
+        <f t="shared" ref="Q75:Q138" si="150">Q67+1</f>
         <v>22</v>
       </c>
       <c r="T75" s="3" t="str">
@@ -7004,10 +7004,10 @@
       </c>
       <c r="W75" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>08772f42-59f6-3e19-33f0-f76d443a2845</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+        <v>d7cbd69b-0983-33ce-6a5e-951068416545</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -7073,10 +7073,10 @@
       </c>
       <c r="W76" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>1260363b-5802-9bde-814d-92eab442485e</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+        <v>1865ff6b-288b-1425-61a3-b5e565574acd</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -7142,10 +7142,10 @@
       </c>
       <c r="W77" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>900db94a-7d9e-198a-5b8d-155eb7c60682</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+        <v>61e29d29-0d4e-6eb3-3b9a-2895f4c38d8c</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -7211,10 +7211,10 @@
       </c>
       <c r="W78" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>9a2974d4-5691-98d6-241a-a51ee57d3642</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+        <v>33e4c6e3-7b99-0fd2-92dd-af4913e9797f</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -7280,10 +7280,10 @@
       </c>
       <c r="W79" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>781bb8ca-737c-2144-8b0a-8244031d7644</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+        <v>7d2f6e73-49de-493c-3860-0a0566690f47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -7349,10 +7349,10 @@
       </c>
       <c r="W80" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>ebea0569-4c4d-82a3-6eee-78f4b52b6e28</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+        <v>6bcb6d6b-2de7-6804-9c21-4936e7bea4e5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -7418,10 +7418,10 @@
       </c>
       <c r="W81" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>7ee68868-3fd8-a595-83ef-ac503bd09a7e</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+        <v>fdfafa7e-7d0c-7e5e-3692-98023bf42e7d</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="str">
         <f t="shared" ref="A82:A107" si="163">A81</f>
         <v>&lt;value</v>
@@ -7431,7 +7431,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="1" t="str">
-        <f t="shared" ref="C82:C113" si="165">C81</f>
+        <f t="shared" ref="C82:C144" si="165">C81</f>
         <v>&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;</v>
       </c>
       <c r="D82">
@@ -7487,10 +7487,10 @@
       </c>
       <c r="W82" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>d47635f5-05ff-40ee-17da-23df7d1b5a7d</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+        <v>ec6810c5-92dd-5c10-47b9-18ef0774a76c</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -7556,10 +7556,10 @@
       </c>
       <c r="W83" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>0189cc99-2983-68e9-2cf7-bc4f5cef1c09</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+        <v>b033901d-272a-54db-7a1b-947fc7b56790</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -7625,10 +7625,10 @@
       </c>
       <c r="W84" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>bbebf6db-56b1-33d7-a46b-bbddb98716da</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0c47c817-6aec-335d-224a-d9d4529d0274</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -7694,10 +7694,10 @@
       </c>
       <c r="W85" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>72755af4-8916-87d9-825c-0d01839b5245</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+        <v>c60fde04-5485-72c0-0bd7-e8df9d4e2b87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -7763,10 +7763,10 @@
       </c>
       <c r="W86" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>a029b04b-739a-2ec9-4a2c-fecfd5e9796d</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+        <v>7c029f2b-5243-22af-2d40-2df4d44d712a</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -7832,10 +7832,10 @@
       </c>
       <c r="W87" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>7b4b34e9-19d8-4d6d-3076-37ce695862e5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+        <v>528f43f1-879f-1395-4e43-b336d60d2227</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -7901,10 +7901,10 @@
       </c>
       <c r="W88" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>87df4581-0f0e-59f7-6755-d7f353c6750a</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0772c022-0fe1-37bc-0696-67e391ca854d</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -7970,10 +7970,10 @@
       </c>
       <c r="W89" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>f98a7593-5033-586f-3926-da068cc82e72</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+        <v>93ad5114-39a8-3fa8-a24a-2c5ca8dd7bdf</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -8039,10 +8039,10 @@
       </c>
       <c r="W90" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>fa43e1d8-2f8d-8e22-90f9-8e56f7cd8229</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+        <v>5970b3b9-4ea6-4c22-3110-c38435ec1c6a</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -8108,10 +8108,10 @@
       </c>
       <c r="W91" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>94b2cfd8-01b9-792d-1032-6993843644f3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+        <v>9cfec060-4bdb-32c7-9a55-a52a924244a3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -8177,10 +8177,10 @@
       </c>
       <c r="W92" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>22e55c1c-09fd-9cc1-32e2-8a62bf3687d8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0170d6e8-2d50-76de-5ad0-4d39255236bf</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -8246,10 +8246,10 @@
       </c>
       <c r="W93" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>851f238d-4715-10a0-4bb2-66c2af315d44</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+        <v>7bb7103f-1fe4-4d73-3df4-d9ba296c3f31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -8315,10 +8315,10 @@
       </c>
       <c r="W94" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>896e09ee-178c-5592-5525-61d94b51a6c9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+        <v>cffb49f5-1dd9-61bb-3cf9-e13c0a9a99c4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -8384,10 +8384,10 @@
       </c>
       <c r="W95" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>20fef932-2154-0109-4631-72362f70985c</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+        <v>ac0277ae-617c-8f68-910e-9e4c56184fcf</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -8453,10 +8453,10 @@
       </c>
       <c r="W96" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>3befb55b-a006-0d42-654d-4f42ef536d11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+        <v>3c86e114-890a-2835-62ae-54bdff8b8949</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -8522,10 +8522,10 @@
       </c>
       <c r="W97" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>7c591513-82a0-542b-8729-6ceb5a54592b</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+        <v>53edf2a2-9765-3165-804f-c680ab45733b</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -8590,10 +8590,10 @@
       </c>
       <c r="W98" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>4c64fdfe-27b4-1b79-6232-2a82b0f33b24</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+        <v>67ae7d74-a28d-9542-8e0d-737a63de2b91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -8658,10 +8658,10 @@
       </c>
       <c r="W99" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>19d2a487-3e3d-99ef-0e43-ca2a093a40fa</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+        <v>efc9d2dd-368d-012b-28f4-a55bb62e851f</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -8726,10 +8726,10 @@
       </c>
       <c r="W100" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>ff30d137-83b8-753a-660d-bad60ea9a014</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+        <v>20aa3ecb-1d39-4140-0a34-e7b48fa78a57</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -8794,10 +8794,10 @@
       </c>
       <c r="W101" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>8e002996-0b74-2e25-0e8d-a25176dd3935</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+        <v>9df353da-6e39-08f7-a6d4-e15c2d474a16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -8861,7 +8861,7 @@
         <v>&lt;value102&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483763&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro101&lt;/name&gt; &lt;id&gt;{c7b6a901-56af-0fe1-4456-74be42cb2c7b}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;International1&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value102&gt;</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -8925,7 +8925,7 @@
         <v>&lt;value103&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483764&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro102&lt;/name&gt; &lt;id&gt;{6e20b69c-0634-08ec-3bf7-1f437b9a956a}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;International1&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value103&gt;</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -8989,7 +8989,7 @@
         <v>&lt;value104&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483765&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro103&lt;/name&gt; &lt;id&gt;{25297473-6175-5f9b-85c7-2ccd0a6662d8}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;International1&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value104&gt;</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -9053,7 +9053,7 @@
         <v>&lt;value105&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483766&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro104&lt;/name&gt; &lt;id&gt;{c421be72-4f95-a21e-9cf4-7785cfdd216c}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;LeftAlt&lt;/value2&gt; &lt;value3&gt;International1&lt;/value3&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value105&gt;</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -9118,7 +9118,7 @@
         <v>&lt;value106&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483767&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro105&lt;/name&gt; &lt;id&gt;{512fd651-1e4e-3a51-2154-7905ff8c2f16}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;International2&lt;/value0&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value106&gt;</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -9183,13 +9183,13 @@
         <v>&lt;value107&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483768&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro106&lt;/name&gt; &lt;id&gt;{0aebfa9c-a428-14bf-616c-f9f7f592906b}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;International2&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value107&gt;</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="str">
-        <f t="shared" ref="A108:A113" si="224">A107</f>
+        <f t="shared" ref="A108:A144" si="224">A107</f>
         <v>&lt;value</v>
       </c>
       <c r="B108">
-        <f t="shared" ref="B108:B113" si="225">B107+1</f>
+        <f t="shared" ref="B108:B144" si="225">B107+1</f>
         <v>108</v>
       </c>
       <c r="C108" s="1" t="str">
@@ -9197,14 +9197,14 @@
         <v>&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;</v>
       </c>
       <c r="D108">
-        <f t="shared" ref="D108:D113" si="226">D107+1</f>
+        <f t="shared" ref="D108:D144" si="226">D107+1</f>
         <v>2147483769</v>
       </c>
       <c r="E108" t="s">
         <v>48</v>
       </c>
       <c r="F108">
-        <f t="shared" ref="F108:F113" si="227">F107+1</f>
+        <f t="shared" ref="F108:F144" si="227">F107+1</f>
         <v>107</v>
       </c>
       <c r="G108" t="s">
@@ -9214,7 +9214,7 @@
         <v>160</v>
       </c>
       <c r="I108" s="1" t="str">
-        <f t="shared" ref="I108:I113" si="228">I107</f>
+        <f t="shared" ref="I108:I144" si="228">I107</f>
         <v>}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;</v>
       </c>
       <c r="J108" s="1" t="str">
@@ -9248,7 +9248,7 @@
         <v>&lt;value108&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483769&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro107&lt;/name&gt; &lt;id&gt;{be4e1a2c-55b2-2aed-443c-d8fec9fa3a9f}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftAlt&lt;/value0&gt; &lt;value1&gt;International2&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value108&gt;</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="str">
         <f t="shared" si="224"/>
         <v>&lt;value</v>
@@ -9313,7 +9313,7 @@
         <v>&lt;value109&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483770&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro108&lt;/name&gt; &lt;id&gt;{78c46af1-087d-4c48-7bfd-3a59e4499262}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;International2&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value109&gt;</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="str">
         <f t="shared" si="224"/>
         <v>&lt;value</v>
@@ -9378,7 +9378,7 @@
         <v>&lt;value110&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483771&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro109&lt;/name&gt; &lt;id&gt;{21ecee52-2298-3b4b-6b32-dc49481c407c}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;International2&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value110&gt;</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="str">
         <f t="shared" si="224"/>
         <v>&lt;value</v>
@@ -9443,7 +9443,7 @@
         <v>&lt;value111&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483772&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro110&lt;/name&gt; &lt;id&gt;{b2b97ce2-797d-3676-4123-89c5570d1f42}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;International2&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value111&gt;</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="str">
         <f t="shared" si="224"/>
         <v>&lt;value</v>
@@ -9508,7 +9508,7 @@
         <v>&lt;value112&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483773&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro111&lt;/name&gt; &lt;id&gt;{a1a89805-1401-896e-90fe-b839bd9b8665}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;International2&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value112&gt;</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="str">
         <f t="shared" si="224"/>
         <v>&lt;value</v>
@@ -9543,7 +9543,7 @@
         <v>}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;</v>
       </c>
       <c r="J113" s="1" t="str">
-        <f t="shared" ref="J113" si="241">J105</f>
+        <f t="shared" ref="J113:J144" si="241">J105</f>
         <v>&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;LeftAlt&lt;/value2&gt; &lt;value3&gt;</v>
       </c>
       <c r="K113" s="1" t="str">
@@ -9551,7 +9551,7 @@
         <v>International2</v>
       </c>
       <c r="L113" s="1" t="str">
-        <f t="shared" ref="L113" si="242">L105</f>
+        <f t="shared" ref="L113:L144" si="242">L105</f>
         <v>&lt;/value3&gt;</v>
       </c>
       <c r="M113" t="s">
@@ -9572,6 +9572,1181 @@
         <f t="shared" si="135"/>
         <v>&lt;value113&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483774&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro112&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;LeftAlt&lt;/value2&gt; &lt;value3&gt;International2&lt;/value3&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value113&gt;</v>
       </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="str">
+        <f t="shared" si="224"/>
+        <v>&lt;value</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="225"/>
+        <v>114</v>
+      </c>
+      <c r="C114" s="1" t="str">
+        <f t="shared" si="165"/>
+        <v>&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="226"/>
+        <v>2147483775</v>
+      </c>
+      <c r="E114" t="s">
+        <v>48</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="227"/>
+        <v>113</v>
+      </c>
+      <c r="G114" t="s">
+        <v>47</v>
+      </c>
+      <c r="H114" t="s">
+        <v>165</v>
+      </c>
+      <c r="I114" s="1" t="str">
+        <f t="shared" si="228"/>
+        <v>}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;</v>
+      </c>
+      <c r="J114" s="1" t="str">
+        <f t="shared" si="241"/>
+        <v>&lt;value0&gt;</v>
+      </c>
+      <c r="K114" s="1" t="str">
+        <f t="shared" ref="K114:K144" si="243">_xlfn.CONCAT("International", Q114)</f>
+        <v>International3</v>
+      </c>
+      <c r="L114" s="1" t="str">
+        <f t="shared" si="242"/>
+        <v>&lt;/value0&gt;</v>
+      </c>
+      <c r="M114" t="s">
+        <v>27</v>
+      </c>
+      <c r="N114">
+        <f t="shared" ref="N114:N144" si="244">B114</f>
+        <v>114</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q114">
+        <f>Q106+1</f>
+        <v>3</v>
+      </c>
+      <c r="T114" s="3" t="str">
+        <f t="shared" ref="T114:T144" si="245">_xlfn.CONCAT(A114:O114)</f>
+        <v>&lt;value114&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483775&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro113&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;International3&lt;/value0&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value114&gt;</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="str">
+        <f t="shared" si="224"/>
+        <v>&lt;value</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="225"/>
+        <v>115</v>
+      </c>
+      <c r="C115" s="1" t="str">
+        <f t="shared" si="165"/>
+        <v>&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="226"/>
+        <v>2147483776</v>
+      </c>
+      <c r="E115" t="s">
+        <v>48</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="227"/>
+        <v>114</v>
+      </c>
+      <c r="G115" t="s">
+        <v>47</v>
+      </c>
+      <c r="H115" t="s">
+        <v>165</v>
+      </c>
+      <c r="I115" s="1" t="str">
+        <f t="shared" si="228"/>
+        <v>}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;</v>
+      </c>
+      <c r="J115" s="1" t="str">
+        <f t="shared" si="241"/>
+        <v>&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;</v>
+      </c>
+      <c r="K115" s="1" t="str">
+        <f t="shared" si="243"/>
+        <v>International3</v>
+      </c>
+      <c r="L115" s="1" t="str">
+        <f t="shared" si="242"/>
+        <v>&lt;/value1&gt;</v>
+      </c>
+      <c r="M115" t="s">
+        <v>27</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="244"/>
+        <v>115</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" si="150"/>
+        <v>3</v>
+      </c>
+      <c r="T115" s="3" t="str">
+        <f t="shared" si="245"/>
+        <v>&lt;value115&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483776&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro114&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;International3&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value115&gt;</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="str">
+        <f t="shared" si="224"/>
+        <v>&lt;value</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="225"/>
+        <v>116</v>
+      </c>
+      <c r="C116" s="1" t="str">
+        <f t="shared" si="165"/>
+        <v>&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="226"/>
+        <v>2147483777</v>
+      </c>
+      <c r="E116" t="s">
+        <v>48</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="227"/>
+        <v>115</v>
+      </c>
+      <c r="G116" t="s">
+        <v>47</v>
+      </c>
+      <c r="H116" t="s">
+        <v>165</v>
+      </c>
+      <c r="I116" s="1" t="str">
+        <f t="shared" si="228"/>
+        <v>}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;</v>
+      </c>
+      <c r="J116" s="1" t="str">
+        <f t="shared" si="241"/>
+        <v>&lt;value0&gt;LeftAlt&lt;/value0&gt; &lt;value1&gt;</v>
+      </c>
+      <c r="K116" s="1" t="str">
+        <f t="shared" si="243"/>
+        <v>International3</v>
+      </c>
+      <c r="L116" s="1" t="str">
+        <f t="shared" si="242"/>
+        <v>&lt;/value1&gt;</v>
+      </c>
+      <c r="M116" t="s">
+        <v>27</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="244"/>
+        <v>116</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" si="150"/>
+        <v>3</v>
+      </c>
+      <c r="T116" s="3" t="str">
+        <f t="shared" si="245"/>
+        <v>&lt;value116&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483777&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro115&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftAlt&lt;/value0&gt; &lt;value1&gt;International3&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value116&gt;</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="str">
+        <f t="shared" si="224"/>
+        <v>&lt;value</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="225"/>
+        <v>117</v>
+      </c>
+      <c r="C117" s="1" t="str">
+        <f t="shared" si="165"/>
+        <v>&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="226"/>
+        <v>2147483778</v>
+      </c>
+      <c r="E117" t="s">
+        <v>48</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="227"/>
+        <v>116</v>
+      </c>
+      <c r="G117" t="s">
+        <v>47</v>
+      </c>
+      <c r="H117" t="s">
+        <v>165</v>
+      </c>
+      <c r="I117" s="1" t="str">
+        <f t="shared" si="228"/>
+        <v>}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;</v>
+      </c>
+      <c r="J117" s="1" t="str">
+        <f t="shared" si="241"/>
+        <v>&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;</v>
+      </c>
+      <c r="K117" s="1" t="str">
+        <f t="shared" si="243"/>
+        <v>International3</v>
+      </c>
+      <c r="L117" s="1" t="str">
+        <f t="shared" si="242"/>
+        <v>&lt;/value2&gt;</v>
+      </c>
+      <c r="M117" t="s">
+        <v>27</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="244"/>
+        <v>117</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q117">
+        <f t="shared" si="150"/>
+        <v>3</v>
+      </c>
+      <c r="T117" s="3" t="str">
+        <f t="shared" si="245"/>
+        <v>&lt;value117&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483778&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro116&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;International3&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value117&gt;</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="str">
+        <f t="shared" si="224"/>
+        <v>&lt;value</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="225"/>
+        <v>118</v>
+      </c>
+      <c r="C118" s="1" t="str">
+        <f t="shared" si="165"/>
+        <v>&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="226"/>
+        <v>2147483779</v>
+      </c>
+      <c r="E118" t="s">
+        <v>48</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="227"/>
+        <v>117</v>
+      </c>
+      <c r="G118" t="s">
+        <v>47</v>
+      </c>
+      <c r="H118" t="s">
+        <v>165</v>
+      </c>
+      <c r="I118" s="1" t="str">
+        <f t="shared" si="228"/>
+        <v>}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;</v>
+      </c>
+      <c r="J118" s="1" t="str">
+        <f t="shared" si="241"/>
+        <v>&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;</v>
+      </c>
+      <c r="K118" s="1" t="str">
+        <f t="shared" si="243"/>
+        <v>International3</v>
+      </c>
+      <c r="L118" s="1" t="str">
+        <f t="shared" si="242"/>
+        <v>&lt;/value1&gt;</v>
+      </c>
+      <c r="M118" t="s">
+        <v>27</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="244"/>
+        <v>118</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" si="150"/>
+        <v>3</v>
+      </c>
+      <c r="T118" s="3" t="str">
+        <f t="shared" si="245"/>
+        <v>&lt;value118&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483779&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro117&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;International3&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value118&gt;</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="str">
+        <f t="shared" si="224"/>
+        <v>&lt;value</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="225"/>
+        <v>119</v>
+      </c>
+      <c r="C119" s="1" t="str">
+        <f t="shared" si="165"/>
+        <v>&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="226"/>
+        <v>2147483780</v>
+      </c>
+      <c r="E119" t="s">
+        <v>48</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="227"/>
+        <v>118</v>
+      </c>
+      <c r="G119" t="s">
+        <v>47</v>
+      </c>
+      <c r="H119" t="s">
+        <v>165</v>
+      </c>
+      <c r="I119" s="1" t="str">
+        <f t="shared" si="228"/>
+        <v>}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;</v>
+      </c>
+      <c r="J119" s="1" t="str">
+        <f t="shared" si="241"/>
+        <v>&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;</v>
+      </c>
+      <c r="K119" s="1" t="str">
+        <f t="shared" si="243"/>
+        <v>International3</v>
+      </c>
+      <c r="L119" s="1" t="str">
+        <f t="shared" si="242"/>
+        <v>&lt;/value2&gt;</v>
+      </c>
+      <c r="M119" t="s">
+        <v>27</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="244"/>
+        <v>119</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q119">
+        <f t="shared" si="150"/>
+        <v>3</v>
+      </c>
+      <c r="T119" s="3" t="str">
+        <f t="shared" si="245"/>
+        <v>&lt;value119&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483780&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro118&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;International3&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value119&gt;</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="str">
+        <f t="shared" si="224"/>
+        <v>&lt;value</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="225"/>
+        <v>120</v>
+      </c>
+      <c r="C120" s="1" t="str">
+        <f t="shared" si="165"/>
+        <v>&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="226"/>
+        <v>2147483781</v>
+      </c>
+      <c r="E120" t="s">
+        <v>48</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="227"/>
+        <v>119</v>
+      </c>
+      <c r="G120" t="s">
+        <v>47</v>
+      </c>
+      <c r="H120" t="s">
+        <v>165</v>
+      </c>
+      <c r="I120" s="1" t="str">
+        <f t="shared" si="228"/>
+        <v>}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;</v>
+      </c>
+      <c r="J120" s="1" t="str">
+        <f t="shared" si="241"/>
+        <v>&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;</v>
+      </c>
+      <c r="K120" s="1" t="str">
+        <f t="shared" si="243"/>
+        <v>International3</v>
+      </c>
+      <c r="L120" s="1" t="str">
+        <f t="shared" si="242"/>
+        <v>&lt;/value2&gt;</v>
+      </c>
+      <c r="M120" t="s">
+        <v>27</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="244"/>
+        <v>120</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q120">
+        <f t="shared" si="150"/>
+        <v>3</v>
+      </c>
+      <c r="T120" s="3" t="str">
+        <f t="shared" si="245"/>
+        <v>&lt;value120&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483781&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro119&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;International3&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value120&gt;</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="str">
+        <f t="shared" si="224"/>
+        <v>&lt;value</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="225"/>
+        <v>121</v>
+      </c>
+      <c r="C121" s="1" t="str">
+        <f t="shared" si="165"/>
+        <v>&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="226"/>
+        <v>2147483782</v>
+      </c>
+      <c r="E121" t="s">
+        <v>48</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="227"/>
+        <v>120</v>
+      </c>
+      <c r="G121" t="s">
+        <v>47</v>
+      </c>
+      <c r="H121" t="s">
+        <v>165</v>
+      </c>
+      <c r="I121" s="1" t="str">
+        <f t="shared" si="228"/>
+        <v>}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;</v>
+      </c>
+      <c r="J121" s="1" t="str">
+        <f t="shared" si="241"/>
+        <v>&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;LeftAlt&lt;/value2&gt; &lt;value3&gt;</v>
+      </c>
+      <c r="K121" s="1" t="str">
+        <f t="shared" si="243"/>
+        <v>International3</v>
+      </c>
+      <c r="L121" s="1" t="str">
+        <f t="shared" si="242"/>
+        <v>&lt;/value3&gt;</v>
+      </c>
+      <c r="M121" t="s">
+        <v>27</v>
+      </c>
+      <c r="N121">
+        <f t="shared" si="244"/>
+        <v>121</v>
+      </c>
+      <c r="O121" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q121">
+        <f t="shared" si="150"/>
+        <v>3</v>
+      </c>
+      <c r="T121" s="3" t="str">
+        <f t="shared" si="245"/>
+        <v>&lt;value121&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483782&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro120&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;LeftAlt&lt;/value2&gt; &lt;value3&gt;International3&lt;/value3&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value121&gt;</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="str">
+        <f t="shared" si="224"/>
+        <v>&lt;value</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="225"/>
+        <v>122</v>
+      </c>
+      <c r="C122" s="1" t="str">
+        <f t="shared" si="165"/>
+        <v>&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="226"/>
+        <v>2147483783</v>
+      </c>
+      <c r="E122" t="s">
+        <v>48</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="227"/>
+        <v>121</v>
+      </c>
+      <c r="G122" t="s">
+        <v>47</v>
+      </c>
+      <c r="H122" t="s">
+        <v>165</v>
+      </c>
+      <c r="I122" s="1" t="str">
+        <f t="shared" si="228"/>
+        <v>}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;</v>
+      </c>
+      <c r="J122" s="1" t="str">
+        <f t="shared" si="241"/>
+        <v>&lt;value0&gt;</v>
+      </c>
+      <c r="K122" s="1" t="str">
+        <f t="shared" si="243"/>
+        <v>International4</v>
+      </c>
+      <c r="L122" s="1" t="str">
+        <f t="shared" si="242"/>
+        <v>&lt;/value0&gt;</v>
+      </c>
+      <c r="M122" t="s">
+        <v>27</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="244"/>
+        <v>122</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q122">
+        <f t="shared" si="150"/>
+        <v>4</v>
+      </c>
+      <c r="T122" s="3" t="str">
+        <f t="shared" si="245"/>
+        <v>&lt;value122&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483783&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro121&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;International4&lt;/value0&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value122&gt;</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="str">
+        <f t="shared" si="224"/>
+        <v>&lt;value</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="225"/>
+        <v>123</v>
+      </c>
+      <c r="C123" s="1" t="str">
+        <f t="shared" si="165"/>
+        <v>&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="226"/>
+        <v>2147483784</v>
+      </c>
+      <c r="E123" t="s">
+        <v>48</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="227"/>
+        <v>122</v>
+      </c>
+      <c r="G123" t="s">
+        <v>47</v>
+      </c>
+      <c r="H123" t="s">
+        <v>165</v>
+      </c>
+      <c r="I123" s="1" t="str">
+        <f t="shared" si="228"/>
+        <v>}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;</v>
+      </c>
+      <c r="J123" s="1" t="str">
+        <f t="shared" si="241"/>
+        <v>&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;</v>
+      </c>
+      <c r="K123" s="1" t="str">
+        <f t="shared" si="243"/>
+        <v>International4</v>
+      </c>
+      <c r="L123" s="1" t="str">
+        <f t="shared" si="242"/>
+        <v>&lt;/value1&gt;</v>
+      </c>
+      <c r="M123" t="s">
+        <v>27</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="244"/>
+        <v>123</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q123">
+        <f t="shared" si="150"/>
+        <v>4</v>
+      </c>
+      <c r="T123" s="3" t="str">
+        <f t="shared" si="245"/>
+        <v>&lt;value123&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483784&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro122&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;International4&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value123&gt;</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="str">
+        <f t="shared" si="224"/>
+        <v>&lt;value</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="225"/>
+        <v>124</v>
+      </c>
+      <c r="C124" s="1" t="str">
+        <f t="shared" si="165"/>
+        <v>&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="226"/>
+        <v>2147483785</v>
+      </c>
+      <c r="E124" t="s">
+        <v>48</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="227"/>
+        <v>123</v>
+      </c>
+      <c r="G124" t="s">
+        <v>47</v>
+      </c>
+      <c r="H124" t="s">
+        <v>165</v>
+      </c>
+      <c r="I124" s="1" t="str">
+        <f t="shared" si="228"/>
+        <v>}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;</v>
+      </c>
+      <c r="J124" s="1" t="str">
+        <f t="shared" si="241"/>
+        <v>&lt;value0&gt;LeftAlt&lt;/value0&gt; &lt;value1&gt;</v>
+      </c>
+      <c r="K124" s="1" t="str">
+        <f t="shared" si="243"/>
+        <v>International4</v>
+      </c>
+      <c r="L124" s="1" t="str">
+        <f t="shared" si="242"/>
+        <v>&lt;/value1&gt;</v>
+      </c>
+      <c r="M124" t="s">
+        <v>27</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="244"/>
+        <v>124</v>
+      </c>
+      <c r="O124" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q124">
+        <f t="shared" si="150"/>
+        <v>4</v>
+      </c>
+      <c r="T124" s="3" t="str">
+        <f t="shared" si="245"/>
+        <v>&lt;value124&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483785&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro123&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftAlt&lt;/value0&gt; &lt;value1&gt;International4&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value124&gt;</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="str">
+        <f t="shared" si="224"/>
+        <v>&lt;value</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="225"/>
+        <v>125</v>
+      </c>
+      <c r="C125" s="1" t="str">
+        <f t="shared" si="165"/>
+        <v>&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="226"/>
+        <v>2147483786</v>
+      </c>
+      <c r="E125" t="s">
+        <v>48</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="227"/>
+        <v>124</v>
+      </c>
+      <c r="G125" t="s">
+        <v>47</v>
+      </c>
+      <c r="H125" t="s">
+        <v>165</v>
+      </c>
+      <c r="I125" s="1" t="str">
+        <f t="shared" si="228"/>
+        <v>}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;</v>
+      </c>
+      <c r="J125" s="1" t="str">
+        <f t="shared" si="241"/>
+        <v>&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;</v>
+      </c>
+      <c r="K125" s="1" t="str">
+        <f t="shared" si="243"/>
+        <v>International4</v>
+      </c>
+      <c r="L125" s="1" t="str">
+        <f t="shared" si="242"/>
+        <v>&lt;/value2&gt;</v>
+      </c>
+      <c r="M125" t="s">
+        <v>27</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="244"/>
+        <v>125</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" si="150"/>
+        <v>4</v>
+      </c>
+      <c r="T125" s="3" t="str">
+        <f t="shared" si="245"/>
+        <v>&lt;value125&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483786&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro124&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;International4&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value125&gt;</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="str">
+        <f t="shared" si="224"/>
+        <v>&lt;value</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="225"/>
+        <v>126</v>
+      </c>
+      <c r="C126" s="1" t="str">
+        <f t="shared" si="165"/>
+        <v>&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="226"/>
+        <v>2147483787</v>
+      </c>
+      <c r="E126" t="s">
+        <v>48</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="227"/>
+        <v>125</v>
+      </c>
+      <c r="G126" t="s">
+        <v>47</v>
+      </c>
+      <c r="H126" t="s">
+        <v>165</v>
+      </c>
+      <c r="I126" s="1" t="str">
+        <f t="shared" si="228"/>
+        <v>}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;</v>
+      </c>
+      <c r="J126" s="1" t="str">
+        <f t="shared" si="241"/>
+        <v>&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;</v>
+      </c>
+      <c r="K126" s="1" t="str">
+        <f t="shared" si="243"/>
+        <v>International4</v>
+      </c>
+      <c r="L126" s="1" t="str">
+        <f t="shared" si="242"/>
+        <v>&lt;/value1&gt;</v>
+      </c>
+      <c r="M126" t="s">
+        <v>27</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="244"/>
+        <v>126</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q126">
+        <f t="shared" si="150"/>
+        <v>4</v>
+      </c>
+      <c r="T126" s="3" t="str">
+        <f t="shared" si="245"/>
+        <v>&lt;value126&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483787&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro125&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;International4&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value126&gt;</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="str">
+        <f t="shared" si="224"/>
+        <v>&lt;value</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="225"/>
+        <v>127</v>
+      </c>
+      <c r="C127" s="1" t="str">
+        <f t="shared" si="165"/>
+        <v>&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="226"/>
+        <v>2147483788</v>
+      </c>
+      <c r="E127" t="s">
+        <v>48</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="227"/>
+        <v>126</v>
+      </c>
+      <c r="G127" t="s">
+        <v>47</v>
+      </c>
+      <c r="H127" t="s">
+        <v>165</v>
+      </c>
+      <c r="I127" s="1" t="str">
+        <f t="shared" si="228"/>
+        <v>}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;</v>
+      </c>
+      <c r="J127" s="1" t="str">
+        <f t="shared" si="241"/>
+        <v>&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;</v>
+      </c>
+      <c r="K127" s="1" t="str">
+        <f t="shared" si="243"/>
+        <v>International4</v>
+      </c>
+      <c r="L127" s="1" t="str">
+        <f t="shared" si="242"/>
+        <v>&lt;/value2&gt;</v>
+      </c>
+      <c r="M127" t="s">
+        <v>27</v>
+      </c>
+      <c r="N127">
+        <f t="shared" si="244"/>
+        <v>127</v>
+      </c>
+      <c r="O127" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q127">
+        <f t="shared" si="150"/>
+        <v>4</v>
+      </c>
+      <c r="T127" s="3" t="str">
+        <f t="shared" si="245"/>
+        <v>&lt;value127&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483788&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro126&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;International4&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value127&gt;</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="str">
+        <f t="shared" si="224"/>
+        <v>&lt;value</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="225"/>
+        <v>128</v>
+      </c>
+      <c r="C128" s="1" t="str">
+        <f t="shared" si="165"/>
+        <v>&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="226"/>
+        <v>2147483789</v>
+      </c>
+      <c r="E128" t="s">
+        <v>48</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="227"/>
+        <v>127</v>
+      </c>
+      <c r="G128" t="s">
+        <v>47</v>
+      </c>
+      <c r="H128" t="s">
+        <v>165</v>
+      </c>
+      <c r="I128" s="1" t="str">
+        <f t="shared" si="228"/>
+        <v>}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;</v>
+      </c>
+      <c r="J128" s="1" t="str">
+        <f t="shared" si="241"/>
+        <v>&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;</v>
+      </c>
+      <c r="K128" s="1" t="str">
+        <f t="shared" si="243"/>
+        <v>International4</v>
+      </c>
+      <c r="L128" s="1" t="str">
+        <f t="shared" si="242"/>
+        <v>&lt;/value2&gt;</v>
+      </c>
+      <c r="M128" t="s">
+        <v>27</v>
+      </c>
+      <c r="N128">
+        <f t="shared" si="244"/>
+        <v>128</v>
+      </c>
+      <c r="O128" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q128">
+        <f t="shared" si="150"/>
+        <v>4</v>
+      </c>
+      <c r="T128" s="3" t="str">
+        <f t="shared" si="245"/>
+        <v>&lt;value128&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483789&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro127&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;International4&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value128&gt;</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="str">
+        <f t="shared" si="224"/>
+        <v>&lt;value</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="225"/>
+        <v>129</v>
+      </c>
+      <c r="C129" s="1" t="str">
+        <f t="shared" si="165"/>
+        <v>&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="226"/>
+        <v>2147483790</v>
+      </c>
+      <c r="E129" t="s">
+        <v>48</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="227"/>
+        <v>128</v>
+      </c>
+      <c r="G129" t="s">
+        <v>47</v>
+      </c>
+      <c r="H129" t="s">
+        <v>165</v>
+      </c>
+      <c r="I129" s="1" t="str">
+        <f t="shared" si="228"/>
+        <v>}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;</v>
+      </c>
+      <c r="J129" s="1" t="str">
+        <f t="shared" si="241"/>
+        <v>&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;LeftAlt&lt;/value2&gt; &lt;value3&gt;</v>
+      </c>
+      <c r="K129" s="1" t="str">
+        <f t="shared" si="243"/>
+        <v>International4</v>
+      </c>
+      <c r="L129" s="1" t="str">
+        <f t="shared" si="242"/>
+        <v>&lt;/value3&gt;</v>
+      </c>
+      <c r="M129" t="s">
+        <v>27</v>
+      </c>
+      <c r="N129">
+        <f t="shared" si="244"/>
+        <v>129</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q129">
+        <f t="shared" si="150"/>
+        <v>4</v>
+      </c>
+      <c r="T129" s="3" t="str">
+        <f t="shared" si="245"/>
+        <v>&lt;value129&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483790&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro128&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;LeftAlt&lt;/value2&gt; &lt;value3&gt;International4&lt;/value3&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value129&gt;</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="O130" s="1"/>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="O131" s="1"/>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="O132" s="1"/>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="O133" s="1"/>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="O134" s="1"/>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="O135" s="1"/>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="O136" s="1"/>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="O137" s="1"/>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="O138" s="1"/>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="O139" s="1"/>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="O140" s="1"/>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="O141" s="1"/>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="O142" s="1"/>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="O143" s="1"/>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="O144" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9583,20 +10758,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E279DDDB-1CE1-4893-A52C-DF2DBA95B302}">
   <dimension ref="A1:V113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -9628,7 +10803,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9688,7 +10863,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -10200,7 +11375,7 @@
 </v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A10" si="5">A3+1</f>
         <v>3</v>
@@ -10257,7 +11432,7 @@
 </v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -10314,7 +11489,7 @@
 </v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -10371,7 +11546,7 @@
 </v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -10428,7 +11603,7 @@
 </v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -10485,7 +11660,7 @@
 </v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -10542,7 +11717,7 @@
 </v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -10599,7 +11774,7 @@
 </v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" ref="A11:A74" si="8">A10+1</f>
         <v>10</v>
@@ -10656,7 +11831,7 @@
 </v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="8"/>
         <v>11</v>
@@ -10713,7 +11888,7 @@
 </v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="8"/>
         <v>12</v>
@@ -10770,7 +11945,7 @@
 </v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="8"/>
         <v>13</v>
@@ -10827,7 +12002,7 @@
 </v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="8"/>
         <v>14</v>
@@ -10884,7 +12059,7 @@
 </v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="8"/>
         <v>15</v>
@@ -10941,7 +12116,7 @@
 </v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="8"/>
         <v>16</v>
@@ -10998,7 +12173,7 @@
 </v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="8"/>
         <v>17</v>
@@ -11055,7 +12230,7 @@
 </v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="8"/>
         <v>18</v>
@@ -11112,7 +12287,7 @@
 </v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="8"/>
         <v>19</v>
@@ -11169,7 +12344,7 @@
 </v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="8"/>
         <v>20</v>
@@ -11226,7 +12401,7 @@
 </v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="8"/>
         <v>21</v>
@@ -11283,7 +12458,7 @@
 </v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="8"/>
         <v>22</v>
@@ -11340,7 +12515,7 @@
 </v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="8"/>
         <v>23</v>
@@ -11397,7 +12572,7 @@
 </v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="8"/>
         <v>24</v>
@@ -11454,7 +12629,7 @@
 </v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="8"/>
         <v>25</v>
@@ -11511,7 +12686,7 @@
 </v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="8"/>
         <v>26</v>
@@ -11568,7 +12743,7 @@
 </v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="8"/>
         <v>27</v>
@@ -11625,7 +12800,7 @@
 </v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="8"/>
         <v>28</v>
@@ -11682,7 +12857,7 @@
 </v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="8"/>
         <v>29</v>
@@ -11739,7 +12914,7 @@
 </v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="8"/>
         <v>30</v>
@@ -11796,7 +12971,7 @@
 </v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="8"/>
         <v>31</v>
@@ -11853,7 +13028,7 @@
 </v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="8"/>
         <v>32</v>
@@ -11910,7 +13085,7 @@
 </v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="8"/>
         <v>33</v>
@@ -11967,7 +13142,7 @@
 </v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="8"/>
         <v>34</v>
@@ -12024,7 +13199,7 @@
 </v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="8"/>
         <v>35</v>
@@ -12081,7 +13256,7 @@
 </v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="8"/>
         <v>36</v>
@@ -12138,7 +13313,7 @@
 </v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="8"/>
         <v>37</v>
@@ -12195,7 +13370,7 @@
 </v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="8"/>
         <v>38</v>
@@ -12252,7 +13427,7 @@
 </v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="8"/>
         <v>39</v>
@@ -12309,7 +13484,7 @@
 </v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="8"/>
         <v>40</v>
@@ -12366,7 +13541,7 @@
 </v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="8"/>
         <v>41</v>
@@ -12423,7 +13598,7 @@
 </v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="8"/>
         <v>42</v>
@@ -12480,7 +13655,7 @@
 </v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="8"/>
         <v>43</v>
@@ -12537,7 +13712,7 @@
 </v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="8"/>
         <v>44</v>
@@ -12594,7 +13769,7 @@
 </v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="8"/>
         <v>45</v>
@@ -12651,7 +13826,7 @@
 </v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="8"/>
         <v>46</v>
@@ -12708,7 +13883,7 @@
 </v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="8"/>
         <v>47</v>
@@ -12765,7 +13940,7 @@
 </v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="8"/>
         <v>48</v>
@@ -12822,7 +13997,7 @@
 </v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="8"/>
         <v>49</v>
@@ -12879,7 +14054,7 @@
 </v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="8"/>
         <v>50</v>
@@ -12936,7 +14111,7 @@
 </v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="8"/>
         <v>51</v>
@@ -12993,7 +14168,7 @@
 </v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="8"/>
         <v>52</v>
@@ -13050,7 +14225,7 @@
 </v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="8"/>
         <v>53</v>
@@ -13107,7 +14282,7 @@
 </v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="8"/>
         <v>54</v>
@@ -13164,7 +14339,7 @@
 </v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="8"/>
         <v>55</v>
@@ -13221,7 +14396,7 @@
 </v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="8"/>
         <v>56</v>
@@ -13278,7 +14453,7 @@
 </v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="8"/>
         <v>57</v>
@@ -13335,7 +14510,7 @@
 </v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="8"/>
         <v>58</v>
@@ -13392,7 +14567,7 @@
 </v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="8"/>
         <v>59</v>
@@ -13449,7 +14624,7 @@
 </v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="8"/>
         <v>60</v>
@@ -13506,7 +14681,7 @@
 </v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="8"/>
         <v>61</v>
@@ -13563,7 +14738,7 @@
 </v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="8"/>
         <v>62</v>
@@ -13620,7 +14795,7 @@
 </v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="8"/>
         <v>63</v>
@@ -13677,7 +14852,7 @@
 </v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="8"/>
         <v>64</v>
@@ -13734,7 +14909,7 @@
 </v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="8"/>
         <v>65</v>
@@ -13791,7 +14966,7 @@
 </v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="8"/>
         <v>66</v>
@@ -13848,7 +15023,7 @@
 </v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="8"/>
         <v>67</v>
@@ -13905,7 +15080,7 @@
 </v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="8"/>
         <v>68</v>
@@ -13962,7 +15137,7 @@
 </v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="8"/>
         <v>69</v>
@@ -14019,7 +15194,7 @@
 </v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="8"/>
         <v>70</v>
@@ -14076,7 +15251,7 @@
 </v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="8"/>
         <v>71</v>
@@ -14133,7 +15308,7 @@
 </v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="8"/>
         <v>72</v>
@@ -14190,7 +15365,7 @@
 </v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="8"/>
         <v>73</v>
@@ -14247,7 +15422,7 @@
 </v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" ref="A75:A112" si="16">A74+1</f>
         <v>74</v>
@@ -14304,7 +15479,7 @@
 </v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="16"/>
         <v>75</v>
@@ -14361,7 +15536,7 @@
 </v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="16"/>
         <v>76</v>
@@ -14418,7 +15593,7 @@
 </v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="16"/>
         <v>77</v>
@@ -14475,7 +15650,7 @@
 </v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="16"/>
         <v>78</v>
@@ -14532,7 +15707,7 @@
 </v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="16"/>
         <v>79</v>
@@ -14589,7 +15764,7 @@
 </v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="16"/>
         <v>80</v>
@@ -14646,7 +15821,7 @@
 </v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" si="16"/>
         <v>81</v>
@@ -14703,7 +15878,7 @@
 </v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="16"/>
         <v>82</v>
@@ -14760,7 +15935,7 @@
 </v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="16"/>
         <v>83</v>
@@ -14817,7 +15992,7 @@
 </v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="16"/>
         <v>84</v>
@@ -14874,7 +16049,7 @@
 </v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="16"/>
         <v>85</v>
@@ -14931,7 +16106,7 @@
 </v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="16"/>
         <v>86</v>
@@ -14988,7 +16163,7 @@
 </v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" si="16"/>
         <v>87</v>
@@ -15045,7 +16220,7 @@
 </v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" si="16"/>
         <v>88</v>
@@ -15102,7 +16277,7 @@
 </v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" si="16"/>
         <v>89</v>
@@ -15159,7 +16334,7 @@
 </v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" si="16"/>
         <v>90</v>
@@ -15216,7 +16391,7 @@
 </v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <f t="shared" si="16"/>
         <v>91</v>
@@ -15273,7 +16448,7 @@
 </v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <f t="shared" si="16"/>
         <v>92</v>
@@ -15330,7 +16505,7 @@
 </v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <f t="shared" si="16"/>
         <v>93</v>
@@ -15387,7 +16562,7 @@
 </v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <f t="shared" si="16"/>
         <v>94</v>
@@ -15444,7 +16619,7 @@
 </v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <f t="shared" si="16"/>
         <v>95</v>
@@ -15501,7 +16676,7 @@
 </v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <f t="shared" si="16"/>
         <v>96</v>
@@ -15558,7 +16733,7 @@
 </v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <f t="shared" si="16"/>
         <v>97</v>
@@ -15614,7 +16789,7 @@
 </v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <f t="shared" si="16"/>
         <v>98</v>
@@ -15670,7 +16845,7 @@
 </v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <f t="shared" si="16"/>
         <v>99</v>
@@ -15726,7 +16901,7 @@
 </v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <f t="shared" si="16"/>
         <v>100</v>
@@ -15782,7 +16957,7 @@
 </v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <f t="shared" si="16"/>
         <v>101</v>
@@ -15838,7 +17013,7 @@
 </v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <f t="shared" si="16"/>
         <v>102</v>
@@ -15894,7 +17069,7 @@
 </v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <f t="shared" si="16"/>
         <v>103</v>
@@ -15950,7 +17125,7 @@
 </v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <f t="shared" si="16"/>
         <v>104</v>
@@ -16006,7 +17181,7 @@
 </v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <f t="shared" si="16"/>
         <v>105</v>
@@ -16062,7 +17237,7 @@
 </v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <f t="shared" si="16"/>
         <v>106</v>
@@ -16118,7 +17293,7 @@
 </v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <f t="shared" si="16"/>
         <v>107</v>
@@ -16168,7 +17343,7 @@
 </v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <f t="shared" si="16"/>
         <v>108</v>
@@ -16218,7 +17393,7 @@
 </v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <f t="shared" si="16"/>
         <v>109</v>
@@ -16268,7 +17443,7 @@
 </v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <f t="shared" si="16"/>
         <v>110</v>
@@ -16318,7 +17493,7 @@
 </v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <f t="shared" si="16"/>
         <v>111</v>
@@ -16368,7 +17543,7 @@
 </v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <f t="shared" ref="A113" si="24">A112+1</f>
         <v>112</v>
@@ -16433,9 +17608,9 @@
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:26" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
         <v>288</v>
       </c>
@@ -16461,7 +17636,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:26" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
         <v>296</v>
       </c>
@@ -16514,7 +17689,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="7" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:26" x14ac:dyDescent="0.3">
       <c r="G7" t="s">
         <v>313</v>
       </c>
@@ -16567,7 +17742,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="8" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:26" x14ac:dyDescent="0.3">
       <c r="G8" t="s">
         <v>328</v>
       </c>
@@ -16599,7 +17774,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="9" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:26" x14ac:dyDescent="0.3">
       <c r="G9" t="s">
         <v>336</v>
       </c>
@@ -16628,17 +17803,17 @@
         <v>342</v>
       </c>
     </row>
-    <row r="10" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:26" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="11" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:26" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="13" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>345</v>
       </c>
@@ -16646,12 +17821,12 @@
         <v>346</v>
       </c>
     </row>
-    <row r="14" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="16" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:26" x14ac:dyDescent="0.3">
       <c r="G16" s="5" t="s">
         <v>16</v>
       </c>
@@ -16662,7 +17837,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="17" spans="7:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G17" t="s">
         <v>350</v>
       </c>
@@ -16673,7 +17848,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="19" spans="7:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G19" s="5" t="s">
         <v>13</v>
       </c>
@@ -16684,7 +17859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="7:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:22" x14ac:dyDescent="0.3">
       <c r="G20" t="s">
         <v>354</v>
       </c>
@@ -16708,9 +17883,9 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -16730,7 +17905,7 @@
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
     </row>
-    <row r="2" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
         <v>364</v>
@@ -16766,7 +17941,7 @@
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
     </row>
-    <row r="3" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -16786,7 +17961,7 @@
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
     </row>
-    <row r="4" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -16806,7 +17981,7 @@
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
     </row>
-    <row r="5" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -16826,7 +18001,7 @@
       <c r="Q5" s="14"/>
       <c r="R5" s="10"/>
     </row>
-    <row r="6" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>296</v>
       </c>
@@ -16868,7 +18043,7 @@
       <c r="Q6" s="14"/>
       <c r="R6" s="10"/>
     </row>
-    <row r="7" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>313</v>
       </c>
@@ -16910,7 +18085,7 @@
       <c r="Q7" s="14"/>
       <c r="R7" s="10"/>
     </row>
-    <row r="8" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>328</v>
       </c>
@@ -16950,7 +18125,7 @@
       <c r="Q8" s="14"/>
       <c r="R8" s="10"/>
     </row>
-    <row r="9" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>336</v>
       </c>
@@ -16988,7 +18163,7 @@
       <c r="Q9" s="14"/>
       <c r="R9" s="10"/>
     </row>
-    <row r="10" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -17000,7 +18175,7 @@
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
     </row>
-    <row r="11" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -17030,7 +18205,7 @@
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -17062,7 +18237,7 @@
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
     </row>
-    <row r="13" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
@@ -17086,7 +18261,7 @@
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
     </row>
-    <row r="14" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
@@ -17110,7 +18285,7 @@
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
     </row>
-    <row r="15" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -17132,7 +18307,7 @@
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
     </row>
-    <row r="16" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -17156,7 +18331,7 @@
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
     </row>
-    <row r="17" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>343</v>
@@ -17188,7 +18363,7 @@
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
     </row>
-    <row r="18" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>344</v>
@@ -17216,7 +18391,7 @@
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
     </row>
-    <row r="19" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -17236,7 +18411,7 @@
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
     </row>
-    <row r="20" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -17253,31 +18428,31 @@
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
     </row>
-    <row r="21" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SecondKeyboard/iCue/profile creating tool.xlsx
+++ b/SecondKeyboard/iCue/profile creating tool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Woong\Documents\GitHub\Scripts\SecondKeyboard\iCue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B897164-2B2E-4B91-9580-EE581B993997}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364B3B22-8287-4AFF-B655-5D32A6190353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2B087225-0969-45CE-ABD6-9F0C4354DA0B}"/>
+    <workbookView xWindow="38280" yWindow="5535" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{2B087225-0969-45CE-ABD6-9F0C4354DA0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="384">
   <si>
     <t>&lt;value</t>
   </si>
@@ -753,45 +753,6 @@
     <t>dab864c3-328e-182c-9faf-20aab984a059</t>
   </si>
   <si>
-    <t>fd518623-2611-4755-71ed-9f008c6830d0</t>
-  </si>
-  <si>
-    <t>c7b6a901-56af-0fe1-4456-74be42cb2c7b</t>
-  </si>
-  <si>
-    <t>6e20b69c-0634-08ec-3bf7-1f437b9a956a</t>
-  </si>
-  <si>
-    <t>25297473-6175-5f9b-85c7-2ccd0a6662d8</t>
-  </si>
-  <si>
-    <t>c421be72-4f95-a21e-9cf4-7785cfdd216c</t>
-  </si>
-  <si>
-    <t>512fd651-1e4e-3a51-2154-7905ff8c2f16</t>
-  </si>
-  <si>
-    <t>0aebfa9c-a428-14bf-616c-f9f7f592906b</t>
-  </si>
-  <si>
-    <t>be4e1a2c-55b2-2aed-443c-d8fec9fa3a9f</t>
-  </si>
-  <si>
-    <t>78c46af1-087d-4c48-7bfd-3a59e4499262</t>
-  </si>
-  <si>
-    <t>21ecee52-2298-3b4b-6b32-dc49481c407c</t>
-  </si>
-  <si>
-    <t>b2b97ce2-797d-3676-4123-89c5570d1f42</t>
-  </si>
-  <si>
-    <t>a1a89805-1401-896e-90fe-b839bd9b8665</t>
-  </si>
-  <si>
-    <t>a0028502-9c88-9e1f-1be0-4e8897b789d4</t>
-  </si>
-  <si>
     <t>F9</t>
   </si>
   <si>
@@ -1418,6 +1379,102 @@
   </si>
   <si>
     <t>Edge Main</t>
+  </si>
+  <si>
+    <t>939179f1-7bc5-16fd-2296-c5d75ab22cdc</t>
+  </si>
+  <si>
+    <t>7859b3bb-61be-1cc3-0048-c05f8d9120a5</t>
+  </si>
+  <si>
+    <t>29baf779-9b92-2fb6-508c-776b1e387dc8</t>
+  </si>
+  <si>
+    <t>361fc118-7eea-a2df-2df2-23cf5b9d39da</t>
+  </si>
+  <si>
+    <t>e1f61c40-8048-5d49-7c5e-9226cbb483ed</t>
+  </si>
+  <si>
+    <t>4f3c7b3e-6841-3858-37ac-8d1c38e93144</t>
+  </si>
+  <si>
+    <t>2ba79207-07a3-8fae-9ab2-42e6b30a986b</t>
+  </si>
+  <si>
+    <t>e418b2ca-2519-149f-98eb-b1e4ed3e2aae</t>
+  </si>
+  <si>
+    <t>cb9b7ad2-7ae6-a4ff-0b35-a1fa2cad86d7</t>
+  </si>
+  <si>
+    <t>6f2505b2-4d14-97bc-3fa2-4f5f58e795be</t>
+  </si>
+  <si>
+    <t>d769af3c-02d5-6fc2-706c-c66640a5a200</t>
+  </si>
+  <si>
+    <t>4f4cbcc3-1eae-353c-0b8c-6d0b61ca5074</t>
+  </si>
+  <si>
+    <t>321bd69a-99e1-4a00-9c66-567b3fd62fc5</t>
+  </si>
+  <si>
+    <t>868e27bd-7edc-8ae4-5028-d4f94c674d0e</t>
+  </si>
+  <si>
+    <t>aaea547d-7996-50ed-a15f-5f1db319a6b0</t>
+  </si>
+  <si>
+    <t>1ea3c4ae-38fa-a096-2b0c-43f94ff25df9</t>
+  </si>
+  <si>
+    <t>1c7bf603-8f1e-28bd-6630-539979de0e17</t>
+  </si>
+  <si>
+    <t>2f60c211-5931-06e9-38b3-27eb6b076052</t>
+  </si>
+  <si>
+    <t>cb6091ea-8a92-8513-7ea2-1e7c749155d1</t>
+  </si>
+  <si>
+    <t>76d7acb9-40f4-436d-0398-d2e1e66f2db9</t>
+  </si>
+  <si>
+    <t>8f355f1d-9301-718d-18d7-ca87c6141150</t>
+  </si>
+  <si>
+    <t>639fd693-2df5-3448-8ce7-ada643917c61</t>
+  </si>
+  <si>
+    <t>535aad89-0143-2226-075d-d477747e414e</t>
+  </si>
+  <si>
+    <t>5ec83573-76c3-214c-0521-8c6fb96e4000</t>
+  </si>
+  <si>
+    <t>4ce4b2db-3f19-77e1-445d-1c8c5bce6706</t>
+  </si>
+  <si>
+    <t>3074ee79-5362-2603-04f3-23d85152191d</t>
+  </si>
+  <si>
+    <t>ec5d869e-2d65-47d9-806d-515315785ef9</t>
+  </si>
+  <si>
+    <t>8930ad24-6f28-77f9-2774-fed6ff902217</t>
+  </si>
+  <si>
+    <t>fdc5c041-6ee3-8ab9-5b08-a0020af00906</t>
+  </si>
+  <si>
+    <t>New Index</t>
+  </si>
+  <si>
+    <t>SC079</t>
+  </si>
+  <si>
+    <t>SC07D</t>
   </si>
 </sst>
 </file>
@@ -1600,7 +1657,15 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1912,22 +1977,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF660FC2-EEA2-4848-8FC4-144E4F2F697C}">
   <dimension ref="A1:AG144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A146" sqref="A130:AI146"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P110" sqref="P110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="24.5546875" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" customWidth="1"/>
-    <col min="19" max="19" width="9.109375" style="4"/>
-    <col min="20" max="20" width="9.109375" style="3"/>
-    <col min="21" max="21" width="9.109375" style="4"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="4"/>
+    <col min="20" max="20" width="9.140625" style="3"/>
+    <col min="21" max="21" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -1948,7 +2013,7 @@
       </c>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2004,7 +2069,7 @@
         <v>&lt;value2&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483663&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro1&lt;/name&gt; &lt;id&gt;{414cf73f-2b35-4180-bc9d-9c250d0fb535}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;F13&lt;/value0&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value2&gt;</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="str">
         <f>A2</f>
         <v>&lt;value</v>
@@ -2066,7 +2131,7 @@
         <v>&lt;value3&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483664&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro2&lt;/name&gt; &lt;id&gt;{32d6b8d2-6c92-0214-3be7-6637c378521c}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;F13&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value3&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="str">
         <f t="shared" ref="A4:A9" si="2">A3</f>
         <v>&lt;value</v>
@@ -2128,7 +2193,7 @@
         <v>&lt;value4&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483665&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro3&lt;/name&gt; &lt;id&gt;{8429e02c-2af0-718a-0b67-0e6a51236d1f}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftAlt&lt;/value0&gt; &lt;value1&gt;F13&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value4&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="str">
         <f t="shared" si="2"/>
         <v>&lt;value</v>
@@ -2190,7 +2255,7 @@
         <v>&lt;value5&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483666&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro4&lt;/name&gt; &lt;id&gt;{74eb7793-1083-4fb6-50d6-8bb657a61168}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;F13&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value5&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="str">
         <f t="shared" si="2"/>
         <v>&lt;value</v>
@@ -2252,7 +2317,7 @@
         <v>&lt;value6&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483667&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro5&lt;/name&gt; &lt;id&gt;{ecc7938f-59da-89a3-6bbf-3644105830f5}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;F13&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value6&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
         <f t="shared" si="2"/>
         <v>&lt;value</v>
@@ -2314,7 +2379,7 @@
         <v>&lt;value7&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483668&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro6&lt;/name&gt; &lt;id&gt;{d46732d4-1d4b-049e-1881-8b9125b63a88}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;F13&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value7&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
         <f t="shared" si="2"/>
         <v>&lt;value</v>
@@ -2376,7 +2441,7 @@
         <v>&lt;value8&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483669&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro7&lt;/name&gt; &lt;id&gt;{1e4c071e-a13e-93cd-4c88-a1c80a7c8dde}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;F13&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value8&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="str">
         <f t="shared" si="2"/>
         <v>&lt;value</v>
@@ -2438,7 +2503,7 @@
         <v>&lt;value9&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483670&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro8&lt;/name&gt; &lt;id&gt;{295c8f14-a777-9611-1623-c37c2bdf6ff0}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;LeftAlt&lt;/value2&gt; &lt;value3&gt;F13&lt;/value3&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value9&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f t="shared" ref="A10:A17" si="9">A9</f>
         <v>&lt;value</v>
@@ -2503,7 +2568,7 @@
         <v>&lt;value10&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483671&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro9&lt;/name&gt; &lt;id&gt;{7e353507-60bd-2043-04c3-e8b6480265bb}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;F14&lt;/value0&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value10&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f t="shared" si="9"/>
         <v>&lt;value</v>
@@ -2568,7 +2633,7 @@
         <v>&lt;value11&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483672&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro10&lt;/name&gt; &lt;id&gt;{2805a72c-76a4-64e5-38fa-27ed51de1c42}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;F14&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value11&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f t="shared" si="9"/>
         <v>&lt;value</v>
@@ -2633,7 +2698,7 @@
         <v>&lt;value12&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483673&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro11&lt;/name&gt; &lt;id&gt;{e011abfe-5e7e-54a2-9ee2-f826f2775f55}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftAlt&lt;/value0&gt; &lt;value1&gt;F14&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value12&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f t="shared" si="9"/>
         <v>&lt;value</v>
@@ -2698,7 +2763,7 @@
         <v>&lt;value13&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483674&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro12&lt;/name&gt; &lt;id&gt;{bac2cf0f-598f-1ac8-7e19-d517ca032d41}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;F14&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value13&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f t="shared" si="9"/>
         <v>&lt;value</v>
@@ -2763,7 +2828,7 @@
         <v>&lt;value14&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483675&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro13&lt;/name&gt; &lt;id&gt;{ece64916-3996-9483-4524-777ec9629dc3}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;F14&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value14&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f t="shared" si="9"/>
         <v>&lt;value</v>
@@ -2828,7 +2893,7 @@
         <v>&lt;value15&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483676&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro14&lt;/name&gt; &lt;id&gt;{ed1abd5a-a753-0d2b-89a8-a24fc9511d78}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;F14&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value15&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f t="shared" si="9"/>
         <v>&lt;value</v>
@@ -2893,7 +2958,7 @@
         <v>&lt;value16&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483677&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro15&lt;/name&gt; &lt;id&gt;{c64b6fb2-3305-66fd-3b5f-a8e3a9d217c5}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;F14&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value16&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f t="shared" si="9"/>
         <v>&lt;value</v>
@@ -2958,7 +3023,7 @@
         <v>&lt;value17&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483678&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro16&lt;/name&gt; &lt;id&gt;{f5751d48-78b1-8b05-9a20-ec741b8ea3f8}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;LeftAlt&lt;/value2&gt; &lt;value3&gt;F14&lt;/value3&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value17&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <f t="shared" ref="A18:A81" si="24">A17</f>
         <v>&lt;value</v>
@@ -3023,7 +3088,7 @@
         <v>&lt;value18&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483679&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro17&lt;/name&gt; &lt;id&gt;{3c15809f-9310-5934-3305-f56ad8877d01}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;F15&lt;/value0&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value18&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -3091,7 +3156,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -3156,7 +3221,7 @@
         <v>&lt;value20&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483681&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro19&lt;/name&gt; &lt;id&gt;{d7ca59ea-7b46-827e-2622-20cae0370699}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftAlt&lt;/value0&gt; &lt;value1&gt;F15&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value20&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -3221,7 +3286,7 @@
         <v>&lt;value21&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483682&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro20&lt;/name&gt; &lt;id&gt;{f5281981-7eee-7dd9-788a-76014b183eb4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;F15&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value21&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -3286,7 +3351,7 @@
         <v>&lt;value22&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483683&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro21&lt;/name&gt; &lt;id&gt;{5467515c-6842-1fd7-588e-c1f5cd01454f}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;F15&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value22&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -3354,7 +3419,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -3422,7 +3487,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -3490,7 +3555,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -3558,7 +3623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -3623,7 +3688,7 @@
         <v>&lt;value27&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483688&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro26&lt;/name&gt; &lt;id&gt;{4b0f6be7-33f0-2053-3601-c78159794ebe}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;F16&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value27&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -3697,7 +3762,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -3771,7 +3836,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -3845,7 +3910,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -3919,7 +3984,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -3993,7 +4058,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -4067,7 +4132,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -4141,7 +4206,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -4215,7 +4280,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -4280,7 +4345,7 @@
         <v>&lt;value36&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483697&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro35&lt;/name&gt; &lt;id&gt;{472568e4-49ac-9cf3-951a-06bd68419d31}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftAlt&lt;/value0&gt; &lt;value1&gt;F17&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value36&gt;</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -4345,7 +4410,7 @@
         <v>&lt;value37&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483698&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro36&lt;/name&gt; &lt;id&gt;{fc308fc4-653f-776c-877a-e4ddf54501e7}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;F17&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value37&gt;</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -4410,7 +4475,7 @@
         <v>&lt;value38&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483699&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro37&lt;/name&gt; &lt;id&gt;{4565bad7-839a-2d75-3ab1-1927d14050da}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;F17&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value38&gt;</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -4481,7 +4546,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -4547,7 +4612,7 @@
       </c>
       <c r="W40" t="str">
         <f t="shared" ref="W40:W101" ca="1" si="78">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))</f>
-        <v>a7b8e3e5-3f9e-0538-2597-828fe53b204f</v>
+        <v>03a083cc-8603-0f4b-a524-cf1c6ce7a413</v>
       </c>
       <c r="AE40" t="s">
         <v>57</v>
@@ -4556,7 +4621,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -4622,7 +4687,7 @@
       </c>
       <c r="W41" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>10a600ce-32b0-9d06-4973-b9103abc13af</v>
+        <v>da28385e-6060-99d2-3461-c3d9e9440b0b</v>
       </c>
       <c r="AE41" t="s">
         <v>58</v>
@@ -4631,7 +4696,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -4697,7 +4762,7 @@
       </c>
       <c r="W42" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>7e9d49ab-7cd8-6474-7a2d-6190ecee7e2e</v>
+        <v>6847aeea-a419-60ee-44ae-260259c28918</v>
       </c>
       <c r="AE42" t="s">
         <v>59</v>
@@ -4706,7 +4771,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -4772,7 +4837,7 @@
       </c>
       <c r="W43" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>7f17eceb-20aa-8362-8856-b377062c53e4</v>
+        <v>95d3bc80-80bd-015c-0148-c81ff89a2a58</v>
       </c>
       <c r="AE43" t="s">
         <v>60</v>
@@ -4781,7 +4846,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -4847,7 +4912,7 @@
       </c>
       <c r="W44" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>258c22e8-3913-5d08-943b-1770973a5775</v>
+        <v>7f2a43b9-2d61-2e9f-0f1a-15d3b32194ca</v>
       </c>
       <c r="AE44" t="s">
         <v>61</v>
@@ -4856,7 +4921,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -4922,7 +4987,7 @@
       </c>
       <c r="W45" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>8d4ee2bb-97fe-45c0-76d4-243bf4d957a7</v>
+        <v>ede91f1c-340b-1ed3-9241-a4bc898494ad</v>
       </c>
       <c r="AE45" t="s">
         <v>62</v>
@@ -4931,7 +4996,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -4997,7 +5062,7 @@
       </c>
       <c r="W46" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>7c38bd34-8573-79f5-1db4-f43cb9f19f77</v>
+        <v>37cdae81-223d-4b59-836a-d88fcf130f8a</v>
       </c>
       <c r="AE46" t="s">
         <v>63</v>
@@ -5006,7 +5071,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -5072,10 +5137,10 @@
       </c>
       <c r="W47" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>f01b4c7f-0614-66b7-811d-47c7259d11ff</v>
-      </c>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+        <v>917d9f03-6181-2aec-7361-dc48d81d7ac6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -5141,10 +5206,10 @@
       </c>
       <c r="W48" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>0a5ba86a-5338-82d8-6a84-2d72b94428d9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2a109765-2bc8-7abf-5601-2f5fe3872e50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -5210,10 +5275,10 @@
       </c>
       <c r="W49" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>d355a106-876a-4ccd-7cae-176ffcf00023</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+        <v>65f54a14-a5af-9ab7-341d-2d6946700e5b</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -5279,10 +5344,10 @@
       </c>
       <c r="W50" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>2c241888-74bc-2b75-7ff2-e809eb4f950d</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+        <v>bf844f21-1db8-2cb1-a40e-542b25ab99d0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -5348,10 +5413,10 @@
       </c>
       <c r="W51" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>632fce18-43a7-0ac4-4390-88a2f821a739</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+        <v>06298e8c-24d7-95e6-069a-230b6e9765ae</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -5417,10 +5482,10 @@
       </c>
       <c r="W52" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>41becca8-4b3b-0054-9082-3d1bf33d4b70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+        <v>dc52796b-a723-1212-7224-b1975c3d4556</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -5486,10 +5551,10 @@
       </c>
       <c r="W53" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>dacb553b-3c48-084f-16cf-f2d500ff7e72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+        <v>9bdb2423-851d-5709-4097-5c21d6fc55cb</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -5555,10 +5620,10 @@
       </c>
       <c r="W54" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>6d24742b-3598-3857-1035-a6711beb8dfc</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+        <v>7cd94eea-2b31-4dc5-6b93-44e3d96a8092</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -5624,10 +5689,10 @@
       </c>
       <c r="W55" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>ea917f1c-2ee8-853c-7b42-47cf53a68a28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+        <v>de4a8c29-32d0-70a8-2c71-3cd4d85b1d60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -5693,10 +5758,10 @@
       </c>
       <c r="W56" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>28bbfca3-91c1-1c89-936e-c9e0fa951b27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+        <v>d2708358-12ce-8264-0cf9-e55436a71d25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -5762,10 +5827,10 @@
       </c>
       <c r="W57" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>43b49881-29c1-20ea-4bfa-6134cbdf8e22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0a986bdc-525b-4b5b-3a19-a55690fb9527</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -5831,10 +5896,10 @@
       </c>
       <c r="W58" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>7e51fa0d-2dcf-9881-8598-a3be88d0122c</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+        <v>64876f26-8136-622c-17f0-a28668ff2ea3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -5900,10 +5965,10 @@
       </c>
       <c r="W59" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>4ef658b2-8db1-1e0a-4e3e-f46436f38591</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+        <v>ecf5888f-89be-2af6-6646-16a27fc812f5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -5969,10 +6034,10 @@
       </c>
       <c r="W60" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>01510098-3c88-756f-9dbb-ce0e96bb35b9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0db8dc63-80b6-131a-66ad-87887e2e1bb8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -6038,10 +6103,10 @@
       </c>
       <c r="W61" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>30438d4a-3e1b-073b-3530-7e4dc70f457d</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+        <v>d274b11c-6134-6a40-5605-f75872274563</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -6107,10 +6172,10 @@
       </c>
       <c r="W62" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>b53ad63b-8603-8c8b-57cc-366993c44024</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+        <v>afc90dc9-2233-2644-2782-615047d09f78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -6176,10 +6241,10 @@
       </c>
       <c r="W63" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>860d436b-71fb-0c48-53d5-ef56b2fc4db3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+        <v>73cd57da-4d2d-2579-5dcc-31997da327c0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -6245,10 +6310,10 @@
       </c>
       <c r="W64" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>2bbcb8ff-27b5-0ff9-a0fe-17b8d7dfa794</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+        <v>ce40c5f5-3122-6c9d-0b54-5e96166132a1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -6314,10 +6379,10 @@
       </c>
       <c r="W65" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>25893c67-071b-7bd5-0ad2-8adcbcf3484d</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0f6cb5fa-024c-4a98-1bc9-c6890af06120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -6383,10 +6448,10 @@
       </c>
       <c r="W66" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>0b812160-59b6-0bf1-5a1c-f03b428f44b6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+        <v>50fa6833-5ccd-0656-43f4-32500ac73b4b</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -6452,10 +6517,10 @@
       </c>
       <c r="W67" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>faaff690-2e6d-a012-7f3d-0e24289a7c85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+        <v>bd582b4a-0671-8d0a-42dd-f7550d9d4894</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -6521,10 +6586,10 @@
       </c>
       <c r="W68" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>1ed2b351-a318-81f6-3daa-207aac4b2e2a</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+        <v>b90ce8cf-36d6-209e-a42e-0a96eab91d98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -6590,10 +6655,10 @@
       </c>
       <c r="W69" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>5a4cd48e-3917-54c6-903a-e332dbf89275</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+        <v>bbe784e1-2764-763f-1a2c-7a96d6fe8c43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -6659,10 +6724,10 @@
       </c>
       <c r="W70" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>5d88daf7-66be-368e-a3cf-9aa699d90a90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+        <v>74894367-566c-047d-8791-40008d071eb2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -6728,10 +6793,10 @@
       </c>
       <c r="W71" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>2cb5e4e9-4ddb-2218-7cbd-565d6af87fc4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+        <v>35aad24e-50fa-72de-a34e-21cf6aea6fee</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -6797,10 +6862,10 @@
       </c>
       <c r="W72" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>ffbe16d9-38b4-0ab7-44a7-81dc46760824</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+        <v>04298c90-6c11-89f2-09df-cad276e21075</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -6866,10 +6931,10 @@
       </c>
       <c r="W73" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>f7d7e676-2bc3-8103-8219-331a82178480</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0f60846a-533d-13ff-54c5-846f686b2e44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -6935,10 +7000,10 @@
       </c>
       <c r="W74" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>e6a3da44-1c82-2dcf-8b02-9f4deac10d43</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+        <v>d7327caf-83fc-4e2a-3d30-ecc9ee47232b</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -6995,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <f t="shared" ref="Q75:Q138" si="150">Q67+1</f>
+        <f t="shared" ref="Q75:Q129" si="150">Q67+1</f>
         <v>22</v>
       </c>
       <c r="T75" s="3" t="str">
@@ -7004,10 +7069,10 @@
       </c>
       <c r="W75" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>d7cbd69b-0983-33ce-6a5e-951068416545</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+        <v>316106d8-a2a4-2b3a-32ba-1b6f73fd9b96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -7073,10 +7138,10 @@
       </c>
       <c r="W76" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>1865ff6b-288b-1425-61a3-b5e565574acd</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+        <v>38cb97c4-85fa-77fd-07e8-1b79b1b534c4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -7142,10 +7207,10 @@
       </c>
       <c r="W77" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>61e29d29-0d4e-6eb3-3b9a-2895f4c38d8c</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2dfaad8c-5137-017d-8837-5b67274fa69c</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -7211,10 +7276,10 @@
       </c>
       <c r="W78" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>33e4c6e3-7b99-0fd2-92dd-af4913e9797f</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+        <v>6003ee40-7b4a-09cb-9841-04c9e34a72a9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -7280,10 +7345,10 @@
       </c>
       <c r="W79" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>7d2f6e73-49de-493c-3860-0a0566690f47</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2be963fb-13a3-a542-4e1a-4181f6049316</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -7349,10 +7414,10 @@
       </c>
       <c r="W80" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>6bcb6d6b-2de7-6804-9c21-4936e7bea4e5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+        <v>997e2db1-6fbf-2a4b-43e6-272067304a00</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="str">
         <f t="shared" si="24"/>
         <v>&lt;value</v>
@@ -7418,10 +7483,10 @@
       </c>
       <c r="W81" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>fdfafa7e-7d0c-7e5e-3692-98023bf42e7d</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+        <v>50289dee-704c-1b46-3694-9a3830875d3a</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="str">
         <f t="shared" ref="A82:A107" si="163">A81</f>
         <v>&lt;value</v>
@@ -7431,7 +7496,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="1" t="str">
-        <f t="shared" ref="C82:C144" si="165">C81</f>
+        <f t="shared" ref="C82:C129" si="165">C81</f>
         <v>&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;</v>
       </c>
       <c r="D82">
@@ -7487,10 +7552,10 @@
       </c>
       <c r="W82" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>ec6810c5-92dd-5c10-47b9-18ef0774a76c</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+        <v>a9ec0004-56a6-3f5b-5cf0-4ea7a53e90ba</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -7556,10 +7621,10 @@
       </c>
       <c r="W83" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>b033901d-272a-54db-7a1b-947fc7b56790</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1acec61c-3ae6-5b79-2503-fb41136749df</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -7625,10 +7690,10 @@
       </c>
       <c r="W84" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>0c47c817-6aec-335d-224a-d9d4529d0274</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+        <v>60073854-97c6-6351-5414-27d57be6262e</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -7694,10 +7759,10 @@
       </c>
       <c r="W85" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>c60fde04-5485-72c0-0bd7-e8df9d4e2b87</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+        <v>27eb2bbd-5534-2caf-25ad-c7a6920e7861</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -7763,10 +7828,10 @@
       </c>
       <c r="W86" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>7c029f2b-5243-22af-2d40-2df4d44d712a</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2c48108d-1cf4-6893-7c32-df31eaf15b87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -7832,10 +7897,10 @@
       </c>
       <c r="W87" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>528f43f1-879f-1395-4e43-b336d60d2227</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+        <v>9c1c4741-293b-6c26-44a7-488f43167313</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -7901,10 +7966,10 @@
       </c>
       <c r="W88" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>0772c022-0fe1-37bc-0696-67e391ca854d</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+        <v>18cd61e9-4652-64dc-6bd8-566f91633019</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -7970,10 +8035,10 @@
       </c>
       <c r="W89" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>93ad5114-39a8-3fa8-a24a-2c5ca8dd7bdf</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+        <v>272aa78d-8aff-4703-66f4-5f5461d587d1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -8039,10 +8104,10 @@
       </c>
       <c r="W90" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>5970b3b9-4ea6-4c22-3110-c38435ec1c6a</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+        <v>c88ccdfb-a145-2abf-8e83-c63639912f0c</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -8108,10 +8173,10 @@
       </c>
       <c r="W91" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>9cfec060-4bdb-32c7-9a55-a52a924244a3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+        <v>7c37d780-9f2d-25db-84b5-15d774431763</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -8177,10 +8242,10 @@
       </c>
       <c r="W92" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>0170d6e8-2d50-76de-5ad0-4d39255236bf</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0268f62a-557c-4a31-09b7-d3fdc36d85fe</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -8246,10 +8311,10 @@
       </c>
       <c r="W93" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>7bb7103f-1fe4-4d73-3df4-d9ba296c3f31</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+        <v>a333315f-1b75-0598-2b4d-3345c58240b4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -8315,10 +8380,10 @@
       </c>
       <c r="W94" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>cffb49f5-1dd9-61bb-3cf9-e13c0a9a99c4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+        <v>256b2802-1c39-5a64-4d47-26cd2c61625a</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -8384,10 +8449,10 @@
       </c>
       <c r="W95" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>ac0277ae-617c-8f68-910e-9e4c56184fcf</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+        <v>8ef53140-3348-348f-7043-50f65e6d73f5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -8453,10 +8518,10 @@
       </c>
       <c r="W96" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>3c86e114-890a-2835-62ae-54bdff8b8949</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
+        <v>072a1c32-9ebb-93df-8ff6-82c8ec732185</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -8522,10 +8587,10 @@
       </c>
       <c r="W97" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>53edf2a2-9765-3165-804f-c680ab45733b</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0d59e44d-3a66-18ec-3090-4f6f4ff31587</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -8590,10 +8655,10 @@
       </c>
       <c r="W98" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>67ae7d74-a28d-9542-8e0d-737a63de2b91</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
+        <v>d6bc3456-6d72-67a3-431d-a119961a549e</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -8658,10 +8723,10 @@
       </c>
       <c r="W99" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>efc9d2dd-368d-012b-28f4-a55bb62e851f</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
+        <v>f14220d9-98bc-4f4f-a744-b692097e91f6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -8726,10 +8791,10 @@
       </c>
       <c r="W100" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>20aa3ecb-1d39-4140-0a34-e7b48fa78a57</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
+        <v>30594c60-a1db-516e-76c1-a2a621fd2264</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -8757,7 +8822,7 @@
         <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>153</v>
+        <v>352</v>
       </c>
       <c r="I101" s="1" t="str">
         <f t="shared" si="168"/>
@@ -8790,14 +8855,14 @@
       </c>
       <c r="T101" s="3" t="str">
         <f t="shared" si="135"/>
-        <v>&lt;value101&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483762&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro100&lt;/name&gt; &lt;id&gt;{fd518623-2611-4755-71ed-9f008c6830d0}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;International1&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value101&gt;</v>
+        <v>&lt;value101&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483762&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro100&lt;/name&gt; &lt;id&gt;{939179f1-7bc5-16fd-2296-c5d75ab22cdc}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;International1&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value101&gt;</v>
       </c>
       <c r="W101" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>9df353da-6e39-08f7-a6d4-e15c2d474a16</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
+        <v>e71cec56-7c33-3a02-3ff8-77df63150fbd</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -8825,7 +8890,7 @@
         <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>154</v>
+        <v>353</v>
       </c>
       <c r="I102" s="1" t="str">
         <f t="shared" si="168"/>
@@ -8858,10 +8923,10 @@
       </c>
       <c r="T102" s="3" t="str">
         <f t="shared" si="135"/>
-        <v>&lt;value102&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483763&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro101&lt;/name&gt; &lt;id&gt;{c7b6a901-56af-0fe1-4456-74be42cb2c7b}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;International1&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value102&gt;</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
+        <v>&lt;value102&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483763&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro101&lt;/name&gt; &lt;id&gt;{7859b3bb-61be-1cc3-0048-c05f8d9120a5}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;International1&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value102&gt;</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -8889,7 +8954,7 @@
         <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>155</v>
+        <v>354</v>
       </c>
       <c r="I103" s="1" t="str">
         <f t="shared" si="168"/>
@@ -8922,10 +8987,10 @@
       </c>
       <c r="T103" s="3" t="str">
         <f t="shared" si="135"/>
-        <v>&lt;value103&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483764&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro102&lt;/name&gt; &lt;id&gt;{6e20b69c-0634-08ec-3bf7-1f437b9a956a}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;International1&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value103&gt;</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
+        <v>&lt;value103&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483764&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro102&lt;/name&gt; &lt;id&gt;{29baf779-9b92-2fb6-508c-776b1e387dc8}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;International1&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value103&gt;</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -8953,7 +9018,7 @@
         <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>156</v>
+        <v>355</v>
       </c>
       <c r="I104" s="1" t="str">
         <f t="shared" si="168"/>
@@ -8986,10 +9051,10 @@
       </c>
       <c r="T104" s="3" t="str">
         <f t="shared" si="135"/>
-        <v>&lt;value104&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483765&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro103&lt;/name&gt; &lt;id&gt;{25297473-6175-5f9b-85c7-2ccd0a6662d8}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;International1&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value104&gt;</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
+        <v>&lt;value104&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483765&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro103&lt;/name&gt; &lt;id&gt;{361fc118-7eea-a2df-2df2-23cf5b9d39da}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;International1&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value104&gt;</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -9017,7 +9082,7 @@
         <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>157</v>
+        <v>356</v>
       </c>
       <c r="I105" s="1" t="str">
         <f t="shared" si="168"/>
@@ -9050,10 +9115,10 @@
       </c>
       <c r="T105" s="3" t="str">
         <f t="shared" si="135"/>
-        <v>&lt;value105&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483766&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro104&lt;/name&gt; &lt;id&gt;{c421be72-4f95-a21e-9cf4-7785cfdd216c}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;LeftAlt&lt;/value2&gt; &lt;value3&gt;International1&lt;/value3&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value105&gt;</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
+        <v>&lt;value105&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483766&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro104&lt;/name&gt; &lt;id&gt;{e1f61c40-8048-5d49-7c5e-9226cbb483ed}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;LeftAlt&lt;/value2&gt; &lt;value3&gt;International1&lt;/value3&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value105&gt;</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -9081,7 +9146,7 @@
         <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>158</v>
+        <v>357</v>
       </c>
       <c r="I106" s="1" t="str">
         <f t="shared" si="168"/>
@@ -9115,10 +9180,10 @@
       </c>
       <c r="T106" s="3" t="str">
         <f t="shared" si="135"/>
-        <v>&lt;value106&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483767&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro105&lt;/name&gt; &lt;id&gt;{512fd651-1e4e-3a51-2154-7905ff8c2f16}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;International2&lt;/value0&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value106&gt;</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+        <v>&lt;value106&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483767&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro105&lt;/name&gt; &lt;id&gt;{4f3c7b3e-6841-3858-37ac-8d1c38e93144}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;International2&lt;/value0&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value106&gt;</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="str">
         <f t="shared" si="163"/>
         <v>&lt;value</v>
@@ -9146,7 +9211,7 @@
         <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>159</v>
+        <v>358</v>
       </c>
       <c r="I107" s="1" t="str">
         <f t="shared" si="168"/>
@@ -9180,16 +9245,16 @@
       </c>
       <c r="T107" s="3" t="str">
         <f t="shared" si="135"/>
-        <v>&lt;value107&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483768&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro106&lt;/name&gt; &lt;id&gt;{0aebfa9c-a428-14bf-616c-f9f7f592906b}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;International2&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value107&gt;</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
+        <v>&lt;value107&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483768&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro106&lt;/name&gt; &lt;id&gt;{2ba79207-07a3-8fae-9ab2-42e6b30a986b}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;International2&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value107&gt;</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="str">
-        <f t="shared" ref="A108:A144" si="224">A107</f>
+        <f t="shared" ref="A108:A129" si="224">A107</f>
         <v>&lt;value</v>
       </c>
       <c r="B108">
-        <f t="shared" ref="B108:B144" si="225">B107+1</f>
+        <f t="shared" ref="B108:B129" si="225">B107+1</f>
         <v>108</v>
       </c>
       <c r="C108" s="1" t="str">
@@ -9197,24 +9262,24 @@
         <v>&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;</v>
       </c>
       <c r="D108">
-        <f t="shared" ref="D108:D144" si="226">D107+1</f>
+        <f t="shared" ref="D108:D129" si="226">D107+1</f>
         <v>2147483769</v>
       </c>
       <c r="E108" t="s">
         <v>48</v>
       </c>
       <c r="F108">
-        <f t="shared" ref="F108:F144" si="227">F107+1</f>
+        <f t="shared" ref="F108:F129" si="227">F107+1</f>
         <v>107</v>
       </c>
       <c r="G108" t="s">
         <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>160</v>
+        <v>359</v>
       </c>
       <c r="I108" s="1" t="str">
-        <f t="shared" ref="I108:I144" si="228">I107</f>
+        <f t="shared" ref="I108:I129" si="228">I107</f>
         <v>}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;</v>
       </c>
       <c r="J108" s="1" t="str">
@@ -9245,10 +9310,10 @@
       </c>
       <c r="T108" s="3" t="str">
         <f t="shared" si="135"/>
-        <v>&lt;value108&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483769&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro107&lt;/name&gt; &lt;id&gt;{be4e1a2c-55b2-2aed-443c-d8fec9fa3a9f}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftAlt&lt;/value0&gt; &lt;value1&gt;International2&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value108&gt;</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
+        <v>&lt;value108&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483769&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro107&lt;/name&gt; &lt;id&gt;{e418b2ca-2519-149f-98eb-b1e4ed3e2aae}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftAlt&lt;/value0&gt; &lt;value1&gt;International2&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value108&gt;</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="str">
         <f t="shared" si="224"/>
         <v>&lt;value</v>
@@ -9276,7 +9341,7 @@
         <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>161</v>
+        <v>360</v>
       </c>
       <c r="I109" s="1" t="str">
         <f t="shared" si="228"/>
@@ -9310,10 +9375,10 @@
       </c>
       <c r="T109" s="3" t="str">
         <f t="shared" si="135"/>
-        <v>&lt;value109&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483770&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro108&lt;/name&gt; &lt;id&gt;{78c46af1-087d-4c48-7bfd-3a59e4499262}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;International2&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value109&gt;</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
+        <v>&lt;value109&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483770&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro108&lt;/name&gt; &lt;id&gt;{cb9b7ad2-7ae6-a4ff-0b35-a1fa2cad86d7}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;International2&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value109&gt;</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="str">
         <f t="shared" si="224"/>
         <v>&lt;value</v>
@@ -9341,7 +9406,7 @@
         <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>162</v>
+        <v>361</v>
       </c>
       <c r="I110" s="1" t="str">
         <f t="shared" si="228"/>
@@ -9375,10 +9440,10 @@
       </c>
       <c r="T110" s="3" t="str">
         <f t="shared" si="135"/>
-        <v>&lt;value110&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483771&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro109&lt;/name&gt; &lt;id&gt;{21ecee52-2298-3b4b-6b32-dc49481c407c}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;International2&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value110&gt;</v>
-      </c>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
+        <v>&lt;value110&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483771&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro109&lt;/name&gt; &lt;id&gt;{6f2505b2-4d14-97bc-3fa2-4f5f58e795be}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;International2&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value110&gt;</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="str">
         <f t="shared" si="224"/>
         <v>&lt;value</v>
@@ -9406,7 +9471,7 @@
         <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>163</v>
+        <v>362</v>
       </c>
       <c r="I111" s="1" t="str">
         <f t="shared" si="228"/>
@@ -9440,10 +9505,10 @@
       </c>
       <c r="T111" s="3" t="str">
         <f t="shared" si="135"/>
-        <v>&lt;value111&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483772&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro110&lt;/name&gt; &lt;id&gt;{b2b97ce2-797d-3676-4123-89c5570d1f42}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;International2&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value111&gt;</v>
-      </c>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
+        <v>&lt;value111&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483772&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro110&lt;/name&gt; &lt;id&gt;{d769af3c-02d5-6fc2-706c-c66640a5a200}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;International2&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value111&gt;</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="str">
         <f t="shared" si="224"/>
         <v>&lt;value</v>
@@ -9471,7 +9536,7 @@
         <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>164</v>
+        <v>363</v>
       </c>
       <c r="I112" s="1" t="str">
         <f t="shared" si="228"/>
@@ -9505,10 +9570,10 @@
       </c>
       <c r="T112" s="3" t="str">
         <f t="shared" si="135"/>
-        <v>&lt;value112&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483773&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro111&lt;/name&gt; &lt;id&gt;{a1a89805-1401-896e-90fe-b839bd9b8665}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;International2&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value112&gt;</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+        <v>&lt;value112&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483773&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro111&lt;/name&gt; &lt;id&gt;{4f4cbcc3-1eae-353c-0b8c-6d0b61ca5074}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;International2&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value112&gt;</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="str">
         <f t="shared" si="224"/>
         <v>&lt;value</v>
@@ -9536,14 +9601,14 @@
         <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>165</v>
+        <v>364</v>
       </c>
       <c r="I113" s="1" t="str">
         <f t="shared" si="228"/>
         <v>}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;</v>
       </c>
       <c r="J113" s="1" t="str">
-        <f t="shared" ref="J113:J144" si="241">J105</f>
+        <f t="shared" ref="J113:J129" si="241">J105</f>
         <v>&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;LeftAlt&lt;/value2&gt; &lt;value3&gt;</v>
       </c>
       <c r="K113" s="1" t="str">
@@ -9551,7 +9616,7 @@
         <v>International2</v>
       </c>
       <c r="L113" s="1" t="str">
-        <f t="shared" ref="L113:L144" si="242">L105</f>
+        <f t="shared" ref="L113:L129" si="242">L105</f>
         <v>&lt;/value3&gt;</v>
       </c>
       <c r="M113" t="s">
@@ -9570,10 +9635,10 @@
       </c>
       <c r="T113" s="3" t="str">
         <f t="shared" si="135"/>
-        <v>&lt;value113&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483774&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro112&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;LeftAlt&lt;/value2&gt; &lt;value3&gt;International2&lt;/value3&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value113&gt;</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+        <v>&lt;value113&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483774&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro112&lt;/name&gt; &lt;id&gt;{321bd69a-99e1-4a00-9c66-567b3fd62fc5}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;LeftAlt&lt;/value2&gt; &lt;value3&gt;International2&lt;/value3&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value113&gt;</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="str">
         <f t="shared" si="224"/>
         <v>&lt;value</v>
@@ -9601,7 +9666,7 @@
         <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>165</v>
+        <v>365</v>
       </c>
       <c r="I114" s="1" t="str">
         <f t="shared" si="228"/>
@@ -9612,7 +9677,7 @@
         <v>&lt;value0&gt;</v>
       </c>
       <c r="K114" s="1" t="str">
-        <f t="shared" ref="K114:K144" si="243">_xlfn.CONCAT("International", Q114)</f>
+        <f t="shared" ref="K114:K129" si="243">_xlfn.CONCAT("International", Q114)</f>
         <v>International3</v>
       </c>
       <c r="L114" s="1" t="str">
@@ -9623,7 +9688,7 @@
         <v>27</v>
       </c>
       <c r="N114">
-        <f t="shared" ref="N114:N144" si="244">B114</f>
+        <f t="shared" ref="N114:N129" si="244">B114</f>
         <v>114</v>
       </c>
       <c r="O114" s="1" t="s">
@@ -9634,11 +9699,11 @@
         <v>3</v>
       </c>
       <c r="T114" s="3" t="str">
-        <f t="shared" ref="T114:T144" si="245">_xlfn.CONCAT(A114:O114)</f>
-        <v>&lt;value114&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483775&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro113&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;International3&lt;/value0&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value114&gt;</v>
-      </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+        <f t="shared" ref="T114:T129" si="245">_xlfn.CONCAT(A114:O114)</f>
+        <v>&lt;value114&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483775&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro113&lt;/name&gt; &lt;id&gt;{868e27bd-7edc-8ae4-5028-d4f94c674d0e}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;International3&lt;/value0&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value114&gt;</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="str">
         <f t="shared" si="224"/>
         <v>&lt;value</v>
@@ -9666,7 +9731,7 @@
         <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>165</v>
+        <v>366</v>
       </c>
       <c r="I115" s="1" t="str">
         <f t="shared" si="228"/>
@@ -9700,10 +9765,10 @@
       </c>
       <c r="T115" s="3" t="str">
         <f t="shared" si="245"/>
-        <v>&lt;value115&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483776&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro114&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;International3&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value115&gt;</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+        <v>&lt;value115&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483776&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro114&lt;/name&gt; &lt;id&gt;{aaea547d-7996-50ed-a15f-5f1db319a6b0}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;International3&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value115&gt;</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="str">
         <f t="shared" si="224"/>
         <v>&lt;value</v>
@@ -9731,7 +9796,7 @@
         <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>165</v>
+        <v>367</v>
       </c>
       <c r="I116" s="1" t="str">
         <f t="shared" si="228"/>
@@ -9765,10 +9830,10 @@
       </c>
       <c r="T116" s="3" t="str">
         <f t="shared" si="245"/>
-        <v>&lt;value116&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483777&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro115&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftAlt&lt;/value0&gt; &lt;value1&gt;International3&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value116&gt;</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+        <v>&lt;value116&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483777&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro115&lt;/name&gt; &lt;id&gt;{1ea3c4ae-38fa-a096-2b0c-43f94ff25df9}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftAlt&lt;/value0&gt; &lt;value1&gt;International3&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value116&gt;</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="str">
         <f t="shared" si="224"/>
         <v>&lt;value</v>
@@ -9796,7 +9861,7 @@
         <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>165</v>
+        <v>368</v>
       </c>
       <c r="I117" s="1" t="str">
         <f t="shared" si="228"/>
@@ -9830,10 +9895,10 @@
       </c>
       <c r="T117" s="3" t="str">
         <f t="shared" si="245"/>
-        <v>&lt;value117&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483778&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro116&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;International3&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value117&gt;</v>
-      </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+        <v>&lt;value117&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483778&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro116&lt;/name&gt; &lt;id&gt;{1c7bf603-8f1e-28bd-6630-539979de0e17}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;International3&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value117&gt;</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="str">
         <f t="shared" si="224"/>
         <v>&lt;value</v>
@@ -9861,7 +9926,7 @@
         <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>165</v>
+        <v>369</v>
       </c>
       <c r="I118" s="1" t="str">
         <f t="shared" si="228"/>
@@ -9895,10 +9960,10 @@
       </c>
       <c r="T118" s="3" t="str">
         <f t="shared" si="245"/>
-        <v>&lt;value118&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483779&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro117&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;International3&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value118&gt;</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+        <v>&lt;value118&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483779&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro117&lt;/name&gt; &lt;id&gt;{2f60c211-5931-06e9-38b3-27eb6b076052}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;International3&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value118&gt;</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="str">
         <f t="shared" si="224"/>
         <v>&lt;value</v>
@@ -9926,7 +9991,7 @@
         <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>165</v>
+        <v>370</v>
       </c>
       <c r="I119" s="1" t="str">
         <f t="shared" si="228"/>
@@ -9960,10 +10025,10 @@
       </c>
       <c r="T119" s="3" t="str">
         <f t="shared" si="245"/>
-        <v>&lt;value119&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483780&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro118&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;International3&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value119&gt;</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+        <v>&lt;value119&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483780&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro118&lt;/name&gt; &lt;id&gt;{cb6091ea-8a92-8513-7ea2-1e7c749155d1}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;International3&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value119&gt;</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="str">
         <f t="shared" si="224"/>
         <v>&lt;value</v>
@@ -9991,7 +10056,7 @@
         <v>47</v>
       </c>
       <c r="H120" t="s">
-        <v>165</v>
+        <v>371</v>
       </c>
       <c r="I120" s="1" t="str">
         <f t="shared" si="228"/>
@@ -10025,10 +10090,10 @@
       </c>
       <c r="T120" s="3" t="str">
         <f t="shared" si="245"/>
-        <v>&lt;value120&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483781&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro119&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;International3&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value120&gt;</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+        <v>&lt;value120&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483781&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro119&lt;/name&gt; &lt;id&gt;{76d7acb9-40f4-436d-0398-d2e1e66f2db9}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;International3&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value120&gt;</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="str">
         <f t="shared" si="224"/>
         <v>&lt;value</v>
@@ -10056,7 +10121,7 @@
         <v>47</v>
       </c>
       <c r="H121" t="s">
-        <v>165</v>
+        <v>372</v>
       </c>
       <c r="I121" s="1" t="str">
         <f t="shared" si="228"/>
@@ -10090,10 +10155,10 @@
       </c>
       <c r="T121" s="3" t="str">
         <f t="shared" si="245"/>
-        <v>&lt;value121&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483782&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro120&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;LeftAlt&lt;/value2&gt; &lt;value3&gt;International3&lt;/value3&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value121&gt;</v>
-      </c>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+        <v>&lt;value121&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483782&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro120&lt;/name&gt; &lt;id&gt;{8f355f1d-9301-718d-18d7-ca87c6141150}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;LeftAlt&lt;/value2&gt; &lt;value3&gt;International3&lt;/value3&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value121&gt;</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="str">
         <f t="shared" si="224"/>
         <v>&lt;value</v>
@@ -10121,7 +10186,7 @@
         <v>47</v>
       </c>
       <c r="H122" t="s">
-        <v>165</v>
+        <v>373</v>
       </c>
       <c r="I122" s="1" t="str">
         <f t="shared" si="228"/>
@@ -10155,10 +10220,10 @@
       </c>
       <c r="T122" s="3" t="str">
         <f t="shared" si="245"/>
-        <v>&lt;value122&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483783&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro121&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;International4&lt;/value0&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value122&gt;</v>
-      </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+        <v>&lt;value122&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483783&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro121&lt;/name&gt; &lt;id&gt;{639fd693-2df5-3448-8ce7-ada643917c61}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;International4&lt;/value0&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value122&gt;</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="str">
         <f t="shared" si="224"/>
         <v>&lt;value</v>
@@ -10186,7 +10251,7 @@
         <v>47</v>
       </c>
       <c r="H123" t="s">
-        <v>165</v>
+        <v>374</v>
       </c>
       <c r="I123" s="1" t="str">
         <f t="shared" si="228"/>
@@ -10220,10 +10285,10 @@
       </c>
       <c r="T123" s="3" t="str">
         <f t="shared" si="245"/>
-        <v>&lt;value123&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483784&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro122&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;International4&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value123&gt;</v>
-      </c>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+        <v>&lt;value123&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483784&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro122&lt;/name&gt; &lt;id&gt;{535aad89-0143-2226-075d-d477747e414e}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;International4&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value123&gt;</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="str">
         <f t="shared" si="224"/>
         <v>&lt;value</v>
@@ -10251,7 +10316,7 @@
         <v>47</v>
       </c>
       <c r="H124" t="s">
-        <v>165</v>
+        <v>375</v>
       </c>
       <c r="I124" s="1" t="str">
         <f t="shared" si="228"/>
@@ -10285,10 +10350,10 @@
       </c>
       <c r="T124" s="3" t="str">
         <f t="shared" si="245"/>
-        <v>&lt;value124&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483785&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro123&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftAlt&lt;/value0&gt; &lt;value1&gt;International4&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value124&gt;</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+        <v>&lt;value124&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483785&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro123&lt;/name&gt; &lt;id&gt;{5ec83573-76c3-214c-0521-8c6fb96e4000}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftAlt&lt;/value0&gt; &lt;value1&gt;International4&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value124&gt;</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="str">
         <f t="shared" si="224"/>
         <v>&lt;value</v>
@@ -10316,7 +10381,7 @@
         <v>47</v>
       </c>
       <c r="H125" t="s">
-        <v>165</v>
+        <v>376</v>
       </c>
       <c r="I125" s="1" t="str">
         <f t="shared" si="228"/>
@@ -10350,10 +10415,10 @@
       </c>
       <c r="T125" s="3" t="str">
         <f t="shared" si="245"/>
-        <v>&lt;value125&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483786&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro124&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;International4&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value125&gt;</v>
-      </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+        <v>&lt;value125&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483786&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro124&lt;/name&gt; &lt;id&gt;{4ce4b2db-3f19-77e1-445d-1c8c5bce6706}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;International4&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value125&gt;</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="str">
         <f t="shared" si="224"/>
         <v>&lt;value</v>
@@ -10381,7 +10446,7 @@
         <v>47</v>
       </c>
       <c r="H126" t="s">
-        <v>165</v>
+        <v>377</v>
       </c>
       <c r="I126" s="1" t="str">
         <f t="shared" si="228"/>
@@ -10415,10 +10480,10 @@
       </c>
       <c r="T126" s="3" t="str">
         <f t="shared" si="245"/>
-        <v>&lt;value126&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483787&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro125&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;International4&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value126&gt;</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+        <v>&lt;value126&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483787&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro125&lt;/name&gt; &lt;id&gt;{3074ee79-5362-2603-04f3-23d85152191d}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;International4&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value126&gt;</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="str">
         <f t="shared" si="224"/>
         <v>&lt;value</v>
@@ -10446,7 +10511,7 @@
         <v>47</v>
       </c>
       <c r="H127" t="s">
-        <v>165</v>
+        <v>378</v>
       </c>
       <c r="I127" s="1" t="str">
         <f t="shared" si="228"/>
@@ -10480,10 +10545,10 @@
       </c>
       <c r="T127" s="3" t="str">
         <f t="shared" si="245"/>
-        <v>&lt;value127&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483788&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro126&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;International4&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value127&gt;</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+        <v>&lt;value127&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483788&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro126&lt;/name&gt; &lt;id&gt;{ec5d869e-2d65-47d9-806d-515315785ef9}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;International4&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value127&gt;</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="str">
         <f t="shared" si="224"/>
         <v>&lt;value</v>
@@ -10511,7 +10576,7 @@
         <v>47</v>
       </c>
       <c r="H128" t="s">
-        <v>165</v>
+        <v>379</v>
       </c>
       <c r="I128" s="1" t="str">
         <f t="shared" si="228"/>
@@ -10545,10 +10610,10 @@
       </c>
       <c r="T128" s="3" t="str">
         <f t="shared" si="245"/>
-        <v>&lt;value128&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483789&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro127&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;International4&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value128&gt;</v>
-      </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+        <v>&lt;value128&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483789&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro127&lt;/name&gt; &lt;id&gt;{8930ad24-6f28-77f9-2774-fed6ff902217}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;International4&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value128&gt;</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="str">
         <f t="shared" si="224"/>
         <v>&lt;value</v>
@@ -10576,7 +10641,7 @@
         <v>47</v>
       </c>
       <c r="H129" t="s">
-        <v>165</v>
+        <v>380</v>
       </c>
       <c r="I129" s="1" t="str">
         <f t="shared" si="228"/>
@@ -10610,46 +10675,34 @@
       </c>
       <c r="T129" s="3" t="str">
         <f t="shared" si="245"/>
-        <v>&lt;value129&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483790&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro128&lt;/name&gt; &lt;id&gt;{a0028502-9c88-9e1f-1be0-4e8897b789d4}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;LeftAlt&lt;/value2&gt; &lt;value3&gt;International4&lt;/value3&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value129&gt;</v>
-      </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+        <v>&lt;value129&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483790&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro128&lt;/name&gt; &lt;id&gt;{fdc5c041-6ee3-8ab9-5b08-a0020af00906}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;LeftAlt&lt;/value2&gt; &lt;value3&gt;International4&lt;/value3&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value129&gt;</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
-      <c r="K130" s="1"/>
       <c r="L130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
-      <c r="K131" s="1"/>
       <c r="L131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
-      <c r="K132" s="1"/>
       <c r="L132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
-      <c r="K133" s="1"/>
       <c r="L133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
       <c r="I134" s="1"/>
@@ -10658,7 +10711,7 @@
       <c r="L134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="C135" s="1"/>
       <c r="I135" s="1"/>
@@ -10667,7 +10720,7 @@
       <c r="L135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="C136" s="1"/>
       <c r="I136" s="1"/>
@@ -10676,7 +10729,7 @@
       <c r="L136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="C137" s="1"/>
       <c r="I137" s="1"/>
@@ -10685,7 +10738,7 @@
       <c r="L137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="C138" s="1"/>
       <c r="I138" s="1"/>
@@ -10694,7 +10747,7 @@
       <c r="L138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="C139" s="1"/>
       <c r="I139" s="1"/>
@@ -10703,7 +10756,7 @@
       <c r="L139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="C140" s="1"/>
       <c r="I140" s="1"/>
@@ -10712,7 +10765,7 @@
       <c r="L140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="C141" s="1"/>
       <c r="I141" s="1"/>
@@ -10721,7 +10774,7 @@
       <c r="L141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="C142" s="1"/>
       <c r="I142" s="1"/>
@@ -10730,7 +10783,7 @@
       <c r="L142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="C143" s="1"/>
       <c r="I143" s="1"/>
@@ -10739,7 +10792,7 @@
       <c r="L143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="C144" s="1"/>
       <c r="I144" s="1"/>
@@ -10756,22 +10809,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E279DDDB-1CE1-4893-A52C-DF2DBA95B302}">
-  <dimension ref="A1:V113"/>
+  <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="K131" sqref="K130:K131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -10779,7 +10832,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -10790,20 +10843,23 @@
       <c r="F1" t="s">
         <v>23</v>
       </c>
+      <c r="G1" t="s">
+        <v>381</v>
+      </c>
       <c r="I1" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="O1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10812,7 +10868,7 @@
         <v>F1</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D2" t="str">
         <f>_xlfn.CONCAT("F", 13 + QUOTIENT(A2-1,8))</f>
@@ -10822,34 +10878,37 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>280</v>
+        <v>267</v>
+      </c>
+      <c r="G2">
+        <v>114</v>
       </c>
       <c r="J2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K2">
         <f>A2</f>
         <v>1</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M2" t="str">
         <f>B2</f>
         <v>F1</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="O2" t="str">
         <f>D2</f>
         <v>F13</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S2" t="str">
         <f>_xlfn.CONCAT(J2:Q2)</f>
@@ -10860,10 +10919,10 @@
 </v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -10872,7 +10931,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D10" si="0">_xlfn.CONCAT("F", 13 + QUOTIENT(A3-1,8))</f>
@@ -10882,31 +10941,31 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="J3" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K9" si="1">A3</f>
         <v>2</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" ref="M3:M9" si="2">B3</f>
         <v>F2</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O10" si="3">D3</f>
         <v>F13</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q3" s="9" t="str">
         <f>Q2</f>
@@ -11375,7 +11434,7 @@
 </v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A10" si="5">A3+1</f>
         <v>3</v>
@@ -11384,7 +11443,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -11394,34 +11453,34 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="J4" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="2"/>
         <v>F3</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" si="3"/>
         <v>F13</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S4" t="str">
         <f t="shared" si="4"/>
@@ -11432,7 +11491,7 @@
 </v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -11441,7 +11500,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -11451,34 +11510,34 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="J5" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="2"/>
         <v>F4</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="3"/>
         <v>F13</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S5" t="str">
         <f t="shared" si="4"/>
@@ -11489,7 +11548,7 @@
 </v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -11498,7 +11557,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -11508,34 +11567,34 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="J6" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="2"/>
         <v>F5</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="O6" t="str">
         <f t="shared" si="3"/>
         <v>F13</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S6" t="str">
         <f t="shared" si="4"/>
@@ -11546,7 +11605,7 @@
 </v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -11555,7 +11614,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -11565,34 +11624,34 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="J7" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="2"/>
         <v>F6</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="3"/>
         <v>F13</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S7" t="str">
         <f t="shared" si="4"/>
@@ -11603,7 +11662,7 @@
 </v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -11612,7 +11671,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -11622,34 +11681,34 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="J8" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="2"/>
         <v>F7</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="O8" t="str">
         <f t="shared" si="3"/>
         <v>F13</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S8" t="str">
         <f t="shared" si="4"/>
@@ -11660,7 +11719,7 @@
 </v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -11669,7 +11728,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -11679,34 +11738,34 @@
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="J9" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="2"/>
         <v>F8</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="O9" t="str">
         <f t="shared" si="3"/>
         <v>F13</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S9" t="str">
         <f t="shared" si="4"/>
@@ -11717,16 +11776,16 @@
 </v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -11736,15 +11795,19 @@
         <f>E2</f>
         <v>None</v>
       </c>
+      <c r="G10">
+        <f>G2+1</f>
+        <v>115</v>
+      </c>
       <c r="J10" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K10">
         <f t="shared" ref="K10" si="6">A10</f>
         <v>9</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" ref="M10" si="7">B10</f>
@@ -11760,10 +11823,10 @@
         <v>F14</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S10" t="str">
         <f t="shared" si="4"/>
@@ -11774,16 +11837,16 @@
 </v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ref="A11:A74" si="8">A10+1</f>
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" ref="D11:D74" si="9">_xlfn.CONCAT("F", 13 + QUOTIENT(A11-1,8))</f>
@@ -11794,14 +11857,14 @@
         <v>Ctrl</v>
       </c>
       <c r="J11" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K11">
         <f t="shared" ref="K11:K74" si="11">A11</f>
         <v>10</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" ref="M11:M74" si="12">B11</f>
@@ -11817,10 +11880,10 @@
         <v>F14</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S11" t="str">
         <f t="shared" si="4"/>
@@ -11831,16 +11894,16 @@
 </v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="9"/>
@@ -11851,14 +11914,14 @@
         <v>Alt</v>
       </c>
       <c r="J12" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K12">
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="12"/>
@@ -11874,10 +11937,10 @@
         <v>F14</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S12" t="str">
         <f t="shared" si="4"/>
@@ -11888,16 +11951,16 @@
 </v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C13" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="9"/>
@@ -11908,14 +11971,14 @@
         <v>Ctrl + Alt</v>
       </c>
       <c r="J13" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K13">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="12"/>
@@ -11931,10 +11994,10 @@
         <v>F14</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S13" t="str">
         <f t="shared" si="4"/>
@@ -11945,16 +12008,16 @@
 </v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="9"/>
@@ -11965,14 +12028,14 @@
         <v>Shift</v>
       </c>
       <c r="J14" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K14">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="12"/>
@@ -11988,10 +12051,10 @@
         <v>F14</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S14" t="str">
         <f t="shared" si="4"/>
@@ -12002,7 +12065,7 @@
 </v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="8"/>
         <v>14</v>
@@ -12011,7 +12074,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="9"/>
@@ -12022,14 +12085,14 @@
         <v>Ctrl + Shift</v>
       </c>
       <c r="J15" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K15">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M15">
         <f t="shared" si="12"/>
@@ -12045,10 +12108,10 @@
         <v>F14</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S15" t="str">
         <f t="shared" si="4"/>
@@ -12059,7 +12122,7 @@
 </v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="8"/>
         <v>15</v>
@@ -12068,7 +12131,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="9"/>
@@ -12079,14 +12142,14 @@
         <v>Alt + Shift</v>
       </c>
       <c r="J16" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K16">
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M16">
         <f t="shared" si="12"/>
@@ -12102,10 +12165,10 @@
         <v>F14</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S16" t="str">
         <f t="shared" si="4"/>
@@ -12116,7 +12179,7 @@
 </v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="8"/>
         <v>16</v>
@@ -12125,7 +12188,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="9"/>
@@ -12136,14 +12199,14 @@
         <v>Ctrl + Alt + Shift</v>
       </c>
       <c r="J17" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K17">
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M17">
         <f t="shared" si="12"/>
@@ -12159,10 +12222,10 @@
         <v>F14</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S17" t="str">
         <f t="shared" si="4"/>
@@ -12173,7 +12236,7 @@
 </v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="8"/>
         <v>17</v>
@@ -12182,7 +12245,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="9"/>
@@ -12192,15 +12255,19 @@
         <f t="shared" si="10"/>
         <v>None</v>
       </c>
+      <c r="G18">
+        <f>G10+1</f>
+        <v>116</v>
+      </c>
       <c r="J18" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K18">
         <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M18">
         <f t="shared" si="12"/>
@@ -12216,10 +12283,10 @@
         <v>F15</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S18" t="str">
         <f t="shared" si="4"/>
@@ -12230,7 +12297,7 @@
 </v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="8"/>
         <v>18</v>
@@ -12239,7 +12306,7 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="9"/>
@@ -12250,14 +12317,14 @@
         <v>Ctrl</v>
       </c>
       <c r="J19" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K19">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M19">
         <f t="shared" si="12"/>
@@ -12273,10 +12340,10 @@
         <v>F15</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S19" t="str">
         <f t="shared" si="4"/>
@@ -12287,7 +12354,7 @@
 </v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="8"/>
         <v>19</v>
@@ -12296,7 +12363,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="9"/>
@@ -12307,14 +12374,14 @@
         <v>Alt</v>
       </c>
       <c r="J20" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K20">
         <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M20">
         <f t="shared" si="12"/>
@@ -12330,10 +12397,10 @@
         <v>F15</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S20" t="str">
         <f t="shared" si="4"/>
@@ -12344,7 +12411,7 @@
 </v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="8"/>
         <v>20</v>
@@ -12353,7 +12420,7 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="9"/>
@@ -12364,14 +12431,14 @@
         <v>Ctrl + Alt</v>
       </c>
       <c r="J21" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K21">
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M21">
         <f t="shared" si="12"/>
@@ -12387,10 +12454,10 @@
         <v>F15</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S21" t="str">
         <f t="shared" si="4"/>
@@ -12401,7 +12468,7 @@
 </v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="8"/>
         <v>21</v>
@@ -12410,7 +12477,7 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="9"/>
@@ -12421,14 +12488,14 @@
         <v>Shift</v>
       </c>
       <c r="J22" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K22">
         <f t="shared" si="11"/>
         <v>21</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M22">
         <f t="shared" si="12"/>
@@ -12444,10 +12511,10 @@
         <v>F15</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S22" t="str">
         <f t="shared" si="4"/>
@@ -12458,7 +12525,7 @@
 </v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="8"/>
         <v>22</v>
@@ -12467,7 +12534,7 @@
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="9"/>
@@ -12478,14 +12545,14 @@
         <v>Ctrl + Shift</v>
       </c>
       <c r="J23" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K23">
         <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M23">
         <f t="shared" si="12"/>
@@ -12501,10 +12568,10 @@
         <v>F15</v>
       </c>
       <c r="P23" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S23" t="str">
         <f t="shared" si="4"/>
@@ -12515,7 +12582,7 @@
 </v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="8"/>
         <v>23</v>
@@ -12524,7 +12591,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="9"/>
@@ -12535,14 +12602,14 @@
         <v>Alt + Shift</v>
       </c>
       <c r="J24" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K24">
         <f t="shared" si="11"/>
         <v>23</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M24">
         <f t="shared" si="12"/>
@@ -12558,10 +12625,10 @@
         <v>F15</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S24" t="str">
         <f t="shared" si="4"/>
@@ -12572,16 +12639,16 @@
 </v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C25" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="9"/>
@@ -12592,14 +12659,14 @@
         <v>Ctrl + Alt + Shift</v>
       </c>
       <c r="J25" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K25">
         <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" si="12"/>
@@ -12615,10 +12682,10 @@
         <v>F15</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S25" t="str">
         <f t="shared" si="4"/>
@@ -12629,16 +12696,16 @@
 </v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="C26" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="9"/>
@@ -12648,15 +12715,19 @@
         <f t="shared" si="10"/>
         <v>None</v>
       </c>
+      <c r="G26">
+        <f>G18+1</f>
+        <v>117</v>
+      </c>
       <c r="J26" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K26">
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" si="12"/>
@@ -12672,10 +12743,10 @@
         <v>F16</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S26" t="str">
         <f t="shared" si="4"/>
@@ -12686,16 +12757,16 @@
 </v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C27" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="9"/>
@@ -12706,14 +12777,14 @@
         <v>Ctrl</v>
       </c>
       <c r="J27" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K27">
         <f t="shared" si="11"/>
         <v>26</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="12"/>
@@ -12729,10 +12800,10 @@
         <v>F16</v>
       </c>
       <c r="P27" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S27" t="str">
         <f t="shared" si="4"/>
@@ -12743,16 +12814,16 @@
 </v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C28" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="9"/>
@@ -12763,14 +12834,14 @@
         <v>Alt</v>
       </c>
       <c r="J28" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K28">
         <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="12"/>
@@ -12786,10 +12857,10 @@
         <v>F16</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S28" t="str">
         <f t="shared" si="4"/>
@@ -12800,16 +12871,16 @@
 </v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C29" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="9"/>
@@ -12820,14 +12891,14 @@
         <v>Ctrl + Alt</v>
       </c>
       <c r="J29" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K29">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M29" t="str">
         <f t="shared" si="12"/>
@@ -12843,10 +12914,10 @@
         <v>F16</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S29" t="str">
         <f t="shared" si="4"/>
@@ -12857,16 +12928,16 @@
 </v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C30" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="9"/>
@@ -12877,14 +12948,14 @@
         <v>Shift</v>
       </c>
       <c r="J30" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K30">
         <f t="shared" si="11"/>
         <v>29</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M30" t="str">
         <f t="shared" si="12"/>
@@ -12900,10 +12971,10 @@
         <v>F16</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S30" t="str">
         <f t="shared" si="4"/>
@@ -12914,16 +12985,16 @@
 </v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C31" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="9"/>
@@ -12934,14 +13005,14 @@
         <v>Ctrl + Shift</v>
       </c>
       <c r="J31" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K31">
         <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M31" t="str">
         <f t="shared" si="12"/>
@@ -12957,10 +13028,10 @@
         <v>F16</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S31" t="str">
         <f t="shared" si="4"/>
@@ -12971,16 +13042,16 @@
 </v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C32" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="9"/>
@@ -12991,14 +13062,14 @@
         <v>Alt + Shift</v>
       </c>
       <c r="J32" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K32">
         <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M32" t="str">
         <f t="shared" si="12"/>
@@ -13014,10 +13085,10 @@
         <v>F16</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S32" t="str">
         <f t="shared" si="4"/>
@@ -13028,16 +13099,16 @@
 </v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C33" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="9"/>
@@ -13048,14 +13119,14 @@
         <v>Ctrl + Alt + Shift</v>
       </c>
       <c r="J33" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K33">
         <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M33" t="str">
         <f t="shared" si="12"/>
@@ -13071,10 +13142,10 @@
         <v>F16</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S33" t="str">
         <f t="shared" si="4"/>
@@ -13085,16 +13156,16 @@
 </v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="9"/>
@@ -13104,15 +13175,19 @@
         <f t="shared" si="10"/>
         <v>None</v>
       </c>
+      <c r="G34">
+        <f>G26+1</f>
+        <v>118</v>
+      </c>
       <c r="J34" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K34">
         <f t="shared" si="11"/>
         <v>33</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M34" t="str">
         <f t="shared" si="12"/>
@@ -13128,10 +13203,10 @@
         <v>F17</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S34" t="str">
         <f t="shared" si="4"/>
@@ -13142,16 +13217,16 @@
 </v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="9"/>
@@ -13162,14 +13237,14 @@
         <v>Ctrl</v>
       </c>
       <c r="J35" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K35">
         <f t="shared" si="11"/>
         <v>34</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M35" t="str">
         <f t="shared" si="12"/>
@@ -13185,10 +13260,10 @@
         <v>F17</v>
       </c>
       <c r="P35" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S35" t="str">
         <f t="shared" si="4"/>
@@ -13199,16 +13274,16 @@
 </v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="9"/>
@@ -13219,14 +13294,14 @@
         <v>Alt</v>
       </c>
       <c r="J36" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K36">
         <f t="shared" si="11"/>
         <v>35</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M36" t="str">
         <f t="shared" si="12"/>
@@ -13242,10 +13317,10 @@
         <v>F17</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S36" t="str">
         <f t="shared" si="4"/>
@@ -13256,16 +13331,16 @@
 </v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C37" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="9"/>
@@ -13276,14 +13351,14 @@
         <v>Ctrl + Alt</v>
       </c>
       <c r="J37" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K37">
         <f t="shared" si="11"/>
         <v>36</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M37" t="str">
         <f t="shared" si="12"/>
@@ -13299,10 +13374,10 @@
         <v>F17</v>
       </c>
       <c r="P37" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S37" t="str">
         <f t="shared" si="4"/>
@@ -13313,16 +13388,16 @@
 </v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C38" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="9"/>
@@ -13333,14 +13408,14 @@
         <v>Shift</v>
       </c>
       <c r="J38" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K38">
         <f t="shared" si="11"/>
         <v>37</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M38" t="str">
         <f t="shared" si="12"/>
@@ -13356,10 +13431,10 @@
         <v>F17</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S38" t="str">
         <f t="shared" si="4"/>
@@ -13370,16 +13445,16 @@
 </v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="8"/>
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C39" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="9"/>
@@ -13390,14 +13465,14 @@
         <v>Ctrl + Shift</v>
       </c>
       <c r="J39" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K39">
         <f t="shared" si="11"/>
         <v>38</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M39" t="str">
         <f t="shared" si="12"/>
@@ -13413,10 +13488,10 @@
         <v>F17</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S39" t="str">
         <f t="shared" si="4"/>
@@ -13427,16 +13502,16 @@
 </v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C40" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="9"/>
@@ -13447,14 +13522,14 @@
         <v>Alt + Shift</v>
       </c>
       <c r="J40" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K40">
         <f t="shared" si="11"/>
         <v>39</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M40" t="str">
         <f t="shared" si="12"/>
@@ -13470,10 +13545,10 @@
         <v>F17</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q40" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S40" t="str">
         <f t="shared" si="4"/>
@@ -13484,16 +13559,16 @@
 </v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C41" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="9"/>
@@ -13504,14 +13579,14 @@
         <v>Ctrl + Alt + Shift</v>
       </c>
       <c r="J41" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K41">
         <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M41" t="str">
         <f t="shared" si="12"/>
@@ -13527,10 +13602,10 @@
         <v>F17</v>
       </c>
       <c r="P41" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S41" t="str">
         <f t="shared" si="4"/>
@@ -13541,16 +13616,16 @@
 </v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="8"/>
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="9"/>
@@ -13560,15 +13635,19 @@
         <f t="shared" si="10"/>
         <v>None</v>
       </c>
+      <c r="G42">
+        <f>G34+1</f>
+        <v>119</v>
+      </c>
       <c r="J42" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K42">
         <f t="shared" si="11"/>
         <v>41</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M42" t="str">
         <f t="shared" si="12"/>
@@ -13584,10 +13663,10 @@
         <v>F18</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q42" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S42" t="str">
         <f t="shared" si="4"/>
@@ -13598,16 +13677,16 @@
 </v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="C43" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="9"/>
@@ -13618,14 +13697,14 @@
         <v>Ctrl</v>
       </c>
       <c r="J43" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K43">
         <f t="shared" si="11"/>
         <v>42</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M43" t="str">
         <f t="shared" si="12"/>
@@ -13641,10 +13720,10 @@
         <v>F18</v>
       </c>
       <c r="P43" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S43" t="str">
         <f t="shared" si="4"/>
@@ -13655,16 +13734,16 @@
 </v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="8"/>
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="9"/>
@@ -13675,14 +13754,14 @@
         <v>Alt</v>
       </c>
       <c r="J44" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K44">
         <f t="shared" si="11"/>
         <v>43</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M44" t="str">
         <f t="shared" si="12"/>
@@ -13698,10 +13777,10 @@
         <v>F18</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q44" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S44" t="str">
         <f t="shared" si="4"/>
@@ -13712,16 +13791,16 @@
 </v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="8"/>
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C45" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="9"/>
@@ -13732,14 +13811,14 @@
         <v>Ctrl + Alt</v>
       </c>
       <c r="J45" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K45">
         <f t="shared" si="11"/>
         <v>44</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M45" t="str">
         <f t="shared" si="12"/>
@@ -13755,10 +13834,10 @@
         <v>F18</v>
       </c>
       <c r="P45" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S45" t="str">
         <f t="shared" si="4"/>
@@ -13769,16 +13848,16 @@
 </v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C46" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="9"/>
@@ -13789,14 +13868,14 @@
         <v>Shift</v>
       </c>
       <c r="J46" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K46">
         <f t="shared" si="11"/>
         <v>45</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M46" t="str">
         <f t="shared" si="12"/>
@@ -13812,10 +13891,10 @@
         <v>F18</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S46" t="str">
         <f t="shared" si="4"/>
@@ -13826,16 +13905,16 @@
 </v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="8"/>
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C47" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="9"/>
@@ -13846,14 +13925,14 @@
         <v>Ctrl + Shift</v>
       </c>
       <c r="J47" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K47">
         <f t="shared" si="11"/>
         <v>46</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M47" t="str">
         <f t="shared" si="12"/>
@@ -13869,10 +13948,10 @@
         <v>F18</v>
       </c>
       <c r="P47" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S47" t="str">
         <f t="shared" si="4"/>
@@ -13883,16 +13962,16 @@
 </v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="8"/>
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C48" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="9"/>
@@ -13903,14 +13982,14 @@
         <v>Alt + Shift</v>
       </c>
       <c r="J48" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K48">
         <f t="shared" si="11"/>
         <v>47</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M48" t="str">
         <f t="shared" si="12"/>
@@ -13926,10 +14005,10 @@
         <v>F18</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q48" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S48" t="str">
         <f t="shared" si="4"/>
@@ -13940,16 +14019,16 @@
 </v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C49" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="9"/>
@@ -13960,14 +14039,14 @@
         <v>Ctrl + Alt + Shift</v>
       </c>
       <c r="J49" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K49">
         <f t="shared" si="11"/>
         <v>48</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M49" t="str">
         <f t="shared" si="12"/>
@@ -13983,10 +14062,10 @@
         <v>F18</v>
       </c>
       <c r="P49" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S49" t="str">
         <f t="shared" si="4"/>
@@ -13997,16 +14076,16 @@
 </v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="8"/>
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C50" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="9"/>
@@ -14016,15 +14095,19 @@
         <f t="shared" si="10"/>
         <v>None</v>
       </c>
+      <c r="G50">
+        <f>G42+1</f>
+        <v>120</v>
+      </c>
       <c r="J50" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K50">
         <f t="shared" si="11"/>
         <v>49</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M50" t="str">
         <f t="shared" si="12"/>
@@ -14040,10 +14123,10 @@
         <v>F19</v>
       </c>
       <c r="P50" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q50" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S50" t="str">
         <f t="shared" si="4"/>
@@ -14054,16 +14137,16 @@
 </v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C51" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="9"/>
@@ -14074,14 +14157,14 @@
         <v>Ctrl</v>
       </c>
       <c r="J51" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K51">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M51" t="str">
         <f t="shared" si="12"/>
@@ -14097,10 +14180,10 @@
         <v>F19</v>
       </c>
       <c r="P51" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q51" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S51" t="str">
         <f t="shared" si="4"/>
@@ -14111,16 +14194,16 @@
 </v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="8"/>
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C52" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="9"/>
@@ -14131,14 +14214,14 @@
         <v>Alt</v>
       </c>
       <c r="J52" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K52">
         <f t="shared" si="11"/>
         <v>51</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M52" t="str">
         <f t="shared" si="12"/>
@@ -14154,10 +14237,10 @@
         <v>F19</v>
       </c>
       <c r="P52" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q52" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S52" t="str">
         <f t="shared" si="4"/>
@@ -14168,16 +14251,16 @@
 </v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="8"/>
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="9"/>
@@ -14188,14 +14271,14 @@
         <v>Ctrl + Alt</v>
       </c>
       <c r="J53" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K53">
         <f t="shared" si="11"/>
         <v>52</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M53" t="str">
         <f t="shared" si="12"/>
@@ -14211,10 +14294,10 @@
         <v>F19</v>
       </c>
       <c r="P53" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q53" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S53" t="str">
         <f t="shared" si="4"/>
@@ -14225,16 +14308,16 @@
 </v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="8"/>
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C54" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="9"/>
@@ -14245,14 +14328,14 @@
         <v>Shift</v>
       </c>
       <c r="J54" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K54">
         <f t="shared" si="11"/>
         <v>53</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M54" t="str">
         <f t="shared" si="12"/>
@@ -14268,10 +14351,10 @@
         <v>F19</v>
       </c>
       <c r="P54" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q54" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S54" t="str">
         <f t="shared" si="4"/>
@@ -14282,16 +14365,16 @@
 </v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C55" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="9"/>
@@ -14302,14 +14385,14 @@
         <v>Ctrl + Shift</v>
       </c>
       <c r="J55" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K55">
         <f t="shared" si="11"/>
         <v>54</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M55" t="str">
         <f t="shared" si="12"/>
@@ -14325,10 +14408,10 @@
         <v>F19</v>
       </c>
       <c r="P55" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q55" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S55" t="str">
         <f t="shared" si="4"/>
@@ -14339,16 +14422,16 @@
 </v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="8"/>
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C56" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="9"/>
@@ -14359,14 +14442,14 @@
         <v>Alt + Shift</v>
       </c>
       <c r="J56" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K56">
         <f t="shared" si="11"/>
         <v>55</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M56" t="str">
         <f t="shared" si="12"/>
@@ -14382,10 +14465,10 @@
         <v>F19</v>
       </c>
       <c r="P56" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q56" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S56" t="str">
         <f t="shared" si="4"/>
@@ -14396,16 +14479,16 @@
 </v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C57" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="9"/>
@@ -14416,14 +14499,14 @@
         <v>Ctrl + Alt + Shift</v>
       </c>
       <c r="J57" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K57">
         <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M57" t="str">
         <f t="shared" si="12"/>
@@ -14439,10 +14522,10 @@
         <v>F19</v>
       </c>
       <c r="P57" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q57" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S57" t="str">
         <f t="shared" si="4"/>
@@ -14453,16 +14536,16 @@
 </v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="8"/>
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C58" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="9"/>
@@ -14472,15 +14555,18 @@
         <f t="shared" si="10"/>
         <v>None</v>
       </c>
+      <c r="G58">
+        <v>122</v>
+      </c>
       <c r="J58" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K58">
         <f t="shared" si="11"/>
         <v>57</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M58" t="str">
         <f t="shared" si="12"/>
@@ -14496,10 +14582,10 @@
         <v>F20</v>
       </c>
       <c r="P58" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q58" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S58" t="str">
         <f t="shared" si="4"/>
@@ -14510,16 +14596,16 @@
 </v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="8"/>
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C59" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="9"/>
@@ -14530,14 +14616,14 @@
         <v>Ctrl</v>
       </c>
       <c r="J59" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K59">
         <f t="shared" si="11"/>
         <v>58</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M59" t="str">
         <f t="shared" si="12"/>
@@ -14553,10 +14639,10 @@
         <v>F20</v>
       </c>
       <c r="P59" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q59" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S59" t="str">
         <f t="shared" si="4"/>
@@ -14567,16 +14653,16 @@
 </v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="8"/>
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="C60" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="9"/>
@@ -14587,14 +14673,14 @@
         <v>Alt</v>
       </c>
       <c r="J60" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K60">
         <f t="shared" si="11"/>
         <v>59</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M60" t="str">
         <f t="shared" si="12"/>
@@ -14610,10 +14696,10 @@
         <v>F20</v>
       </c>
       <c r="P60" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q60" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S60" t="str">
         <f t="shared" si="4"/>
@@ -14624,16 +14710,16 @@
 </v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C61" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="9"/>
@@ -14644,14 +14730,14 @@
         <v>Ctrl + Alt</v>
       </c>
       <c r="J61" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K61">
         <f t="shared" si="11"/>
         <v>60</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M61" t="str">
         <f t="shared" si="12"/>
@@ -14667,10 +14753,10 @@
         <v>F20</v>
       </c>
       <c r="P61" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q61" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S61" t="str">
         <f t="shared" si="4"/>
@@ -14681,16 +14767,16 @@
 </v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="8"/>
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="C62" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="9"/>
@@ -14701,14 +14787,14 @@
         <v>Shift</v>
       </c>
       <c r="J62" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K62">
         <f t="shared" si="11"/>
         <v>61</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M62" t="str">
         <f t="shared" si="12"/>
@@ -14724,10 +14810,10 @@
         <v>F20</v>
       </c>
       <c r="P62" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q62" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S62" t="str">
         <f t="shared" si="4"/>
@@ -14738,16 +14824,16 @@
 </v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="8"/>
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C63" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="9"/>
@@ -14758,14 +14844,14 @@
         <v>Ctrl + Shift</v>
       </c>
       <c r="J63" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K63">
         <f t="shared" si="11"/>
         <v>62</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M63" t="str">
         <f t="shared" si="12"/>
@@ -14781,10 +14867,10 @@
         <v>F20</v>
       </c>
       <c r="P63" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q63" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S63" t="str">
         <f t="shared" si="4"/>
@@ -14795,16 +14881,16 @@
 </v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="8"/>
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="C64" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="9"/>
@@ -14815,14 +14901,14 @@
         <v>Alt + Shift</v>
       </c>
       <c r="J64" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K64">
         <f t="shared" si="11"/>
         <v>63</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M64" t="str">
         <f t="shared" si="12"/>
@@ -14838,10 +14924,10 @@
         <v>F20</v>
       </c>
       <c r="P64" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q64" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S64" t="str">
         <f t="shared" si="4"/>
@@ -14852,16 +14938,16 @@
 </v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C65" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="9"/>
@@ -14872,14 +14958,14 @@
         <v>Ctrl + Alt + Shift</v>
       </c>
       <c r="J65" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K65">
         <f t="shared" si="11"/>
         <v>64</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M65" t="str">
         <f t="shared" si="12"/>
@@ -14895,10 +14981,10 @@
         <v>F20</v>
       </c>
       <c r="P65" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q65" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S65" t="str">
         <f t="shared" si="4"/>
@@ -14909,16 +14995,16 @@
 </v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="8"/>
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C66" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="9"/>
@@ -14928,15 +15014,19 @@
         <f t="shared" si="10"/>
         <v>None</v>
       </c>
+      <c r="G66">
+        <f>G58+1</f>
+        <v>123</v>
+      </c>
       <c r="J66" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K66">
         <f t="shared" si="11"/>
         <v>65</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M66" t="str">
         <f t="shared" si="12"/>
@@ -14952,10 +15042,10 @@
         <v>F21</v>
       </c>
       <c r="P66" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q66" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S66" t="str">
         <f t="shared" si="4"/>
@@ -14966,16 +15056,16 @@
 </v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C67" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="9"/>
@@ -14986,14 +15076,14 @@
         <v>Ctrl</v>
       </c>
       <c r="J67" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K67">
         <f t="shared" si="11"/>
         <v>66</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M67" t="str">
         <f t="shared" si="12"/>
@@ -15009,10 +15099,10 @@
         <v>F21</v>
       </c>
       <c r="P67" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q67" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S67" t="str">
         <f t="shared" ref="S67:S113" si="15">_xlfn.CONCAT(J67:Q67)</f>
@@ -15023,16 +15113,16 @@
 </v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="8"/>
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C68" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="9"/>
@@ -15043,14 +15133,14 @@
         <v>Alt</v>
       </c>
       <c r="J68" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K68">
         <f t="shared" si="11"/>
         <v>67</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M68" t="str">
         <f t="shared" si="12"/>
@@ -15066,10 +15156,10 @@
         <v>F21</v>
       </c>
       <c r="P68" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q68" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S68" t="str">
         <f t="shared" si="15"/>
@@ -15080,16 +15170,16 @@
 </v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="C69" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="9"/>
@@ -15100,14 +15190,14 @@
         <v>Ctrl + Alt</v>
       </c>
       <c r="J69" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K69">
         <f t="shared" si="11"/>
         <v>68</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M69" t="str">
         <f t="shared" si="12"/>
@@ -15123,10 +15213,10 @@
         <v>F21</v>
       </c>
       <c r="P69" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q69" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S69" t="str">
         <f t="shared" si="15"/>
@@ -15137,16 +15227,16 @@
 </v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="8"/>
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C70" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="9"/>
@@ -15157,14 +15247,14 @@
         <v>Shift</v>
       </c>
       <c r="J70" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K70">
         <f t="shared" si="11"/>
         <v>69</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M70" t="str">
         <f t="shared" si="12"/>
@@ -15180,10 +15270,10 @@
         <v>F21</v>
       </c>
       <c r="P70" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q70" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S70" t="str">
         <f t="shared" si="15"/>
@@ -15194,16 +15284,16 @@
 </v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C71" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="9"/>
@@ -15214,14 +15304,14 @@
         <v>Ctrl + Shift</v>
       </c>
       <c r="J71" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K71">
         <f t="shared" si="11"/>
         <v>70</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M71" t="str">
         <f t="shared" si="12"/>
@@ -15237,10 +15327,10 @@
         <v>F21</v>
       </c>
       <c r="P71" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q71" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S71" t="str">
         <f t="shared" si="15"/>
@@ -15251,16 +15341,16 @@
 </v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="8"/>
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C72" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="9"/>
@@ -15271,14 +15361,14 @@
         <v>Alt + Shift</v>
       </c>
       <c r="J72" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K72">
         <f t="shared" si="11"/>
         <v>71</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M72" t="str">
         <f t="shared" si="12"/>
@@ -15294,10 +15384,10 @@
         <v>F21</v>
       </c>
       <c r="P72" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q72" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S72" t="str">
         <f t="shared" si="15"/>
@@ -15308,16 +15398,16 @@
 </v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="8"/>
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C73" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="9"/>
@@ -15328,14 +15418,14 @@
         <v>Ctrl + Alt + Shift</v>
       </c>
       <c r="J73" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K73">
         <f t="shared" si="11"/>
         <v>72</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M73" t="str">
         <f t="shared" si="12"/>
@@ -15351,10 +15441,10 @@
         <v>F21</v>
       </c>
       <c r="P73" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q73" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S73" t="str">
         <f t="shared" si="15"/>
@@ -15365,16 +15455,16 @@
 </v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="8"/>
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C74" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="9"/>
@@ -15384,15 +15474,19 @@
         <f t="shared" si="10"/>
         <v>None</v>
       </c>
+      <c r="G74">
+        <f>G66+1</f>
+        <v>124</v>
+      </c>
       <c r="J74" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K74">
         <f t="shared" si="11"/>
         <v>73</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M74" t="str">
         <f t="shared" si="12"/>
@@ -15408,10 +15502,10 @@
         <v>F22</v>
       </c>
       <c r="P74" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q74" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S74" t="str">
         <f t="shared" si="15"/>
@@ -15422,34 +15516,34 @@
 </v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" ref="A75:A112" si="16">A74+1</f>
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C75" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" ref="D75:D97" si="17">_xlfn.CONCAT("F", 13 + QUOTIENT(A75-1,8))</f>
         <v>F22</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" ref="E75:E113" si="18">E67</f>
+        <f t="shared" ref="E75:E129" si="18">E67</f>
         <v>Ctrl</v>
       </c>
       <c r="J75" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K75">
         <f t="shared" ref="K75:K113" si="19">A75</f>
         <v>74</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M75" t="str">
         <f t="shared" ref="M75:M113" si="20">B75</f>
@@ -15465,10 +15559,10 @@
         <v>F22</v>
       </c>
       <c r="P75" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S75" t="str">
         <f t="shared" si="15"/>
@@ -15479,16 +15573,16 @@
 </v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="16"/>
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="C76" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="17"/>
@@ -15499,14 +15593,14 @@
         <v>Alt</v>
       </c>
       <c r="J76" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K76">
         <f t="shared" si="19"/>
         <v>75</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M76" t="str">
         <f t="shared" si="20"/>
@@ -15522,10 +15616,10 @@
         <v>F22</v>
       </c>
       <c r="P76" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q76" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S76" t="str">
         <f t="shared" si="15"/>
@@ -15536,16 +15630,16 @@
 </v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="16"/>
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C77" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="17"/>
@@ -15556,14 +15650,14 @@
         <v>Ctrl + Alt</v>
       </c>
       <c r="J77" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K77">
         <f t="shared" si="19"/>
         <v>76</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M77" t="str">
         <f t="shared" si="20"/>
@@ -15579,10 +15673,10 @@
         <v>F22</v>
       </c>
       <c r="P77" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q77" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S77" t="str">
         <f t="shared" si="15"/>
@@ -15593,16 +15687,16 @@
 </v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="16"/>
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C78" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="17"/>
@@ -15613,14 +15707,14 @@
         <v>Shift</v>
       </c>
       <c r="J78" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K78">
         <f t="shared" si="19"/>
         <v>77</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M78" t="str">
         <f t="shared" si="20"/>
@@ -15636,10 +15730,10 @@
         <v>F22</v>
       </c>
       <c r="P78" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q78" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S78" t="str">
         <f t="shared" si="15"/>
@@ -15650,16 +15744,16 @@
 </v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="16"/>
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C79" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="17"/>
@@ -15670,14 +15764,14 @@
         <v>Ctrl + Shift</v>
       </c>
       <c r="J79" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K79">
         <f t="shared" si="19"/>
         <v>78</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M79" t="str">
         <f t="shared" si="20"/>
@@ -15693,10 +15787,10 @@
         <v>F22</v>
       </c>
       <c r="P79" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q79" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S79" t="str">
         <f t="shared" si="15"/>
@@ -15707,16 +15801,16 @@
 </v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="16"/>
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C80" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="17"/>
@@ -15727,14 +15821,14 @@
         <v>Alt + Shift</v>
       </c>
       <c r="J80" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K80">
         <f t="shared" si="19"/>
         <v>79</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M80" t="str">
         <f t="shared" si="20"/>
@@ -15750,10 +15844,10 @@
         <v>F22</v>
       </c>
       <c r="P80" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q80" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S80" t="str">
         <f t="shared" si="15"/>
@@ -15764,16 +15858,16 @@
 </v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="16"/>
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C81" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="17"/>
@@ -15784,14 +15878,14 @@
         <v>Ctrl + Alt + Shift</v>
       </c>
       <c r="J81" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K81">
         <f t="shared" si="19"/>
         <v>80</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M81" t="str">
         <f t="shared" si="20"/>
@@ -15807,10 +15901,10 @@
         <v>F22</v>
       </c>
       <c r="P81" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q81" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S81" t="str">
         <f t="shared" si="15"/>
@@ -15821,16 +15915,16 @@
 </v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="16"/>
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C82" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="17"/>
@@ -15840,15 +15934,19 @@
         <f t="shared" si="18"/>
         <v>None</v>
       </c>
+      <c r="G82">
+        <f>G74+1</f>
+        <v>125</v>
+      </c>
       <c r="J82" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K82">
         <f t="shared" si="19"/>
         <v>81</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M82" t="str">
         <f t="shared" si="20"/>
@@ -15864,10 +15962,10 @@
         <v>F23</v>
       </c>
       <c r="P82" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q82" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S82" t="str">
         <f t="shared" si="15"/>
@@ -15878,16 +15976,16 @@
 </v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="16"/>
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C83" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="17"/>
@@ -15898,14 +15996,14 @@
         <v>Ctrl</v>
       </c>
       <c r="J83" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K83">
         <f t="shared" si="19"/>
         <v>82</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M83" t="str">
         <f t="shared" si="20"/>
@@ -15921,10 +16019,10 @@
         <v>F23</v>
       </c>
       <c r="P83" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q83" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S83" t="str">
         <f t="shared" si="15"/>
@@ -15935,16 +16033,16 @@
 </v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="16"/>
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C84" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="17"/>
@@ -15955,14 +16053,14 @@
         <v>Alt</v>
       </c>
       <c r="J84" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K84">
         <f t="shared" si="19"/>
         <v>83</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M84" t="str">
         <f t="shared" si="20"/>
@@ -15978,10 +16076,10 @@
         <v>F23</v>
       </c>
       <c r="P84" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q84" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S84" t="str">
         <f t="shared" si="15"/>
@@ -15992,16 +16090,16 @@
 </v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="16"/>
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="C85" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="17"/>
@@ -16012,14 +16110,14 @@
         <v>Ctrl + Alt</v>
       </c>
       <c r="J85" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K85">
         <f t="shared" si="19"/>
         <v>84</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M85" t="str">
         <f t="shared" si="20"/>
@@ -16035,10 +16133,10 @@
         <v>F23</v>
       </c>
       <c r="P85" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q85" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S85" t="str">
         <f t="shared" si="15"/>
@@ -16049,16 +16147,16 @@
 </v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="16"/>
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="C86" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="17"/>
@@ -16069,14 +16167,14 @@
         <v>Shift</v>
       </c>
       <c r="J86" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K86">
         <f t="shared" si="19"/>
         <v>85</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M86" t="str">
         <f t="shared" si="20"/>
@@ -16092,10 +16190,10 @@
         <v>F23</v>
       </c>
       <c r="P86" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q86" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S86" t="str">
         <f t="shared" si="15"/>
@@ -16106,16 +16204,16 @@
 </v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="16"/>
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C87" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="17"/>
@@ -16126,14 +16224,14 @@
         <v>Ctrl + Shift</v>
       </c>
       <c r="J87" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K87">
         <f t="shared" si="19"/>
         <v>86</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M87" t="str">
         <f t="shared" si="20"/>
@@ -16149,10 +16247,10 @@
         <v>F23</v>
       </c>
       <c r="P87" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q87" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S87" t="str">
         <f t="shared" si="15"/>
@@ -16163,16 +16261,16 @@
 </v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="16"/>
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="C88" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="17"/>
@@ -16183,14 +16281,14 @@
         <v>Alt + Shift</v>
       </c>
       <c r="J88" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K88">
         <f t="shared" si="19"/>
         <v>87</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M88" t="str">
         <f t="shared" si="20"/>
@@ -16206,10 +16304,10 @@
         <v>F23</v>
       </c>
       <c r="P88" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q88" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S88" t="str">
         <f t="shared" si="15"/>
@@ -16220,16 +16318,16 @@
 </v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="16"/>
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C89" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="17"/>
@@ -16240,14 +16338,14 @@
         <v>Ctrl + Alt + Shift</v>
       </c>
       <c r="J89" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K89">
         <f t="shared" si="19"/>
         <v>88</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M89" t="str">
         <f t="shared" si="20"/>
@@ -16263,10 +16361,10 @@
         <v>F23</v>
       </c>
       <c r="P89" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q89" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S89" t="str">
         <f t="shared" si="15"/>
@@ -16277,16 +16375,16 @@
 </v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="16"/>
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C90" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="17"/>
@@ -16296,15 +16394,19 @@
         <f t="shared" si="18"/>
         <v>None</v>
       </c>
+      <c r="G90">
+        <f>G82+1</f>
+        <v>126</v>
+      </c>
       <c r="J90" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K90">
         <f t="shared" si="19"/>
         <v>89</v>
       </c>
       <c r="L90" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M90" t="str">
         <f t="shared" si="20"/>
@@ -16320,10 +16422,10 @@
         <v>F24</v>
       </c>
       <c r="P90" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q90" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S90" t="str">
         <f t="shared" si="15"/>
@@ -16334,16 +16436,16 @@
 </v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="16"/>
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C91" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="17"/>
@@ -16354,14 +16456,14 @@
         <v>Ctrl</v>
       </c>
       <c r="J91" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K91">
         <f t="shared" si="19"/>
         <v>90</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M91" t="str">
         <f t="shared" si="20"/>
@@ -16377,10 +16479,10 @@
         <v>F24</v>
       </c>
       <c r="P91" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q91" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S91" t="str">
         <f t="shared" si="15"/>
@@ -16391,16 +16493,16 @@
 </v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="16"/>
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C92" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="17"/>
@@ -16411,14 +16513,14 @@
         <v>Alt</v>
       </c>
       <c r="J92" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K92">
         <f t="shared" si="19"/>
         <v>91</v>
       </c>
       <c r="L92" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M92" t="str">
         <f t="shared" si="20"/>
@@ -16434,10 +16536,10 @@
         <v>F24</v>
       </c>
       <c r="P92" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q92" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S92" t="str">
         <f t="shared" si="15"/>
@@ -16448,16 +16550,16 @@
 </v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="16"/>
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="C93" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="17"/>
@@ -16468,14 +16570,14 @@
         <v>Ctrl + Alt</v>
       </c>
       <c r="J93" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K93">
         <f t="shared" si="19"/>
         <v>92</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M93" t="str">
         <f t="shared" si="20"/>
@@ -16491,10 +16593,10 @@
         <v>F24</v>
       </c>
       <c r="P93" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q93" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S93" t="str">
         <f t="shared" si="15"/>
@@ -16505,16 +16607,16 @@
 </v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="16"/>
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C94" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="17"/>
@@ -16525,14 +16627,14 @@
         <v>Shift</v>
       </c>
       <c r="J94" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K94">
         <f t="shared" si="19"/>
         <v>93</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M94" t="str">
         <f t="shared" si="20"/>
@@ -16548,10 +16650,10 @@
         <v>F24</v>
       </c>
       <c r="P94" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q94" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S94" t="str">
         <f t="shared" si="15"/>
@@ -16562,16 +16664,16 @@
 </v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="16"/>
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C95" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="17"/>
@@ -16582,14 +16684,14 @@
         <v>Ctrl + Shift</v>
       </c>
       <c r="J95" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K95">
         <f t="shared" si="19"/>
         <v>94</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M95" t="str">
         <f t="shared" si="20"/>
@@ -16605,10 +16707,10 @@
         <v>F24</v>
       </c>
       <c r="P95" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q95" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S95" t="str">
         <f t="shared" si="15"/>
@@ -16619,16 +16721,16 @@
 </v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="16"/>
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C96" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="17"/>
@@ -16639,14 +16741,14 @@
         <v>Alt + Shift</v>
       </c>
       <c r="J96" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K96">
         <f t="shared" si="19"/>
         <v>95</v>
       </c>
       <c r="L96" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M96" t="str">
         <f t="shared" si="20"/>
@@ -16662,10 +16764,10 @@
         <v>F24</v>
       </c>
       <c r="P96" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q96" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S96" t="str">
         <f t="shared" si="15"/>
@@ -16676,16 +16778,16 @@
 </v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="16"/>
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="C97" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="17"/>
@@ -16696,14 +16798,14 @@
         <v>Ctrl + Alt + Shift</v>
       </c>
       <c r="J97" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K97">
         <f t="shared" si="19"/>
         <v>96</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M97" t="str">
         <f t="shared" si="20"/>
@@ -16719,10 +16821,10 @@
         <v>F24</v>
       </c>
       <c r="P97" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q97" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S97" t="str">
         <f t="shared" si="15"/>
@@ -16733,16 +16835,16 @@
 </v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="16"/>
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C98" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D98" t="str">
         <f>_xlfn.CONCAT("International", QUOTIENT(A98-1,8) - 11)</f>
@@ -16752,15 +16854,19 @@
         <f t="shared" si="18"/>
         <v>None</v>
       </c>
+      <c r="G98">
+        <f>G90+1</f>
+        <v>127</v>
+      </c>
       <c r="J98" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K98">
         <f t="shared" si="19"/>
         <v>97</v>
       </c>
       <c r="L98" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M98" t="str">
         <f t="shared" si="20"/>
@@ -16772,13 +16878,13 @@
 </v>
       </c>
       <c r="O98" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="P98" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q98" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S98" t="str">
         <f t="shared" si="15"/>
@@ -16789,16 +16895,16 @@
 </v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="16"/>
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C99" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" ref="D99:D112" si="23">_xlfn.CONCAT("International", QUOTIENT(A99-1,8) - 11)</f>
@@ -16809,14 +16915,14 @@
         <v>Ctrl</v>
       </c>
       <c r="J99" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K99">
         <f t="shared" si="19"/>
         <v>98</v>
       </c>
       <c r="L99" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M99" t="str">
         <f t="shared" si="20"/>
@@ -16828,13 +16934,13 @@
 ^</v>
       </c>
       <c r="O99" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="P99" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q99" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S99" t="str">
         <f t="shared" si="15"/>
@@ -16845,16 +16951,16 @@
 </v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="16"/>
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C100" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="23"/>
@@ -16865,14 +16971,14 @@
         <v>Alt</v>
       </c>
       <c r="J100" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K100">
         <f t="shared" si="19"/>
         <v>99</v>
       </c>
       <c r="L100" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M100" t="str">
         <f t="shared" si="20"/>
@@ -16884,13 +16990,13 @@
 !</v>
       </c>
       <c r="O100" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="P100" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q100" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S100" t="str">
         <f t="shared" si="15"/>
@@ -16901,16 +17007,16 @@
 </v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C101" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="23"/>
@@ -16921,14 +17027,14 @@
         <v>Ctrl + Alt</v>
       </c>
       <c r="J101" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K101">
         <f t="shared" si="19"/>
         <v>100</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M101" t="str">
         <f t="shared" si="20"/>
@@ -16940,13 +17046,13 @@
 ^!</v>
       </c>
       <c r="O101" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="P101" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q101" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S101" t="str">
         <f t="shared" si="15"/>
@@ -16957,16 +17063,16 @@
 </v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="16"/>
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C102" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="23"/>
@@ -16977,14 +17083,14 @@
         <v>Shift</v>
       </c>
       <c r="J102" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K102">
         <f t="shared" si="19"/>
         <v>101</v>
       </c>
       <c r="L102" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M102" t="str">
         <f t="shared" si="20"/>
@@ -16996,13 +17102,13 @@
 +</v>
       </c>
       <c r="O102" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="P102" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q102" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S102" t="str">
         <f t="shared" si="15"/>
@@ -17013,16 +17119,16 @@
 </v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="16"/>
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C103" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="23"/>
@@ -17033,14 +17139,14 @@
         <v>Ctrl + Shift</v>
       </c>
       <c r="J103" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K103">
         <f t="shared" si="19"/>
         <v>102</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M103" t="str">
         <f t="shared" si="20"/>
@@ -17052,13 +17158,13 @@
 ^+</v>
       </c>
       <c r="O103" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="P103" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q103" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S103" t="str">
         <f t="shared" si="15"/>
@@ -17069,16 +17175,16 @@
 </v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="16"/>
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C104" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="23"/>
@@ -17089,14 +17195,14 @@
         <v>Alt + Shift</v>
       </c>
       <c r="J104" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K104">
         <f t="shared" si="19"/>
         <v>103</v>
       </c>
       <c r="L104" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M104" t="str">
         <f t="shared" si="20"/>
@@ -17108,13 +17214,13 @@
 !+</v>
       </c>
       <c r="O104" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="P104" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q104" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S104" t="str">
         <f t="shared" si="15"/>
@@ -17125,16 +17231,16 @@
 </v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="16"/>
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="C105" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="23"/>
@@ -17145,14 +17251,14 @@
         <v>Ctrl + Alt + Shift</v>
       </c>
       <c r="J105" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K105">
         <f t="shared" si="19"/>
         <v>104</v>
       </c>
       <c r="L105" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M105" t="str">
         <f t="shared" si="20"/>
@@ -17164,13 +17270,13 @@
 ^!+</v>
       </c>
       <c r="O105" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="P105" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q105" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S105" t="str">
         <f t="shared" si="15"/>
@@ -17181,16 +17287,16 @@
 </v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="16"/>
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C106" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="23"/>
@@ -17200,15 +17306,19 @@
         <f t="shared" si="18"/>
         <v>None</v>
       </c>
+      <c r="G106">
+        <f>G98+1</f>
+        <v>128</v>
+      </c>
       <c r="J106" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K106">
         <f t="shared" si="19"/>
         <v>105</v>
       </c>
       <c r="L106" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M106" t="str">
         <f t="shared" si="20"/>
@@ -17220,13 +17330,13 @@
 </v>
       </c>
       <c r="O106" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="P106" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q106" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S106" t="str">
         <f t="shared" si="15"/>
@@ -17237,16 +17347,16 @@
 </v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="16"/>
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="C107" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="23"/>
@@ -17257,14 +17367,14 @@
         <v>Ctrl</v>
       </c>
       <c r="J107" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K107">
         <f t="shared" si="19"/>
         <v>106</v>
       </c>
       <c r="L107" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M107" t="str">
         <f t="shared" si="20"/>
@@ -17276,13 +17386,13 @@
 ^</v>
       </c>
       <c r="O107" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="P107" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q107" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S107" t="str">
         <f t="shared" si="15"/>
@@ -17293,7 +17403,7 @@
 </v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="16"/>
         <v>107</v>
@@ -17307,14 +17417,14 @@
         <v>Alt</v>
       </c>
       <c r="J108" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K108">
         <f t="shared" si="19"/>
         <v>107</v>
       </c>
       <c r="L108" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M108">
         <f t="shared" si="20"/>
@@ -17326,13 +17436,13 @@
 !</v>
       </c>
       <c r="O108" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="P108" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q108" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S108" t="str">
         <f t="shared" si="15"/>
@@ -17343,7 +17453,7 @@
 </v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="16"/>
         <v>108</v>
@@ -17357,14 +17467,14 @@
         <v>Ctrl + Alt</v>
       </c>
       <c r="J109" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K109">
         <f t="shared" si="19"/>
         <v>108</v>
       </c>
       <c r="L109" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M109">
         <f t="shared" si="20"/>
@@ -17376,13 +17486,13 @@
 ^!</v>
       </c>
       <c r="O109" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="P109" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q109" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S109" t="str">
         <f t="shared" si="15"/>
@@ -17393,7 +17503,7 @@
 </v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="16"/>
         <v>109</v>
@@ -17407,14 +17517,14 @@
         <v>Shift</v>
       </c>
       <c r="J110" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K110">
         <f t="shared" si="19"/>
         <v>109</v>
       </c>
       <c r="L110" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M110">
         <f t="shared" si="20"/>
@@ -17426,13 +17536,13 @@
 +</v>
       </c>
       <c r="O110" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="P110" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q110" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S110" t="str">
         <f t="shared" si="15"/>
@@ -17443,7 +17553,7 @@
 </v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="16"/>
         <v>110</v>
@@ -17457,14 +17567,14 @@
         <v>Ctrl + Shift</v>
       </c>
       <c r="J111" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K111">
         <f t="shared" si="19"/>
         <v>110</v>
       </c>
       <c r="L111" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M111">
         <f t="shared" si="20"/>
@@ -17476,13 +17586,13 @@
 ^+</v>
       </c>
       <c r="O111" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="P111" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q111" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S111" t="str">
         <f t="shared" si="15"/>
@@ -17493,7 +17603,7 @@
 </v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="16"/>
         <v>111</v>
@@ -17507,14 +17617,14 @@
         <v>Alt + Shift</v>
       </c>
       <c r="J112" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K112">
         <f t="shared" si="19"/>
         <v>111</v>
       </c>
       <c r="L112" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M112">
         <f t="shared" si="20"/>
@@ -17526,13 +17636,13 @@
 !+</v>
       </c>
       <c r="O112" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="P112" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q112" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S112" t="str">
         <f t="shared" si="15"/>
@@ -17543,9 +17653,9 @@
 </v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <f t="shared" ref="A113" si="24">A112+1</f>
+        <f t="shared" ref="A113:A129" si="24">A112+1</f>
         <v>112</v>
       </c>
       <c r="D113" t="str">
@@ -17557,14 +17667,14 @@
         <v>Ctrl + Alt + Shift</v>
       </c>
       <c r="J113" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K113">
         <f t="shared" si="19"/>
         <v>112</v>
       </c>
       <c r="L113" s="8" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M113">
         <f t="shared" si="20"/>
@@ -17576,13 +17686,13 @@
 ^!+</v>
       </c>
       <c r="O113" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="P113" s="10" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="Q113" s="9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S113" t="str">
         <f t="shared" si="15"/>
@@ -17593,8 +17703,282 @@
 </v>
       </c>
     </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="24"/>
+        <v>113</v>
+      </c>
+      <c r="D114" t="str">
+        <f>_xlfn.CONCAT("International", QUOTIENT(A114-1,8) - 11)</f>
+        <v>International3</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="18"/>
+        <v>None</v>
+      </c>
+      <c r="O114" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="24"/>
+        <v>114</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" ref="D115:D129" si="26">_xlfn.CONCAT("International", QUOTIENT(A115-1,8) - 11)</f>
+        <v>International3</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="18"/>
+        <v>Ctrl</v>
+      </c>
+      <c r="O115" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="24"/>
+        <v>115</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="26"/>
+        <v>International3</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="18"/>
+        <v>Alt</v>
+      </c>
+      <c r="O116" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="24"/>
+        <v>116</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="26"/>
+        <v>International3</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="18"/>
+        <v>Ctrl + Alt</v>
+      </c>
+      <c r="O117" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="24"/>
+        <v>117</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="26"/>
+        <v>International3</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="18"/>
+        <v>Shift</v>
+      </c>
+      <c r="O118" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="24"/>
+        <v>118</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="26"/>
+        <v>International3</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="18"/>
+        <v>Ctrl + Shift</v>
+      </c>
+      <c r="O119" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="24"/>
+        <v>119</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="26"/>
+        <v>International3</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="18"/>
+        <v>Alt + Shift</v>
+      </c>
+      <c r="O120" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" si="24"/>
+        <v>120</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="26"/>
+        <v>International3</v>
+      </c>
+      <c r="E121" t="str">
+        <f t="shared" si="18"/>
+        <v>Ctrl + Alt + Shift</v>
+      </c>
+      <c r="O121" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" si="24"/>
+        <v>121</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="26"/>
+        <v>International4</v>
+      </c>
+      <c r="E122" t="str">
+        <f t="shared" si="18"/>
+        <v>None</v>
+      </c>
+      <c r="O122" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" si="24"/>
+        <v>122</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="26"/>
+        <v>International4</v>
+      </c>
+      <c r="E123" t="str">
+        <f t="shared" si="18"/>
+        <v>Ctrl</v>
+      </c>
+      <c r="O123" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" si="24"/>
+        <v>123</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="26"/>
+        <v>International4</v>
+      </c>
+      <c r="E124" t="str">
+        <f t="shared" si="18"/>
+        <v>Alt</v>
+      </c>
+      <c r="O124" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" si="24"/>
+        <v>124</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="26"/>
+        <v>International4</v>
+      </c>
+      <c r="E125" t="str">
+        <f t="shared" si="18"/>
+        <v>Ctrl + Alt</v>
+      </c>
+      <c r="O125" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" si="24"/>
+        <v>125</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" si="26"/>
+        <v>International4</v>
+      </c>
+      <c r="E126" t="str">
+        <f t="shared" si="18"/>
+        <v>Shift</v>
+      </c>
+      <c r="O126" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" si="24"/>
+        <v>126</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="26"/>
+        <v>International4</v>
+      </c>
+      <c r="E127" t="str">
+        <f t="shared" si="18"/>
+        <v>Ctrl + Shift</v>
+      </c>
+      <c r="O127" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" si="24"/>
+        <v>127</v>
+      </c>
+      <c r="D128" t="str">
+        <f t="shared" si="26"/>
+        <v>International4</v>
+      </c>
+      <c r="E128" t="str">
+        <f t="shared" si="18"/>
+        <v>Alt + Shift</v>
+      </c>
+      <c r="O128" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" si="24"/>
+        <v>128</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" si="26"/>
+        <v>International4</v>
+      </c>
+      <c r="E129" t="str">
+        <f t="shared" si="18"/>
+        <v>Ctrl + Alt + Shift</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"None"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -17608,266 +17992,266 @@
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J2" t="s">
+        <v>280</v>
+      </c>
+      <c r="K2" t="s">
+        <v>281</v>
+      </c>
+      <c r="L2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>283</v>
+      </c>
+      <c r="H6" t="s">
+        <v>284</v>
+      </c>
+      <c r="I6" t="s">
+        <v>285</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="K6" t="s">
+        <v>287</v>
+      </c>
+      <c r="L6" t="s">
         <v>288</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M6" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N6" t="s">
         <v>290</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O6" t="s">
         <v>291</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P6" t="s">
         <v>292</v>
       </c>
-      <c r="J2" t="s">
+      <c r="Q6" t="s">
         <v>293</v>
       </c>
-      <c r="K2" t="s">
+      <c r="T6" t="s">
         <v>294</v>
       </c>
-      <c r="L2" t="s">
+      <c r="U6" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="6" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="G6" t="s">
+      <c r="V6" t="s">
         <v>296</v>
       </c>
-      <c r="H6" t="s">
+      <c r="X6" t="s">
         <v>297</v>
       </c>
-      <c r="I6" t="s">
+      <c r="Y6" t="s">
         <v>298</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="Z6" t="s">
         <v>299</v>
       </c>
-      <c r="K6" t="s">
+    </row>
+    <row r="7" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
         <v>300</v>
       </c>
-      <c r="L6" t="s">
+      <c r="H7" t="s">
         <v>301</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="I7" t="s">
         <v>302</v>
       </c>
-      <c r="N6" t="s">
+      <c r="J7" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="O6" t="s">
+      <c r="K7" t="s">
         <v>304</v>
       </c>
-      <c r="P6" t="s">
+      <c r="L7" t="s">
         <v>305</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="M7" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="T6" t="s">
+      <c r="N7" t="s">
+        <v>290</v>
+      </c>
+      <c r="O7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P7" t="s">
         <v>307</v>
       </c>
-      <c r="U6" t="s">
+      <c r="Q7" t="s">
         <v>308</v>
       </c>
-      <c r="V6" t="s">
+      <c r="T7" t="s">
         <v>309</v>
       </c>
-      <c r="X6" t="s">
+      <c r="U7" t="s">
         <v>310</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="V7" t="s">
         <v>311</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="X7" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="7" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="G7" t="s">
+      <c r="Y7" t="s">
         <v>313</v>
       </c>
-      <c r="H7" t="s">
+      <c r="Z7" t="s">
         <v>314</v>
       </c>
-      <c r="I7" t="s">
+    </row>
+    <row r="8" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
         <v>315</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="H8" t="s">
         <v>316</v>
       </c>
-      <c r="K7" t="s">
+      <c r="I8" t="s">
         <v>317</v>
       </c>
-      <c r="L7" t="s">
+      <c r="J8" t="s">
         <v>318</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="K8" t="s">
         <v>319</v>
       </c>
-      <c r="N7" t="s">
-        <v>303</v>
-      </c>
-      <c r="O7" t="s">
-        <v>304</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="L8" t="s">
         <v>320</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="M8" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="T7" t="s">
+      <c r="N8" t="s">
+        <v>290</v>
+      </c>
+      <c r="O8" t="s">
+        <v>291</v>
+      </c>
+      <c r="P8" t="s">
         <v>322</v>
       </c>
-      <c r="U7" t="s">
+    </row>
+    <row r="9" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
         <v>323</v>
       </c>
-      <c r="V7" t="s">
+      <c r="H9" t="s">
         <v>324</v>
       </c>
-      <c r="X7" t="s">
+      <c r="I9" t="s">
         <v>325</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="J9" t="s">
         <v>326</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="K9" s="5" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="8" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="G8" t="s">
+      <c r="L9" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="H8" t="s">
+      <c r="N9" t="s">
+        <v>290</v>
+      </c>
+      <c r="O9" t="s">
+        <v>291</v>
+      </c>
+      <c r="P9" t="s">
         <v>329</v>
       </c>
-      <c r="I8" t="s">
+    </row>
+    <row r="10" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
         <v>330</v>
       </c>
-      <c r="J8" t="s">
+    </row>
+    <row r="11" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
         <v>331</v>
       </c>
-      <c r="K8" t="s">
+    </row>
+    <row r="13" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>332</v>
       </c>
-      <c r="L8" t="s">
+      <c r="E13" t="s">
         <v>333</v>
       </c>
-      <c r="M8" s="4" t="s">
+    </row>
+    <row r="14" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>334</v>
       </c>
-      <c r="N8" t="s">
-        <v>303</v>
-      </c>
-      <c r="O8" t="s">
-        <v>304</v>
-      </c>
-      <c r="P8" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="9" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="G9" t="s">
-        <v>336</v>
-      </c>
-      <c r="H9" t="s">
-        <v>337</v>
-      </c>
-      <c r="I9" t="s">
-        <v>338</v>
-      </c>
-      <c r="J9" t="s">
-        <v>339</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="N9" t="s">
-        <v>303</v>
-      </c>
-      <c r="O9" t="s">
-        <v>304</v>
-      </c>
-      <c r="P9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="10" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="E10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="11" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="E11" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="13" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>345</v>
-      </c>
-      <c r="E13" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="14" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="16" spans="3:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="3:26" x14ac:dyDescent="0.25">
       <c r="G16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="U16" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="V16" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="17" spans="7:22" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="U17" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="V17" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="19" spans="7:22" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G19" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="7:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:22" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="H20" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="I20" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -17883,9 +18267,9 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -17905,31 +18289,31 @@
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
     </row>
-    <row r="2" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
@@ -17941,7 +18325,7 @@
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
     </row>
-    <row r="3" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -17961,7 +18345,7 @@
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
     </row>
-    <row r="4" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -17981,7 +18365,7 @@
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
     </row>
-    <row r="5" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -18001,39 +18385,39 @@
       <c r="Q5" s="14"/>
       <c r="R5" s="10"/>
     </row>
-    <row r="6" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
@@ -18043,39 +18427,39 @@
       <c r="Q6" s="14"/>
       <c r="R6" s="10"/>
     </row>
-    <row r="7" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
@@ -18085,36 +18469,36 @@
       <c r="Q7" s="14"/>
       <c r="R7" s="10"/>
     </row>
-    <row r="8" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="14"/>
@@ -18125,34 +18509,34 @@
       <c r="Q8" s="14"/>
       <c r="R8" s="10"/>
     </row>
-    <row r="9" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="14"/>
@@ -18163,7 +18547,7 @@
       <c r="Q9" s="14"/>
       <c r="R9" s="10"/>
     </row>
-    <row r="10" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -18175,7 +18559,7 @@
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
     </row>
-    <row r="11" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -18184,28 +18568,28 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="J11" s="11" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="M11" s="13"/>
       <c r="N11" s="13" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -18216,36 +18600,36 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="11" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="M12" s="13"/>
       <c r="N12" s="11" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
     </row>
-    <row r="13" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -18261,11 +18645,11 @@
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
     </row>
-    <row r="14" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -18285,7 +18669,7 @@
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
     </row>
-    <row r="15" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -18293,7 +18677,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="13" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -18307,7 +18691,7 @@
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
     </row>
-    <row r="16" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -18319,10 +18703,10 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="12" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
@@ -18331,10 +18715,10 @@
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
     </row>
-    <row r="17" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -18344,17 +18728,17 @@
         <v>13</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="11" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
@@ -18363,23 +18747,23 @@
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
     </row>
-    <row r="18" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="11" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -18391,7 +18775,7 @@
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
     </row>
-    <row r="19" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -18411,7 +18795,7 @@
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
     </row>
-    <row r="20" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -18428,31 +18812,31 @@
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
     </row>
-    <row r="21" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:18" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="33.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SecondKeyboard/iCue/profile creating tool.xlsx
+++ b/SecondKeyboard/iCue/profile creating tool.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Woong\Documents\GitHub\Scripts\SecondKeyboard\iCue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Work\Documents\GitHub\Scripts\SecondKeyboard\iCue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364B3B22-8287-4AFF-B655-5D32A6190353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7994139-3DEF-4039-BE7B-9CC679C2393D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5535" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{2B087225-0969-45CE-ABD6-9F0C4354DA0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2B087225-0969-45CE-ABD6-9F0C4354DA0B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="iCUE" sheetId="1" r:id="rId1"/>
+    <sheet name="AHK" sheetId="2" r:id="rId2"/>
     <sheet name="keyboard" sheetId="3" r:id="rId3"/>
     <sheet name="For Print" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="392">
   <si>
     <t>&lt;value</t>
   </si>
@@ -1475,6 +1475,30 @@
   </si>
   <si>
     <t>SC07D</t>
+  </si>
+  <si>
+    <t>SC07B</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>^!</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>^+</t>
+  </si>
+  <si>
+    <t>!+</t>
+  </si>
+  <si>
+    <t>^!+</t>
   </si>
 </sst>
 </file>
@@ -1977,8 +2001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF660FC2-EEA2-4848-8FC4-144E4F2F697C}">
   <dimension ref="A1:AG144"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P110" sqref="P110"/>
+    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T137" sqref="T137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4612,7 +4636,7 @@
       </c>
       <c r="W40" t="str">
         <f t="shared" ref="W40:W101" ca="1" si="78">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))</f>
-        <v>03a083cc-8603-0f4b-a524-cf1c6ce7a413</v>
+        <v>1c831347-2472-1fdc-26b4-743288aa2c80</v>
       </c>
       <c r="AE40" t="s">
         <v>57</v>
@@ -4687,7 +4711,7 @@
       </c>
       <c r="W41" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>da28385e-6060-99d2-3461-c3d9e9440b0b</v>
+        <v>dc48f3ef-0a1f-9173-2451-c4d108e21be8</v>
       </c>
       <c r="AE41" t="s">
         <v>58</v>
@@ -4762,7 +4786,7 @@
       </c>
       <c r="W42" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>6847aeea-a419-60ee-44ae-260259c28918</v>
+        <v>f38ce50f-226c-654b-76ad-f55805635fd6</v>
       </c>
       <c r="AE42" t="s">
         <v>59</v>
@@ -4837,7 +4861,7 @@
       </c>
       <c r="W43" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>95d3bc80-80bd-015c-0148-c81ff89a2a58</v>
+        <v>066a4cd5-093b-9665-93fc-57e279b86d2c</v>
       </c>
       <c r="AE43" t="s">
         <v>60</v>
@@ -4912,7 +4936,7 @@
       </c>
       <c r="W44" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>7f2a43b9-2d61-2e9f-0f1a-15d3b32194ca</v>
+        <v>41a17d50-1afb-0add-9731-71da6fcf5b01</v>
       </c>
       <c r="AE44" t="s">
         <v>61</v>
@@ -4987,7 +5011,7 @@
       </c>
       <c r="W45" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>ede91f1c-340b-1ed3-9241-a4bc898494ad</v>
+        <v>a96911b6-07c2-702a-965d-fd9f86a398a5</v>
       </c>
       <c r="AE45" t="s">
         <v>62</v>
@@ -5062,7 +5086,7 @@
       </c>
       <c r="W46" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>37cdae81-223d-4b59-836a-d88fcf130f8a</v>
+        <v>3235b3f3-51ce-38d4-a36e-a5cc46b74281</v>
       </c>
       <c r="AE46" t="s">
         <v>63</v>
@@ -5137,7 +5161,7 @@
       </c>
       <c r="W47" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>917d9f03-6181-2aec-7361-dc48d81d7ac6</v>
+        <v>ae19f37a-7a85-08fc-4d38-906e158699b6</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
@@ -5206,7 +5230,7 @@
       </c>
       <c r="W48" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>2a109765-2bc8-7abf-5601-2f5fe3872e50</v>
+        <v>302332bb-18c5-6795-2b96-c105cf403d1f</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
@@ -5275,7 +5299,7 @@
       </c>
       <c r="W49" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>65f54a14-a5af-9ab7-341d-2d6946700e5b</v>
+        <v>5c8ea794-407b-4856-887f-2f56a2301f9e</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
@@ -5344,7 +5368,7 @@
       </c>
       <c r="W50" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>bf844f21-1db8-2cb1-a40e-542b25ab99d0</v>
+        <v>2e8deab1-a6a2-2a13-73ec-ffae7cf49236</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
@@ -5413,7 +5437,7 @@
       </c>
       <c r="W51" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>06298e8c-24d7-95e6-069a-230b6e9765ae</v>
+        <v>af42c2b1-5a68-6c05-63b6-44baa3be9859</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
@@ -5482,7 +5506,7 @@
       </c>
       <c r="W52" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>dc52796b-a723-1212-7224-b1975c3d4556</v>
+        <v>1e47aecd-3d2a-5a4b-74e3-ac14eccd2b50</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
@@ -5551,7 +5575,7 @@
       </c>
       <c r="W53" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>9bdb2423-851d-5709-4097-5c21d6fc55cb</v>
+        <v>0f45f15a-5340-4f01-1df1-72c40c2f328e</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
@@ -5620,7 +5644,7 @@
       </c>
       <c r="W54" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>7cd94eea-2b31-4dc5-6b93-44e3d96a8092</v>
+        <v>fdc7b7d8-0b8a-3b86-02a0-ae0f6e2d2c22</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
@@ -5689,7 +5713,7 @@
       </c>
       <c r="W55" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>de4a8c29-32d0-70a8-2c71-3cd4d85b1d60</v>
+        <v>0ae96c9e-24e2-014c-9256-500e675b3508</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
@@ -5758,7 +5782,7 @@
       </c>
       <c r="W56" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>d2708358-12ce-8264-0cf9-e55436a71d25</v>
+        <v>95926c11-6ca1-9815-0b14-f846a65435d7</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
@@ -5827,7 +5851,7 @@
       </c>
       <c r="W57" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>0a986bdc-525b-4b5b-3a19-a55690fb9527</v>
+        <v>e918fce0-4e7f-9026-45b1-518bc2ab9487</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
@@ -5896,7 +5920,7 @@
       </c>
       <c r="W58" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>64876f26-8136-622c-17f0-a28668ff2ea3</v>
+        <v>077bd09d-37b2-13f5-7911-bdf41ae3134d</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
@@ -5965,7 +5989,7 @@
       </c>
       <c r="W59" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>ecf5888f-89be-2af6-6646-16a27fc812f5</v>
+        <v>6390ecc9-82a0-5ce2-06c4-54b47ba03db6</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
@@ -6034,7 +6058,7 @@
       </c>
       <c r="W60" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>0db8dc63-80b6-131a-66ad-87887e2e1bb8</v>
+        <v>83b53df4-8df7-3bb8-8ac7-b201106e6171</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -6103,7 +6127,7 @@
       </c>
       <c r="W61" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>d274b11c-6134-6a40-5605-f75872274563</v>
+        <v>dcb60fa6-2753-5010-2465-f5843692747d</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
@@ -6172,7 +6196,7 @@
       </c>
       <c r="W62" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>afc90dc9-2233-2644-2782-615047d09f78</v>
+        <v>95228d7d-7da6-84ee-3c29-3124acb007df</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
@@ -6241,7 +6265,7 @@
       </c>
       <c r="W63" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>73cd57da-4d2d-2579-5dcc-31997da327c0</v>
+        <v>6f9474c3-93f2-a02f-524a-3ad550ad1ae0</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
@@ -6310,7 +6334,7 @@
       </c>
       <c r="W64" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>ce40c5f5-3122-6c9d-0b54-5e96166132a1</v>
+        <v>83c1210e-30b6-6421-5afa-dc3a53d40be2</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
@@ -6379,7 +6403,7 @@
       </c>
       <c r="W65" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>0f6cb5fa-024c-4a98-1bc9-c6890af06120</v>
+        <v>438fa708-24ce-5c0e-6dae-07a2f0f582e7</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
@@ -6448,7 +6472,7 @@
       </c>
       <c r="W66" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>50fa6833-5ccd-0656-43f4-32500ac73b4b</v>
+        <v>4ea6f4b9-968f-0ab8-7930-a91175ca47dd</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
@@ -6517,7 +6541,7 @@
       </c>
       <c r="W67" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>bd582b4a-0671-8d0a-42dd-f7550d9d4894</v>
+        <v>6e71d54f-2d93-9e2f-93fa-96a3d08d79c2</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
@@ -6586,7 +6610,7 @@
       </c>
       <c r="W68" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>b90ce8cf-36d6-209e-a42e-0a96eab91d98</v>
+        <v>396909c0-79b2-9b97-32e3-372ac0ca862d</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
@@ -6655,7 +6679,7 @@
       </c>
       <c r="W69" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>bbe784e1-2764-763f-1a2c-7a96d6fe8c43</v>
+        <v>90d3eeb1-8dbb-8024-86a6-d527cf752929</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
@@ -6724,7 +6748,7 @@
       </c>
       <c r="W70" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>74894367-566c-047d-8791-40008d071eb2</v>
+        <v>afe86437-7af9-5e38-59f7-6d30225a0759</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
@@ -6793,7 +6817,7 @@
       </c>
       <c r="W71" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>35aad24e-50fa-72de-a34e-21cf6aea6fee</v>
+        <v>e64f7238-2919-a7a7-0ee8-8fbc22f79ff0</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
@@ -6862,7 +6886,7 @@
       </c>
       <c r="W72" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>04298c90-6c11-89f2-09df-cad276e21075</v>
+        <v>d34626a4-5374-a28f-908d-e29b7b79270f</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
@@ -6931,7 +6955,7 @@
       </c>
       <c r="W73" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>0f60846a-533d-13ff-54c5-846f686b2e44</v>
+        <v>f901beaa-21df-01c6-4dea-f3e7349b5759</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
@@ -7000,7 +7024,7 @@
       </c>
       <c r="W74" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>d7327caf-83fc-4e2a-3d30-ecc9ee47232b</v>
+        <v>db27faf6-0165-7658-74c9-6c9b1ada651f</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
@@ -7060,7 +7084,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <f t="shared" ref="Q75:Q129" si="150">Q67+1</f>
+        <f t="shared" ref="Q75:Q137" si="150">Q67+1</f>
         <v>22</v>
       </c>
       <c r="T75" s="3" t="str">
@@ -7069,7 +7093,7 @@
       </c>
       <c r="W75" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>316106d8-a2a4-2b3a-32ba-1b6f73fd9b96</v>
+        <v>51f8a118-0f4d-14d1-7759-812a6509296f</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
@@ -7138,7 +7162,7 @@
       </c>
       <c r="W76" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>38cb97c4-85fa-77fd-07e8-1b79b1b534c4</v>
+        <v>578351b2-69c5-7062-8ea1-eda46a0731ae</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
@@ -7207,7 +7231,7 @@
       </c>
       <c r="W77" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>2dfaad8c-5137-017d-8837-5b67274fa69c</v>
+        <v>369102f0-2d60-0dc9-6428-b9a8122720d7</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
@@ -7276,7 +7300,7 @@
       </c>
       <c r="W78" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>6003ee40-7b4a-09cb-9841-04c9e34a72a9</v>
+        <v>3d2f4aa5-1ae5-07f6-0535-1798aa1b5a51</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
@@ -7345,7 +7369,7 @@
       </c>
       <c r="W79" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>2be963fb-13a3-a542-4e1a-4181f6049316</v>
+        <v>03caef78-98bb-90f9-3c43-c0b2b672180d</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
@@ -7414,7 +7438,7 @@
       </c>
       <c r="W80" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>997e2db1-6fbf-2a4b-43e6-272067304a00</v>
+        <v>45afcb9d-2255-09a5-4851-e9684ad5890b</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
@@ -7483,7 +7507,7 @@
       </c>
       <c r="W81" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>50289dee-704c-1b46-3694-9a3830875d3a</v>
+        <v>92b031a2-8a91-3fa3-3449-624fabaaa07d</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
@@ -7496,7 +7520,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="1" t="str">
-        <f t="shared" ref="C82:C129" si="165">C81</f>
+        <f t="shared" ref="C82:C137" si="165">C81</f>
         <v>&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;</v>
       </c>
       <c r="D82">
@@ -7552,7 +7576,7 @@
       </c>
       <c r="W82" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>a9ec0004-56a6-3f5b-5cf0-4ea7a53e90ba</v>
+        <v>4198dd93-754f-1961-75a9-7ea9350a0f4e</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
@@ -7621,7 +7645,7 @@
       </c>
       <c r="W83" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>1acec61c-3ae6-5b79-2503-fb41136749df</v>
+        <v>4fa77941-8861-a262-5bf3-bca971229975</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
@@ -7690,7 +7714,7 @@
       </c>
       <c r="W84" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>60073854-97c6-6351-5414-27d57be6262e</v>
+        <v>8493890e-a571-7932-5ff4-a8a1e4a61c0f</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
@@ -7759,7 +7783,7 @@
       </c>
       <c r="W85" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>27eb2bbd-5534-2caf-25ad-c7a6920e7861</v>
+        <v>31d953f1-41ac-a733-1cad-813f6fd76d2b</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
@@ -7828,7 +7852,7 @@
       </c>
       <c r="W86" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>2c48108d-1cf4-6893-7c32-df31eaf15b87</v>
+        <v>65e1a82e-4a58-2529-8ba6-3ca5487f8d80</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
@@ -7897,7 +7921,7 @@
       </c>
       <c r="W87" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>9c1c4741-293b-6c26-44a7-488f43167313</v>
+        <v>c1204416-0071-0d90-23a1-e7169489a710</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
@@ -7966,7 +7990,7 @@
       </c>
       <c r="W88" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>18cd61e9-4652-64dc-6bd8-566f91633019</v>
+        <v>135da714-9027-786f-66fd-b8345cd087dc</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
@@ -8035,7 +8059,7 @@
       </c>
       <c r="W89" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>272aa78d-8aff-4703-66f4-5f5461d587d1</v>
+        <v>ce24dc50-6441-8e21-6123-7118f4961561</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
@@ -8104,7 +8128,7 @@
       </c>
       <c r="W90" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>c88ccdfb-a145-2abf-8e83-c63639912f0c</v>
+        <v>17d21426-1f90-4884-4b8f-a5f9de687f19</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
@@ -8173,7 +8197,7 @@
       </c>
       <c r="W91" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>7c37d780-9f2d-25db-84b5-15d774431763</v>
+        <v>de14ded4-a091-6386-a398-bb94fa332952</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
@@ -8242,7 +8266,7 @@
       </c>
       <c r="W92" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>0268f62a-557c-4a31-09b7-d3fdc36d85fe</v>
+        <v>c2973a80-824b-8d82-57e9-0f5e13909234</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
@@ -8311,7 +8335,7 @@
       </c>
       <c r="W93" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>a333315f-1b75-0598-2b4d-3345c58240b4</v>
+        <v>2a6c63d8-1c77-6796-0e4e-242d45438717</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
@@ -8380,7 +8404,7 @@
       </c>
       <c r="W94" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>256b2802-1c39-5a64-4d47-26cd2c61625a</v>
+        <v>93d33962-59fa-163b-8048-7b9c48e20dbe</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
@@ -8449,7 +8473,7 @@
       </c>
       <c r="W95" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>8ef53140-3348-348f-7043-50f65e6d73f5</v>
+        <v>042e216c-11fc-1f7a-0f52-6ddfce2a96a3</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
@@ -8518,7 +8542,7 @@
       </c>
       <c r="W96" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>072a1c32-9ebb-93df-8ff6-82c8ec732185</v>
+        <v>8f479346-5e20-3790-8598-56266487849f</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.25">
@@ -8587,7 +8611,7 @@
       </c>
       <c r="W97" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>0d59e44d-3a66-18ec-3090-4f6f4ff31587</v>
+        <v>ce27e7a6-5da9-0cd7-9355-583809d997a3</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.25">
@@ -8655,7 +8679,7 @@
       </c>
       <c r="W98" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>d6bc3456-6d72-67a3-431d-a119961a549e</v>
+        <v>e0a1e7a6-6d91-07e2-2938-d7daf1921bbd</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
@@ -8723,7 +8747,7 @@
       </c>
       <c r="W99" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>f14220d9-98bc-4f4f-a744-b692097e91f6</v>
+        <v>f9844359-0895-5fc8-33ae-8c3a95619d0a</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.25">
@@ -8791,7 +8815,7 @@
       </c>
       <c r="W100" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>30594c60-a1db-516e-76c1-a2a621fd2264</v>
+        <v>dda27390-7a33-a0a2-4761-ed3a10ec3d79</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
@@ -8859,7 +8883,7 @@
       </c>
       <c r="W101" t="str">
         <f t="shared" ca="1" si="78"/>
-        <v>e71cec56-7c33-3a02-3ff8-77df63150fbd</v>
+        <v>63476c43-0cec-94de-999e-609b5e9665a1</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.25">
@@ -9250,11 +9274,11 @@
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="str">
-        <f t="shared" ref="A108:A129" si="224">A107</f>
+        <f t="shared" ref="A108:A137" si="224">A107</f>
         <v>&lt;value</v>
       </c>
       <c r="B108">
-        <f t="shared" ref="B108:B129" si="225">B107+1</f>
+        <f t="shared" ref="B108:B137" si="225">B107+1</f>
         <v>108</v>
       </c>
       <c r="C108" s="1" t="str">
@@ -9262,14 +9286,14 @@
         <v>&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;</v>
       </c>
       <c r="D108">
-        <f t="shared" ref="D108:D129" si="226">D107+1</f>
+        <f t="shared" ref="D108:D137" si="226">D107+1</f>
         <v>2147483769</v>
       </c>
       <c r="E108" t="s">
         <v>48</v>
       </c>
       <c r="F108">
-        <f t="shared" ref="F108:F129" si="227">F107+1</f>
+        <f t="shared" ref="F108:F137" si="227">F107+1</f>
         <v>107</v>
       </c>
       <c r="G108" t="s">
@@ -9279,7 +9303,7 @@
         <v>359</v>
       </c>
       <c r="I108" s="1" t="str">
-        <f t="shared" ref="I108:I129" si="228">I107</f>
+        <f t="shared" ref="I108:I137" si="228">I107</f>
         <v>}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;</v>
       </c>
       <c r="J108" s="1" t="str">
@@ -9608,7 +9632,7 @@
         <v>}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;</v>
       </c>
       <c r="J113" s="1" t="str">
-        <f t="shared" ref="J113:J129" si="241">J105</f>
+        <f t="shared" ref="J113:J137" si="241">J105</f>
         <v>&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;LeftAlt&lt;/value2&gt; &lt;value3&gt;</v>
       </c>
       <c r="K113" s="1" t="str">
@@ -9616,7 +9640,7 @@
         <v>International2</v>
       </c>
       <c r="L113" s="1" t="str">
-        <f t="shared" ref="L113:L129" si="242">L105</f>
+        <f t="shared" ref="L113:L137" si="242">L105</f>
         <v>&lt;/value3&gt;</v>
       </c>
       <c r="M113" t="s">
@@ -10679,64 +10703,524 @@
       </c>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="L130" s="1"/>
-      <c r="O130" s="1"/>
+      <c r="A130" s="1" t="str">
+        <f t="shared" si="224"/>
+        <v>&lt;value</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="225"/>
+        <v>130</v>
+      </c>
+      <c r="C130" s="1" t="str">
+        <f t="shared" si="165"/>
+        <v>&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="226"/>
+        <v>2147483791</v>
+      </c>
+      <c r="E130" t="s">
+        <v>48</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="227"/>
+        <v>129</v>
+      </c>
+      <c r="G130" t="s">
+        <v>47</v>
+      </c>
+      <c r="H130" t="s">
+        <v>373</v>
+      </c>
+      <c r="I130" s="1" t="str">
+        <f t="shared" si="228"/>
+        <v>}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;</v>
+      </c>
+      <c r="J130" s="1" t="str">
+        <f t="shared" si="241"/>
+        <v>&lt;value0&gt;</v>
+      </c>
+      <c r="K130" s="1" t="str">
+        <f t="shared" ref="K130:K137" si="246">_xlfn.CONCAT("International", Q130)</f>
+        <v>International5</v>
+      </c>
+      <c r="L130" s="1" t="str">
+        <f t="shared" si="242"/>
+        <v>&lt;/value0&gt;</v>
+      </c>
+      <c r="M130" t="s">
+        <v>27</v>
+      </c>
+      <c r="N130">
+        <f t="shared" ref="N130:N137" si="247">B130</f>
+        <v>130</v>
+      </c>
+      <c r="O130" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q130">
+        <f t="shared" si="150"/>
+        <v>5</v>
+      </c>
+      <c r="T130" s="3" t="str">
+        <f t="shared" ref="T130:T137" si="248">_xlfn.CONCAT(A130:O130)</f>
+        <v>&lt;value130&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483791&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro129&lt;/name&gt; &lt;id&gt;{639fd693-2df5-3448-8ce7-ada643917c61}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;International5&lt;/value0&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value130&gt;</v>
+      </c>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="L131" s="1"/>
-      <c r="O131" s="1"/>
+      <c r="A131" s="1" t="str">
+        <f t="shared" si="224"/>
+        <v>&lt;value</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="225"/>
+        <v>131</v>
+      </c>
+      <c r="C131" s="1" t="str">
+        <f t="shared" si="165"/>
+        <v>&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="226"/>
+        <v>2147483792</v>
+      </c>
+      <c r="E131" t="s">
+        <v>48</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="227"/>
+        <v>130</v>
+      </c>
+      <c r="G131" t="s">
+        <v>47</v>
+      </c>
+      <c r="H131" t="s">
+        <v>374</v>
+      </c>
+      <c r="I131" s="1" t="str">
+        <f t="shared" si="228"/>
+        <v>}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;</v>
+      </c>
+      <c r="J131" s="1" t="str">
+        <f t="shared" si="241"/>
+        <v>&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;</v>
+      </c>
+      <c r="K131" s="1" t="str">
+        <f t="shared" si="246"/>
+        <v>International5</v>
+      </c>
+      <c r="L131" s="1" t="str">
+        <f t="shared" si="242"/>
+        <v>&lt;/value1&gt;</v>
+      </c>
+      <c r="M131" t="s">
+        <v>27</v>
+      </c>
+      <c r="N131">
+        <f t="shared" si="247"/>
+        <v>131</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q131">
+        <f t="shared" si="150"/>
+        <v>5</v>
+      </c>
+      <c r="T131" s="3" t="str">
+        <f t="shared" si="248"/>
+        <v>&lt;value131&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483792&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro130&lt;/name&gt; &lt;id&gt;{535aad89-0143-2226-075d-d477747e414e}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;International5&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value131&gt;</v>
+      </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="L132" s="1"/>
-      <c r="O132" s="1"/>
+      <c r="A132" s="1" t="str">
+        <f t="shared" si="224"/>
+        <v>&lt;value</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="225"/>
+        <v>132</v>
+      </c>
+      <c r="C132" s="1" t="str">
+        <f t="shared" si="165"/>
+        <v>&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="226"/>
+        <v>2147483793</v>
+      </c>
+      <c r="E132" t="s">
+        <v>48</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="227"/>
+        <v>131</v>
+      </c>
+      <c r="G132" t="s">
+        <v>47</v>
+      </c>
+      <c r="H132" t="s">
+        <v>375</v>
+      </c>
+      <c r="I132" s="1" t="str">
+        <f t="shared" si="228"/>
+        <v>}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;</v>
+      </c>
+      <c r="J132" s="1" t="str">
+        <f t="shared" si="241"/>
+        <v>&lt;value0&gt;LeftAlt&lt;/value0&gt; &lt;value1&gt;</v>
+      </c>
+      <c r="K132" s="1" t="str">
+        <f t="shared" si="246"/>
+        <v>International5</v>
+      </c>
+      <c r="L132" s="1" t="str">
+        <f t="shared" si="242"/>
+        <v>&lt;/value1&gt;</v>
+      </c>
+      <c r="M132" t="s">
+        <v>27</v>
+      </c>
+      <c r="N132">
+        <f t="shared" si="247"/>
+        <v>132</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q132">
+        <f t="shared" si="150"/>
+        <v>5</v>
+      </c>
+      <c r="T132" s="3" t="str">
+        <f t="shared" si="248"/>
+        <v>&lt;value132&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483793&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro131&lt;/name&gt; &lt;id&gt;{5ec83573-76c3-214c-0521-8c6fb96e4000}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftAlt&lt;/value0&gt; &lt;value1&gt;International5&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value132&gt;</v>
+      </c>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="L133" s="1"/>
-      <c r="O133" s="1"/>
+      <c r="A133" s="1" t="str">
+        <f t="shared" si="224"/>
+        <v>&lt;value</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="225"/>
+        <v>133</v>
+      </c>
+      <c r="C133" s="1" t="str">
+        <f t="shared" si="165"/>
+        <v>&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="226"/>
+        <v>2147483794</v>
+      </c>
+      <c r="E133" t="s">
+        <v>48</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="227"/>
+        <v>132</v>
+      </c>
+      <c r="G133" t="s">
+        <v>47</v>
+      </c>
+      <c r="H133" t="s">
+        <v>376</v>
+      </c>
+      <c r="I133" s="1" t="str">
+        <f t="shared" si="228"/>
+        <v>}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;</v>
+      </c>
+      <c r="J133" s="1" t="str">
+        <f t="shared" si="241"/>
+        <v>&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;</v>
+      </c>
+      <c r="K133" s="1" t="str">
+        <f t="shared" si="246"/>
+        <v>International5</v>
+      </c>
+      <c r="L133" s="1" t="str">
+        <f t="shared" si="242"/>
+        <v>&lt;/value2&gt;</v>
+      </c>
+      <c r="M133" t="s">
+        <v>27</v>
+      </c>
+      <c r="N133">
+        <f t="shared" si="247"/>
+        <v>133</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q133">
+        <f t="shared" si="150"/>
+        <v>5</v>
+      </c>
+      <c r="T133" s="3" t="str">
+        <f t="shared" si="248"/>
+        <v>&lt;value133&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483794&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro132&lt;/name&gt; &lt;id&gt;{4ce4b2db-3f19-77e1-445d-1c8c5bce6706}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;International5&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value133&gt;</v>
+      </c>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
-      <c r="K134" s="1"/>
-      <c r="L134" s="1"/>
-      <c r="O134" s="1"/>
+      <c r="A134" s="1" t="str">
+        <f t="shared" si="224"/>
+        <v>&lt;value</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="225"/>
+        <v>134</v>
+      </c>
+      <c r="C134" s="1" t="str">
+        <f t="shared" si="165"/>
+        <v>&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="226"/>
+        <v>2147483795</v>
+      </c>
+      <c r="E134" t="s">
+        <v>48</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="227"/>
+        <v>133</v>
+      </c>
+      <c r="G134" t="s">
+        <v>47</v>
+      </c>
+      <c r="H134" t="s">
+        <v>377</v>
+      </c>
+      <c r="I134" s="1" t="str">
+        <f t="shared" si="228"/>
+        <v>}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;</v>
+      </c>
+      <c r="J134" s="1" t="str">
+        <f t="shared" si="241"/>
+        <v>&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;</v>
+      </c>
+      <c r="K134" s="1" t="str">
+        <f t="shared" si="246"/>
+        <v>International5</v>
+      </c>
+      <c r="L134" s="1" t="str">
+        <f t="shared" si="242"/>
+        <v>&lt;/value1&gt;</v>
+      </c>
+      <c r="M134" t="s">
+        <v>27</v>
+      </c>
+      <c r="N134">
+        <f t="shared" si="247"/>
+        <v>134</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q134">
+        <f t="shared" si="150"/>
+        <v>5</v>
+      </c>
+      <c r="T134" s="3" t="str">
+        <f t="shared" si="248"/>
+        <v>&lt;value134&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483795&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro133&lt;/name&gt; &lt;id&gt;{3074ee79-5362-2603-04f3-23d85152191d}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;International5&lt;/value1&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value134&gt;</v>
+      </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
-      <c r="K135" s="1"/>
-      <c r="L135" s="1"/>
-      <c r="O135" s="1"/>
+      <c r="A135" s="1" t="str">
+        <f t="shared" si="224"/>
+        <v>&lt;value</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="225"/>
+        <v>135</v>
+      </c>
+      <c r="C135" s="1" t="str">
+        <f t="shared" si="165"/>
+        <v>&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="226"/>
+        <v>2147483796</v>
+      </c>
+      <c r="E135" t="s">
+        <v>48</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="227"/>
+        <v>134</v>
+      </c>
+      <c r="G135" t="s">
+        <v>47</v>
+      </c>
+      <c r="H135" t="s">
+        <v>378</v>
+      </c>
+      <c r="I135" s="1" t="str">
+        <f t="shared" si="228"/>
+        <v>}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;</v>
+      </c>
+      <c r="J135" s="1" t="str">
+        <f t="shared" si="241"/>
+        <v>&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;</v>
+      </c>
+      <c r="K135" s="1" t="str">
+        <f t="shared" si="246"/>
+        <v>International5</v>
+      </c>
+      <c r="L135" s="1" t="str">
+        <f t="shared" si="242"/>
+        <v>&lt;/value2&gt;</v>
+      </c>
+      <c r="M135" t="s">
+        <v>27</v>
+      </c>
+      <c r="N135">
+        <f t="shared" si="247"/>
+        <v>135</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q135">
+        <f t="shared" si="150"/>
+        <v>5</v>
+      </c>
+      <c r="T135" s="3" t="str">
+        <f t="shared" si="248"/>
+        <v>&lt;value135&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483796&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro134&lt;/name&gt; &lt;id&gt;{ec5d869e-2d65-47d9-806d-515315785ef9}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;International5&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value135&gt;</v>
+      </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
-      <c r="K136" s="1"/>
-      <c r="L136" s="1"/>
-      <c r="O136" s="1"/>
+      <c r="A136" s="1" t="str">
+        <f t="shared" si="224"/>
+        <v>&lt;value</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="225"/>
+        <v>136</v>
+      </c>
+      <c r="C136" s="1" t="str">
+        <f t="shared" si="165"/>
+        <v>&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="226"/>
+        <v>2147483797</v>
+      </c>
+      <c r="E136" t="s">
+        <v>48</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="227"/>
+        <v>135</v>
+      </c>
+      <c r="G136" t="s">
+        <v>47</v>
+      </c>
+      <c r="H136" t="s">
+        <v>379</v>
+      </c>
+      <c r="I136" s="1" t="str">
+        <f t="shared" si="228"/>
+        <v>}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;</v>
+      </c>
+      <c r="J136" s="1" t="str">
+        <f t="shared" si="241"/>
+        <v>&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;</v>
+      </c>
+      <c r="K136" s="1" t="str">
+        <f t="shared" si="246"/>
+        <v>International5</v>
+      </c>
+      <c r="L136" s="1" t="str">
+        <f t="shared" si="242"/>
+        <v>&lt;/value2&gt;</v>
+      </c>
+      <c r="M136" t="s">
+        <v>27</v>
+      </c>
+      <c r="N136">
+        <f t="shared" si="247"/>
+        <v>136</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q136">
+        <f t="shared" si="150"/>
+        <v>5</v>
+      </c>
+      <c r="T136" s="3" t="str">
+        <f t="shared" si="248"/>
+        <v>&lt;value136&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483797&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro135&lt;/name&gt; &lt;id&gt;{8930ad24-6f28-77f9-2774-fed6ff902217}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftShift&lt;/value0&gt; &lt;value1&gt;LeftAlt&lt;/value1&gt; &lt;value2&gt;International5&lt;/value2&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value136&gt;</v>
+      </c>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
-      <c r="K137" s="1"/>
-      <c r="L137" s="1"/>
-      <c r="O137" s="1"/>
+      <c r="A137" s="1" t="str">
+        <f t="shared" si="224"/>
+        <v>&lt;value</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="225"/>
+        <v>137</v>
+      </c>
+      <c r="C137" s="1" t="str">
+        <f t="shared" si="165"/>
+        <v>&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="226"/>
+        <v>2147483798</v>
+      </c>
+      <c r="E137" t="s">
+        <v>48</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="227"/>
+        <v>136</v>
+      </c>
+      <c r="G137" t="s">
+        <v>47</v>
+      </c>
+      <c r="H137" t="s">
+        <v>380</v>
+      </c>
+      <c r="I137" s="1" t="str">
+        <f t="shared" si="228"/>
+        <v>}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;</v>
+      </c>
+      <c r="J137" s="1" t="str">
+        <f t="shared" si="241"/>
+        <v>&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;LeftAlt&lt;/value2&gt; &lt;value3&gt;</v>
+      </c>
+      <c r="K137" s="1" t="str">
+        <f t="shared" si="246"/>
+        <v>International5</v>
+      </c>
+      <c r="L137" s="1" t="str">
+        <f t="shared" si="242"/>
+        <v>&lt;/value3&gt;</v>
+      </c>
+      <c r="M137" t="s">
+        <v>27</v>
+      </c>
+      <c r="N137">
+        <f t="shared" si="247"/>
+        <v>137</v>
+      </c>
+      <c r="O137" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q137">
+        <f t="shared" si="150"/>
+        <v>5</v>
+      </c>
+      <c r="T137" s="3" t="str">
+        <f t="shared" si="248"/>
+        <v>&lt;value137&gt; &lt;first&gt; &lt;polymorphic_id&gt;27&lt;/polymorphic_id&gt; &lt;ptr_wrapper&gt; &lt;id&gt;2147483798&lt;/id&gt; &lt;data&gt; &lt;base&gt; &lt;name&gt;PowerAppsMainMacro136&lt;/name&gt; &lt;id&gt;{fdc5c041-6ee3-8ab9-5b08-a0020af00906}&lt;/id&gt;&lt;repeatOptions&gt; &lt;repeatCount&gt;1&lt;/repeatCount&gt; &lt;repeatMode&gt;NoRepeat&lt;/repeatMode&gt; &lt;delay&gt;0&lt;/delay&gt; &lt;delayMode&gt;Constant&lt;/delayMode&gt; &lt;randomDelayFrom&gt;0&lt;/randomDelayFrom&gt; &lt;randomDelayTo&gt;0&lt;/randomDelayTo&gt; &lt;/repeatOptions&gt;&lt;executionHints&gt; &lt;terminateOnSecondExec&gt;false&lt;/terminateOnSecondExec&gt; &lt;restartOnSecondExec&gt;false&lt;/restartOnSecondExec&gt; &lt;execHint&gt;OnBoth&lt;/execHint&gt; &lt;retainOriginalKeyOutput&gt;false&lt;/retainOriginalKeyOutput&gt; &lt;/executionHints&gt;&lt;actionLighting&gt;{00000000-0000-0000-0000-000000000000}&lt;/actionLighting&gt;&lt;actionSoundPath&gt;&lt;/actionSoundPath&gt;&lt;attachedActions size="dynamic" /&gt;&lt;/base&gt;&lt;keyName&gt;&lt;/keyName&gt;&lt;keyStroke size="dynamic"&gt;&lt;value0&gt;LeftCtrl&lt;/value0&gt; &lt;value1&gt;LeftShift&lt;/value1&gt; &lt;value2&gt;LeftAlt&lt;/value2&gt; &lt;value3&gt;International5&lt;/value3&gt;&lt;/keyStroke&gt;&lt;holdingKeyEnabled&gt;false&lt;/holdingKeyEnabled&gt;&lt;holdingKeyType&gt;OnPress&lt;/holdingKeyType&gt;&lt;holdingKeyOnPressInterval&gt;100&lt;/holdingKeyOnPressInterval&gt;&lt;sniperSwitchMode&gt;WhilePressed&lt;/sniperSwitchMode&gt;&lt;/data&gt;&lt;/ptr_wrapper&gt;&lt;/first&gt;&lt;second&gt; &lt;first&gt;F1&lt;/first&gt; &lt;second&gt;Click&lt;/second&gt; &lt;/second&gt;&lt;/value137&gt;</v>
+      </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
@@ -10809,10 +11293,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E279DDDB-1CE1-4893-A52C-DF2DBA95B302}">
-  <dimension ref="A1:V129"/>
+  <dimension ref="A1:V137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="K131" sqref="K130:K131"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="K124" sqref="K124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15532,7 +16016,7 @@
         <v>F22</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" ref="E75:E129" si="18">E67</f>
+        <f t="shared" ref="E75:E137" si="18">E67</f>
         <v>Ctrl</v>
       </c>
       <c r="J75" t="s">
@@ -15550,7 +16034,7 @@
         <v>backspace</v>
       </c>
       <c r="N75" s="10" t="str">
-        <f t="shared" ref="N75:N113" si="21">N67</f>
+        <f t="shared" ref="N75:N137" si="21">N67</f>
         <v xml:space="preserve">
 ^</v>
       </c>
@@ -17655,7 +18139,7 @@
     </row>
     <row r="113" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <f t="shared" ref="A113:A129" si="24">A112+1</f>
+        <f t="shared" ref="A113:A141" si="24">A112+1</f>
         <v>112</v>
       </c>
       <c r="D113" t="str">
@@ -17681,7 +18165,7 @@
         <v>0</v>
       </c>
       <c r="N113" s="10" t="str">
-        <f t="shared" si="21"/>
+        <f>N105</f>
         <v xml:space="preserve">
 ^!+</v>
       </c>
@@ -17716,6 +18200,7 @@
         <f t="shared" si="18"/>
         <v>None</v>
       </c>
+      <c r="N114" s="10"/>
       <c r="O114" t="s">
         <v>383</v>
       </c>
@@ -17726,13 +18211,14 @@
         <v>114</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" ref="D115:D129" si="26">_xlfn.CONCAT("International", QUOTIENT(A115-1,8) - 11)</f>
+        <f t="shared" ref="D115:D130" si="26">_xlfn.CONCAT("International", QUOTIENT(A115-1,8) - 11)</f>
         <v>International3</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="18"/>
         <v>Ctrl</v>
       </c>
+      <c r="N115" s="10"/>
       <c r="O115" t="s">
         <v>383</v>
       </c>
@@ -17750,6 +18236,7 @@
         <f t="shared" si="18"/>
         <v>Alt</v>
       </c>
+      <c r="N116" s="10"/>
       <c r="O116" t="s">
         <v>383</v>
       </c>
@@ -17767,6 +18254,7 @@
         <f t="shared" si="18"/>
         <v>Ctrl + Alt</v>
       </c>
+      <c r="N117" s="10"/>
       <c r="O117" t="s">
         <v>383</v>
       </c>
@@ -17784,6 +18272,7 @@
         <f t="shared" si="18"/>
         <v>Shift</v>
       </c>
+      <c r="N118" s="10"/>
       <c r="O118" t="s">
         <v>383</v>
       </c>
@@ -17801,6 +18290,7 @@
         <f t="shared" si="18"/>
         <v>Ctrl + Shift</v>
       </c>
+      <c r="N119" s="10"/>
       <c r="O119" t="s">
         <v>383</v>
       </c>
@@ -17818,6 +18308,7 @@
         <f t="shared" si="18"/>
         <v>Alt + Shift</v>
       </c>
+      <c r="N120" s="10"/>
       <c r="O120" t="s">
         <v>383</v>
       </c>
@@ -17835,6 +18326,7 @@
         <f t="shared" si="18"/>
         <v>Ctrl + Alt + Shift</v>
       </c>
+      <c r="N121" s="10"/>
       <c r="O121" t="s">
         <v>383</v>
       </c>
@@ -17852,6 +18344,7 @@
         <f t="shared" si="18"/>
         <v>None</v>
       </c>
+      <c r="N122" s="10"/>
       <c r="O122" t="s">
         <v>382</v>
       </c>
@@ -17869,6 +18362,7 @@
         <f t="shared" si="18"/>
         <v>Ctrl</v>
       </c>
+      <c r="N123" s="10"/>
       <c r="O123" t="s">
         <v>382</v>
       </c>
@@ -17886,6 +18380,7 @@
         <f t="shared" si="18"/>
         <v>Alt</v>
       </c>
+      <c r="N124" s="10"/>
       <c r="O124" t="s">
         <v>382</v>
       </c>
@@ -17903,6 +18398,7 @@
         <f t="shared" si="18"/>
         <v>Ctrl + Alt</v>
       </c>
+      <c r="N125" s="10"/>
       <c r="O125" t="s">
         <v>382</v>
       </c>
@@ -17920,6 +18416,7 @@
         <f t="shared" si="18"/>
         <v>Shift</v>
       </c>
+      <c r="N126" s="10"/>
       <c r="O126" t="s">
         <v>382</v>
       </c>
@@ -17937,6 +18434,7 @@
         <f t="shared" si="18"/>
         <v>Ctrl + Shift</v>
       </c>
+      <c r="N127" s="10"/>
       <c r="O127" t="s">
         <v>382</v>
       </c>
@@ -17954,11 +18452,12 @@
         <f t="shared" si="18"/>
         <v>Alt + Shift</v>
       </c>
+      <c r="N128" s="10"/>
       <c r="O128" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="24"/>
         <v>128</v>
@@ -17970,6 +18469,200 @@
       <c r="E129" t="str">
         <f t="shared" si="18"/>
         <v>Ctrl + Alt + Shift</v>
+      </c>
+      <c r="N129" s="10"/>
+      <c r="O129" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" si="24"/>
+        <v>129</v>
+      </c>
+      <c r="D130" t="str">
+        <f>_xlfn.CONCAT("International", QUOTIENT(A130-1,8) - 11)</f>
+        <v>International5</v>
+      </c>
+      <c r="E130" t="str">
+        <f t="shared" si="18"/>
+        <v>None</v>
+      </c>
+      <c r="N130" s="10"/>
+      <c r="O130" t="s">
+        <v>384</v>
+      </c>
+      <c r="P130" t="str">
+        <f>_xlfn.CONCAT(N130:O130)</f>
+        <v>SC07B</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" si="24"/>
+        <v>130</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" ref="D131:D141" si="27">_xlfn.CONCAT("International", QUOTIENT(A131-1,8) - 11)</f>
+        <v>International5</v>
+      </c>
+      <c r="E131" t="str">
+        <f t="shared" si="18"/>
+        <v>Ctrl</v>
+      </c>
+      <c r="N131" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="O131" t="s">
+        <v>384</v>
+      </c>
+      <c r="P131" t="str">
+        <f t="shared" ref="P131:P137" si="28">_xlfn.CONCAT(N131:O131)</f>
+        <v>^SC07B</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f t="shared" si="24"/>
+        <v>131</v>
+      </c>
+      <c r="D132" t="str">
+        <f t="shared" si="27"/>
+        <v>International5</v>
+      </c>
+      <c r="E132" t="str">
+        <f t="shared" si="18"/>
+        <v>Alt</v>
+      </c>
+      <c r="N132" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="O132" t="s">
+        <v>384</v>
+      </c>
+      <c r="P132" t="str">
+        <f t="shared" si="28"/>
+        <v>!SC07B</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f t="shared" si="24"/>
+        <v>132</v>
+      </c>
+      <c r="D133" t="str">
+        <f t="shared" si="27"/>
+        <v>International5</v>
+      </c>
+      <c r="E133" t="str">
+        <f t="shared" si="18"/>
+        <v>Ctrl + Alt</v>
+      </c>
+      <c r="N133" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="O133" t="s">
+        <v>384</v>
+      </c>
+      <c r="P133" t="str">
+        <f t="shared" si="28"/>
+        <v>^!SC07B</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f t="shared" si="24"/>
+        <v>133</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" si="27"/>
+        <v>International5</v>
+      </c>
+      <c r="E134" t="str">
+        <f t="shared" si="18"/>
+        <v>Shift</v>
+      </c>
+      <c r="N134" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="O134" t="s">
+        <v>384</v>
+      </c>
+      <c r="P134" t="str">
+        <f t="shared" si="28"/>
+        <v>+SC07B</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f t="shared" si="24"/>
+        <v>134</v>
+      </c>
+      <c r="D135" t="str">
+        <f t="shared" si="27"/>
+        <v>International5</v>
+      </c>
+      <c r="E135" t="str">
+        <f t="shared" si="18"/>
+        <v>Ctrl + Shift</v>
+      </c>
+      <c r="N135" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="O135" t="s">
+        <v>384</v>
+      </c>
+      <c r="P135" t="str">
+        <f t="shared" si="28"/>
+        <v>^+SC07B</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f t="shared" si="24"/>
+        <v>135</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" si="27"/>
+        <v>International5</v>
+      </c>
+      <c r="E136" t="str">
+        <f t="shared" si="18"/>
+        <v>Alt + Shift</v>
+      </c>
+      <c r="N136" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="O136" t="s">
+        <v>384</v>
+      </c>
+      <c r="P136" t="str">
+        <f t="shared" si="28"/>
+        <v>!+SC07B</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f t="shared" si="24"/>
+        <v>136</v>
+      </c>
+      <c r="D137" t="str">
+        <f t="shared" si="27"/>
+        <v>International5</v>
+      </c>
+      <c r="E137" t="str">
+        <f t="shared" si="18"/>
+        <v>Ctrl + Alt + Shift</v>
+      </c>
+      <c r="N137" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="O137" t="s">
+        <v>384</v>
+      </c>
+      <c r="P137" t="str">
+        <f t="shared" si="28"/>
+        <v>^!+SC07B</v>
       </c>
     </row>
   </sheetData>
